--- a/etf_dfs/EWS.xlsx
+++ b/etf_dfs/EWS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Open</t>
   </si>
@@ -37,7 +37,10 @@
     <t>Return</t>
   </si>
   <si>
-    <t>Return_12</t>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>Trend</t>
   </si>
   <si>
     <t>EWS</t>
@@ -404,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J311"/>
+  <dimension ref="A1:K312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,8 +441,11 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>35125</v>
       </c>
@@ -456,13 +462,13 @@
         <v>25.625</v>
       </c>
       <c r="F2">
-        <v>10.93748188018799</v>
+        <v>10.93748474121094</v>
       </c>
       <c r="G2">
         <v>3100</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>35156</v>
       </c>
@@ -488,7 +494,7 @@
         <v>-0.009756097560975618</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>35186</v>
       </c>
@@ -505,7 +511,7 @@
         <v>24.125</v>
       </c>
       <c r="F4">
-        <v>10.29723930358887</v>
+        <v>10.29724311828613</v>
       </c>
       <c r="G4">
         <v>5900</v>
@@ -513,8 +519,11 @@
       <c r="H4">
         <v>-0.04926108374384242</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="I4">
+        <v>0.02793424362058598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>35217</v>
       </c>
@@ -531,7 +540,7 @@
         <v>24.25</v>
       </c>
       <c r="F5">
-        <v>10.35059356689453</v>
+        <v>10.35059452056885</v>
       </c>
       <c r="G5">
         <v>3400</v>
@@ -539,8 +548,11 @@
       <c r="H5">
         <v>0.005181347150259086</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="I5">
+        <v>0.02812990540767574</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>35247</v>
       </c>
@@ -557,7 +569,7 @@
         <v>22.375</v>
       </c>
       <c r="F6">
-        <v>9.550293922424316</v>
+        <v>9.550292015075684</v>
       </c>
       <c r="G6">
         <v>1900</v>
@@ -565,8 +577,11 @@
       <c r="H6">
         <v>-0.07731958762886593</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="I6">
+        <v>0.03753471564134321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>35278</v>
       </c>
@@ -591,8 +606,11 @@
       <c r="H7">
         <v>0.02793296089385477</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="I7">
+        <v>0.04235645115712706</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>35309</v>
       </c>
@@ -609,7 +627,7 @@
         <v>22.75</v>
       </c>
       <c r="F8">
-        <v>9.740842819213867</v>
+        <v>9.740843772888184</v>
       </c>
       <c r="G8">
         <v>7450</v>
@@ -617,8 +635,11 @@
       <c r="H8">
         <v>-0.01086956521739135</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="I8">
+        <v>0.03809435692962232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>35339</v>
       </c>
@@ -635,7 +656,7 @@
         <v>21.875</v>
       </c>
       <c r="F9">
-        <v>9.366196632385254</v>
+        <v>9.366195678710938</v>
       </c>
       <c r="G9">
         <v>6850</v>
@@ -643,8 +664,11 @@
       <c r="H9">
         <v>-0.03846153846153844</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="I9">
+        <v>0.03554347753232521</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>35370</v>
       </c>
@@ -661,7 +685,7 @@
         <v>23.5</v>
       </c>
       <c r="F10">
-        <v>10.06197166442871</v>
+        <v>10.06196975708008</v>
       </c>
       <c r="G10">
         <v>7850</v>
@@ -669,8 +693,11 @@
       <c r="H10">
         <v>0.07428571428571429</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="I10">
+        <v>0.04729440285853883</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>35400</v>
       </c>
@@ -687,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="F11">
-        <v>10.27605724334717</v>
+        <v>10.27605628967285</v>
       </c>
       <c r="G11">
         <v>2400</v>
@@ -695,8 +722,11 @@
       <c r="H11">
         <v>0.02127659574468077</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="I11">
+        <v>0.04543520129610622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>35431</v>
       </c>
@@ -713,7 +743,7 @@
         <v>24.875</v>
       </c>
       <c r="F12">
-        <v>10.65070056915283</v>
+        <v>10.65070152282715</v>
       </c>
       <c r="G12">
         <v>7550</v>
@@ -721,8 +751,11 @@
       <c r="H12">
         <v>0.03645833333333326</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="I12">
+        <v>0.04492314344313618</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>35462</v>
       </c>
@@ -739,7 +772,7 @@
         <v>23.5</v>
       </c>
       <c r="F13">
-        <v>10.06197166442871</v>
+        <v>10.06196975708008</v>
       </c>
       <c r="G13">
         <v>6200</v>
@@ -747,8 +780,11 @@
       <c r="H13">
         <v>-0.05527638190954776</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="I13">
+        <v>0.04553897089620563</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>35490</v>
       </c>
@@ -765,7 +801,7 @@
         <v>21.5</v>
       </c>
       <c r="F14">
-        <v>9.205631256103516</v>
+        <v>9.205636978149414</v>
       </c>
       <c r="G14">
         <v>4500</v>
@@ -774,13 +810,16 @@
         <v>-0.08510638297872342</v>
       </c>
       <c r="I14">
-        <v>-0.1609756097560976</v>
+        <v>0.04893939921873557</v>
       </c>
       <c r="J14">
         <v>-0.1609756097560976</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>-0.1609756097560976</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>35521</v>
       </c>
@@ -797,7 +836,7 @@
         <v>21.25</v>
       </c>
       <c r="F15">
-        <v>9.098591804504395</v>
+        <v>9.098589897155762</v>
       </c>
       <c r="G15">
         <v>1400</v>
@@ -806,13 +845,16 @@
         <v>-0.01162790697674421</v>
       </c>
       <c r="I15">
-        <v>-0.1625615763546798</v>
+        <v>0.04685851321722408</v>
       </c>
       <c r="J15">
         <v>-0.1625615763546798</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>-0.1625615763546798</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>35551</v>
       </c>
@@ -829,7 +871,7 @@
         <v>22.25</v>
       </c>
       <c r="F16">
-        <v>9.526762008666992</v>
+        <v>9.526759147644043</v>
       </c>
       <c r="G16">
         <v>50</v>
@@ -838,13 +880,16 @@
         <v>0.04705882352941182</v>
       </c>
       <c r="I16">
-        <v>-0.07772020725388606</v>
+        <v>0.04782060268631265</v>
       </c>
       <c r="J16">
         <v>-0.07772020725388606</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>-0.07772020725388606</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>35582</v>
       </c>
@@ -861,7 +906,7 @@
         <v>22</v>
       </c>
       <c r="F17">
-        <v>9.419716835021973</v>
+        <v>9.419720649719238</v>
       </c>
       <c r="G17">
         <v>26000</v>
@@ -870,13 +915,16 @@
         <v>-0.0112359550561798</v>
       </c>
       <c r="I17">
-        <v>-0.09278350515463918</v>
+        <v>0.04608482210663877</v>
       </c>
       <c r="J17">
         <v>-0.09278350515463918</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>-0.09278350515463918</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>35612</v>
       </c>
@@ -893,7 +941,7 @@
         <v>22.375</v>
       </c>
       <c r="F18">
-        <v>9.580283164978027</v>
+        <v>9.580278396606445</v>
       </c>
       <c r="G18">
         <v>1950</v>
@@ -902,13 +950,16 @@
         <v>0.01704545454545459</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.04499995104835842</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>35643</v>
       </c>
@@ -925,7 +976,7 @@
         <v>17.5</v>
       </c>
       <c r="F19">
-        <v>7.533636569976807</v>
+        <v>7.533638954162598</v>
       </c>
       <c r="G19">
         <v>27600</v>
@@ -934,13 +985,16 @@
         <v>-0.2178770949720671</v>
       </c>
       <c r="I19">
-        <v>-0.2391304347826086</v>
+        <v>0.06709976297570926</v>
       </c>
       <c r="J19">
         <v>-0.2391304347826086</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>-0.2391304347826086</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>35674</v>
       </c>
@@ -957,7 +1011,7 @@
         <v>18.375</v>
       </c>
       <c r="F20">
-        <v>7.910321235656738</v>
+        <v>7.91032075881958</v>
       </c>
       <c r="G20">
         <v>14350</v>
@@ -966,13 +1020,16 @@
         <v>0.05000000000000004</v>
       </c>
       <c r="I20">
-        <v>-0.1923076923076923</v>
+        <v>0.06714637709001604</v>
       </c>
       <c r="J20">
         <v>-0.1923076923076923</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>-0.1923076923076923</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>35704</v>
       </c>
@@ -989,7 +1046,7 @@
         <v>14.875</v>
       </c>
       <c r="F21">
-        <v>6.403593063354492</v>
+        <v>6.40359354019165</v>
       </c>
       <c r="G21">
         <v>33700</v>
@@ -998,13 +1055,16 @@
         <v>-0.1904761904761905</v>
       </c>
       <c r="I21">
-        <v>-0.32</v>
+        <v>0.07655599500759432</v>
       </c>
       <c r="J21">
         <v>-0.32</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="2">
         <v>35735</v>
       </c>
@@ -1021,7 +1081,7 @@
         <v>14.75</v>
       </c>
       <c r="F22">
-        <v>6.349780559539795</v>
+        <v>6.349781513214111</v>
       </c>
       <c r="G22">
         <v>20300</v>
@@ -1030,13 +1090,16 @@
         <v>-0.008403361344537785</v>
       </c>
       <c r="I22">
-        <v>-0.3723404255319149</v>
+        <v>0.07460827286008648</v>
       </c>
       <c r="J22">
         <v>-0.3723404255319149</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>-0.3723404255319149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="2">
         <v>35765</v>
       </c>
@@ -1053,7 +1116,7 @@
         <v>13.25</v>
       </c>
       <c r="F23">
-        <v>5.712503910064697</v>
+        <v>5.712504386901855</v>
       </c>
       <c r="G23">
         <v>21350</v>
@@ -1062,13 +1125,16 @@
         <v>-0.1016949152542372</v>
       </c>
       <c r="I23">
-        <v>-0.4479166666666666</v>
+        <v>0.07465354851425733</v>
       </c>
       <c r="J23">
         <v>-0.4479166666666666</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>-0.4479166666666666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2">
         <v>35796</v>
       </c>
@@ -1085,7 +1151,7 @@
         <v>12</v>
       </c>
       <c r="F24">
-        <v>5.173588275909424</v>
+        <v>5.17358922958374</v>
       </c>
       <c r="G24">
         <v>399700</v>
@@ -1094,13 +1160,16 @@
         <v>-0.09433962264150941</v>
       </c>
       <c r="I24">
-        <v>-0.5175879396984925</v>
+        <v>0.07421435613757417</v>
       </c>
       <c r="J24">
         <v>-0.5175879396984925</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>-0.5175879396984925</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2">
         <v>35827</v>
       </c>
@@ -1117,7 +1186,7 @@
         <v>13.75</v>
       </c>
       <c r="F25">
-        <v>5.9280686378479</v>
+        <v>5.928069591522217</v>
       </c>
       <c r="G25">
         <v>59750</v>
@@ -1126,13 +1195,16 @@
         <v>0.1458333333333333</v>
       </c>
       <c r="I25">
-        <v>-0.4148936170212766</v>
+        <v>0.08134684945693245</v>
       </c>
       <c r="J25">
         <v>-0.4148936170212766</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <v>-0.4148936170212766</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2">
         <v>35855</v>
       </c>
@@ -1149,7 +1221,7 @@
         <v>14</v>
       </c>
       <c r="F26">
-        <v>6.035853385925293</v>
+        <v>6.035851955413818</v>
       </c>
       <c r="G26">
         <v>83450</v>
@@ -1158,13 +1230,16 @@
         <v>0.01818181818181808</v>
       </c>
       <c r="I26">
-        <v>-0.3488372093023255</v>
+        <v>0.08000880307370795</v>
       </c>
       <c r="J26">
         <v>-0.3488372093023255</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>-0.3488372093023255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2">
         <v>35886</v>
       </c>
@@ -1181,7 +1256,7 @@
         <v>12.625</v>
       </c>
       <c r="F27">
-        <v>5.443045616149902</v>
+        <v>5.443044185638428</v>
       </c>
       <c r="G27">
         <v>14050</v>
@@ -1190,13 +1265,16 @@
         <v>-0.0982142857142857</v>
       </c>
       <c r="I27">
-        <v>-0.4058823529411765</v>
+        <v>0.07980889713290489</v>
       </c>
       <c r="J27">
         <v>-0.4058823529411765</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <v>-0.4058823529411765</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="2">
         <v>35916</v>
       </c>
@@ -1213,7 +1291,7 @@
         <v>10.25</v>
       </c>
       <c r="F28">
-        <v>4.419106006622314</v>
+        <v>4.419105529785156</v>
       </c>
       <c r="G28">
         <v>24650</v>
@@ -1222,13 +1300,16 @@
         <v>-0.1881188118811881</v>
       </c>
       <c r="I28">
-        <v>-0.5393258426966292</v>
+        <v>0.08451179731133303</v>
       </c>
       <c r="J28">
         <v>-0.5393258426966292</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28">
+        <v>-0.5393258426966292</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="2">
         <v>35947</v>
       </c>
@@ -1245,7 +1326,7 @@
         <v>8.875</v>
       </c>
       <c r="F29">
-        <v>3.826299905776978</v>
+        <v>3.82629919052124</v>
       </c>
       <c r="G29">
         <v>55700</v>
@@ -1254,13 +1335,16 @@
         <v>-0.1341463414634146</v>
       </c>
       <c r="I29">
-        <v>-0.5965909090909092</v>
+        <v>0.08521703321080132</v>
       </c>
       <c r="J29">
         <v>-0.5965909090909092</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <v>-0.5965909090909092</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="2">
         <v>35977</v>
       </c>
@@ -1277,7 +1361,7 @@
         <v>8.875</v>
       </c>
       <c r="F30">
-        <v>3.826299905776978</v>
+        <v>3.82629919052124</v>
       </c>
       <c r="G30">
         <v>43450</v>
@@ -1286,13 +1370,16 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>-0.6033519553072626</v>
+        <v>0.08388189162744351</v>
       </c>
       <c r="J30">
         <v>-0.6033519553072626</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30">
+        <v>-0.6033519553072626</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="2">
         <v>36008</v>
       </c>
@@ -1318,13 +1405,16 @@
         <v>-0.2816901408450704</v>
       </c>
       <c r="I31">
-        <v>-0.6357142857142857</v>
+        <v>0.09438427762080435</v>
       </c>
       <c r="J31">
         <v>-0.6357142857142857</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31">
+        <v>-0.6357142857142857</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="2">
         <v>36039</v>
       </c>
@@ -1341,7 +1431,7 @@
         <v>7.5</v>
       </c>
       <c r="F32">
-        <v>3.286069631576538</v>
+        <v>3.286069393157959</v>
       </c>
       <c r="G32">
         <v>12450</v>
@@ -1350,13 +1440,16 @@
         <v>0.1764705882352942</v>
       </c>
       <c r="I32">
-        <v>-0.5918367346938775</v>
+        <v>0.1009628764851412</v>
       </c>
       <c r="J32">
         <v>-0.5918367346938775</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32">
+        <v>-0.5918367346938775</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="2">
         <v>36069</v>
       </c>
@@ -1373,7 +1466,7 @@
         <v>10.5</v>
       </c>
       <c r="F33">
-        <v>4.600496768951416</v>
+        <v>4.600498199462891</v>
       </c>
       <c r="G33">
         <v>44000</v>
@@ -1382,13 +1475,16 @@
         <v>0.3999999999999999</v>
       </c>
       <c r="I33">
-        <v>-0.2941176470588235</v>
+        <v>0.1263023364536795</v>
       </c>
       <c r="J33">
         <v>-0.2941176470588235</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33">
+        <v>-0.2941176470588235</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="2">
         <v>36100</v>
       </c>
@@ -1405,7 +1501,7 @@
         <v>11.875</v>
       </c>
       <c r="F34">
-        <v>5.202943801879883</v>
+        <v>5.202943325042725</v>
       </c>
       <c r="G34">
         <v>36900</v>
@@ -1414,13 +1510,16 @@
         <v>0.1309523809523809</v>
       </c>
       <c r="I34">
-        <v>-0.1949152542372882</v>
+        <v>0.127110744156588</v>
       </c>
       <c r="J34">
         <v>-0.1949152542372882</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34">
+        <v>-0.1949152542372882</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="2">
         <v>36130</v>
       </c>
@@ -1437,7 +1536,7 @@
         <v>12.25</v>
       </c>
       <c r="F35">
-        <v>5.4213547706604</v>
+        <v>5.421353816986084</v>
       </c>
       <c r="G35">
         <v>26650</v>
@@ -1446,13 +1545,16 @@
         <v>0.03157894736842115</v>
       </c>
       <c r="I35">
-        <v>-0.07547169811320753</v>
+        <v>0.1253831618568328</v>
       </c>
       <c r="J35">
         <v>-0.07547169811320753</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35">
+        <v>-0.07547169811320753</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="2">
         <v>36161</v>
       </c>
@@ -1469,7 +1571,7 @@
         <v>12</v>
       </c>
       <c r="F36">
-        <v>5.310714721679688</v>
+        <v>5.310713768005371</v>
       </c>
       <c r="G36">
         <v>13100</v>
@@ -1478,13 +1580,16 @@
         <v>-0.02040816326530615</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>0.1234728282356818</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="2">
         <v>36192</v>
       </c>
@@ -1501,7 +1606,7 @@
         <v>11.625</v>
       </c>
       <c r="F37">
-        <v>5.144752979278564</v>
+        <v>5.144753456115723</v>
       </c>
       <c r="G37">
         <v>32850</v>
@@ -1510,13 +1615,16 @@
         <v>-0.03125</v>
       </c>
       <c r="I37">
-        <v>-0.1545454545454545</v>
+        <v>0.1216754085994951</v>
       </c>
       <c r="J37">
         <v>-0.1545454545454545</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37">
+        <v>-0.1545454545454545</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="2">
         <v>36220</v>
       </c>
@@ -1533,7 +1641,7 @@
         <v>12</v>
       </c>
       <c r="F38">
-        <v>5.310714721679688</v>
+        <v>5.310713768005371</v>
       </c>
       <c r="G38">
         <v>46100</v>
@@ -1542,13 +1650,16 @@
         <v>0.032258064516129</v>
       </c>
       <c r="I38">
-        <v>-0.1428571428571429</v>
+        <v>0.1201855524215567</v>
       </c>
       <c r="J38">
         <v>-0.1428571428571429</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38">
+        <v>-0.1428571428571429</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="2">
         <v>36251</v>
       </c>
@@ -1574,13 +1685,16 @@
         <v>0.2708333333333333</v>
       </c>
       <c r="I39">
-        <v>0.2079207920792079</v>
+        <v>0.1274156889786067</v>
       </c>
       <c r="J39">
         <v>0.2079207920792079</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39">
+        <v>0.2079207920792079</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="2">
         <v>36281</v>
       </c>
@@ -1597,7 +1711,7 @@
         <v>14.875</v>
       </c>
       <c r="F40">
-        <v>6.583072662353516</v>
+        <v>6.58307409286499</v>
       </c>
       <c r="G40">
         <v>14050</v>
@@ -1606,13 +1720,16 @@
         <v>-0.02459016393442626</v>
       </c>
       <c r="I40">
-        <v>0.4512195121951219</v>
+        <v>0.1257173813295576</v>
       </c>
       <c r="J40">
         <v>0.4512195121951219</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40">
+        <v>0.4512195121951219</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="2">
         <v>36312</v>
       </c>
@@ -1629,7 +1746,7 @@
         <v>17.25</v>
       </c>
       <c r="F41">
-        <v>7.634153842926025</v>
+        <v>7.634151458740234</v>
       </c>
       <c r="G41">
         <v>98150</v>
@@ -1638,13 +1755,16 @@
         <v>0.1596638655462186</v>
       </c>
       <c r="I41">
-        <v>0.943661971830986</v>
+        <v>0.1268804441655765</v>
       </c>
       <c r="J41">
         <v>0.943661971830986</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41">
+        <v>0.943661971830986</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="2">
         <v>36342</v>
       </c>
@@ -1661,7 +1781,7 @@
         <v>16.125</v>
       </c>
       <c r="F42">
-        <v>7.136270999908447</v>
+        <v>7.136271476745605</v>
       </c>
       <c r="G42">
         <v>40550</v>
@@ -1670,13 +1790,16 @@
         <v>-0.06521739130434778</v>
       </c>
       <c r="I42">
-        <v>0.8169014084507042</v>
+        <v>0.1256359429883415</v>
       </c>
       <c r="J42">
         <v>0.8169014084507042</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42">
+        <v>0.8169014084507042</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="2">
         <v>36373</v>
       </c>
@@ -1693,7 +1816,7 @@
         <v>16</v>
       </c>
       <c r="F43">
-        <v>7.13234806060791</v>
+        <v>7.132350444793701</v>
       </c>
       <c r="G43">
         <v>32100</v>
@@ -1702,13 +1825,16 @@
         <v>-0.007751937984496138</v>
       </c>
       <c r="I43">
-        <v>1.509803921568627</v>
+        <v>0.1240569314995559</v>
       </c>
       <c r="J43">
         <v>1.509803921568627</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43">
+        <v>1.509803921568627</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="2">
         <v>36404</v>
       </c>
@@ -1725,7 +1851,7 @@
         <v>15.25</v>
       </c>
       <c r="F44">
-        <v>6.798018455505371</v>
+        <v>6.798017501831055</v>
       </c>
       <c r="G44">
         <v>52500</v>
@@ -1734,13 +1860,16 @@
         <v>-0.046875</v>
       </c>
       <c r="I44">
-        <v>1.033333333333333</v>
+        <v>0.1227123410432205</v>
       </c>
       <c r="J44">
         <v>1.033333333333333</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44">
+        <v>1.033333333333333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="2">
         <v>36434</v>
       </c>
@@ -1766,13 +1895,16 @@
         <v>0.06557377049180335</v>
       </c>
       <c r="I45">
-        <v>0.5476190476190477</v>
+        <v>0.1217210095651094</v>
       </c>
       <c r="J45">
         <v>0.5476190476190477</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45">
+        <v>0.5476190476190477</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="2">
         <v>36465</v>
       </c>
@@ -1789,7 +1921,7 @@
         <v>16.75</v>
       </c>
       <c r="F46">
-        <v>7.4666748046875</v>
+        <v>7.466676712036133</v>
       </c>
       <c r="G46">
         <v>23700</v>
@@ -1798,13 +1930,16 @@
         <v>0.03076923076923066</v>
       </c>
       <c r="I46">
-        <v>0.4105263157894736</v>
+        <v>0.1204080393010312</v>
       </c>
       <c r="J46">
         <v>0.4105263157894736</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46">
+        <v>0.4105263157894736</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="2">
         <v>36495</v>
       </c>
@@ -1821,7 +1956,7 @@
         <v>18.375</v>
       </c>
       <c r="F47">
-        <v>8.276579856872559</v>
+        <v>8.276578903198242</v>
       </c>
       <c r="G47">
         <v>15500</v>
@@ -1830,13 +1965,16 @@
         <v>0.09701492537313428</v>
       </c>
       <c r="I47">
-        <v>0.5</v>
+        <v>0.1199563753179181</v>
       </c>
       <c r="J47">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="2">
         <v>36526</v>
       </c>
@@ -1853,7 +1991,7 @@
         <v>16.125</v>
       </c>
       <c r="F48">
-        <v>7.263120174407959</v>
+        <v>7.263121604919434</v>
       </c>
       <c r="G48">
         <v>99450</v>
@@ -1862,13 +2000,16 @@
         <v>-0.1224489795918368</v>
       </c>
       <c r="I48">
-        <v>0.34375</v>
+        <v>0.119971519462025</v>
       </c>
       <c r="J48">
         <v>0.34375</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48">
+        <v>0.34375</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="2">
         <v>36557</v>
       </c>
@@ -1885,7 +2026,7 @@
         <v>14.375</v>
       </c>
       <c r="F49">
-        <v>6.474875926971436</v>
+        <v>6.47487735748291</v>
       </c>
       <c r="G49">
         <v>76100</v>
@@ -1894,13 +2035,16 @@
         <v>-0.1085271317829457</v>
       </c>
       <c r="I49">
-        <v>0.2365591397849462</v>
+        <v>0.1196520632913664</v>
       </c>
       <c r="J49">
         <v>0.2365591397849462</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49">
+        <v>0.2365591397849462</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="2">
         <v>36586</v>
       </c>
@@ -1917,7 +2061,7 @@
         <v>14.75</v>
       </c>
       <c r="F50">
-        <v>6.643785953521729</v>
+        <v>6.64378547668457</v>
       </c>
       <c r="G50">
         <v>74650</v>
@@ -1926,13 +2070,16 @@
         <v>0.0260869565217392</v>
       </c>
       <c r="I50">
-        <v>0.2291666666666667</v>
+        <v>0.1184593937149524</v>
       </c>
       <c r="J50">
         <v>0.2291666666666667</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50">
+        <v>0.2291666666666667</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="2">
         <v>36617</v>
       </c>
@@ -1958,13 +2105,16 @@
         <v>0.01694915254237284</v>
       </c>
       <c r="I51">
-        <v>-0.01639344262295084</v>
+        <v>0.1172598094261235</v>
       </c>
       <c r="J51">
         <v>-0.01639344262295084</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51">
+        <v>-0.01639344262295084</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="2">
         <v>36647</v>
       </c>
@@ -1981,7 +2131,7 @@
         <v>13.25</v>
       </c>
       <c r="F52">
-        <v>5.968148231506348</v>
+        <v>5.968147277832031</v>
       </c>
       <c r="G52">
         <v>34200</v>
@@ -1990,13 +2140,16 @@
         <v>-0.1166666666666667</v>
       </c>
       <c r="I52">
-        <v>-0.1092436974789915</v>
+        <v>0.1171404514855876</v>
       </c>
       <c r="J52">
         <v>-0.1092436974789915</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52">
+        <v>-0.1092436974789915</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="2">
         <v>36678</v>
       </c>
@@ -2013,7 +2166,7 @@
         <v>14.875</v>
       </c>
       <c r="F53">
-        <v>6.700088500976562</v>
+        <v>6.700089931488037</v>
       </c>
       <c r="G53">
         <v>13800</v>
@@ -2022,13 +2175,16 @@
         <v>0.1226415094339623</v>
       </c>
       <c r="I53">
-        <v>-0.1376811594202898</v>
+        <v>0.1173651571865302</v>
       </c>
       <c r="J53">
         <v>-0.1376811594202898</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53">
+        <v>-0.1376811594202898</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="2">
         <v>36708</v>
       </c>
@@ -2045,7 +2201,7 @@
         <v>14.875</v>
       </c>
       <c r="F54">
-        <v>6.700088500976562</v>
+        <v>6.700089931488037</v>
       </c>
       <c r="G54">
         <v>62450</v>
@@ -2054,13 +2210,16 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>-0.07751937984496127</v>
+        <v>0.1162101402304016</v>
       </c>
       <c r="J54">
         <v>-0.07751937984496127</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54">
+        <v>-0.07751937984496127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="2">
         <v>36739</v>
       </c>
@@ -2077,7 +2236,7 @@
         <v>15.375</v>
       </c>
       <c r="F55">
-        <v>7.075073719024658</v>
+        <v>7.075077533721924</v>
       </c>
       <c r="G55">
         <v>61450</v>
@@ -2086,13 +2245,16 @@
         <v>0.03361344537815136</v>
       </c>
       <c r="I55">
-        <v>-0.0390625</v>
+        <v>0.1152026992038843</v>
       </c>
       <c r="J55">
         <v>-0.0390625</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55">
+        <v>-0.0390625</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="2">
         <v>36770</v>
       </c>
@@ -2109,7 +2271,7 @@
         <v>13.75</v>
       </c>
       <c r="F56">
-        <v>6.327303409576416</v>
+        <v>6.327302932739258</v>
       </c>
       <c r="G56">
         <v>38250</v>
@@ -2118,13 +2280,16 @@
         <v>-0.1056910569105691</v>
       </c>
       <c r="I56">
-        <v>-0.09836065573770492</v>
+        <v>0.1149597944818725</v>
       </c>
       <c r="J56">
         <v>-0.09836065573770492</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56">
+        <v>-0.09836065573770492</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="2">
         <v>36800</v>
       </c>
@@ -2141,7 +2306,7 @@
         <v>13.75</v>
       </c>
       <c r="F57">
-        <v>6.327303409576416</v>
+        <v>6.327302932739258</v>
       </c>
       <c r="G57">
         <v>56700</v>
@@ -2150,13 +2315,16 @@
         <v>0</v>
       </c>
       <c r="I57">
-        <v>-0.1538461538461539</v>
+        <v>0.1138924575796345</v>
       </c>
       <c r="J57">
         <v>-0.1538461538461539</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57">
+        <v>-0.1538461538461539</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="2">
         <v>36831</v>
       </c>
@@ -2173,7 +2341,7 @@
         <v>13.125</v>
       </c>
       <c r="F58">
-        <v>6.039698600769043</v>
+        <v>6.039700031280518</v>
       </c>
       <c r="G58">
         <v>29950</v>
@@ -2182,13 +2350,16 @@
         <v>-0.04545454545454541</v>
       </c>
       <c r="I58">
-        <v>-0.2164179104477612</v>
+        <v>0.1129816543231882</v>
       </c>
       <c r="J58">
         <v>-0.2164179104477612</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58">
+        <v>-0.2164179104477612</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="2">
         <v>36861</v>
       </c>
@@ -2205,7 +2376,7 @@
         <v>13</v>
       </c>
       <c r="F59">
-        <v>6.087774753570557</v>
+        <v>6.087775230407715</v>
       </c>
       <c r="G59">
         <v>26250</v>
@@ -2214,13 +2385,16 @@
         <v>-0.00952380952380949</v>
       </c>
       <c r="I59">
-        <v>-0.2925170068027211</v>
+        <v>0.1119694707693936</v>
       </c>
       <c r="J59">
         <v>-0.2925170068027211</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59">
+        <v>-0.2925170068027211</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="2">
         <v>36892</v>
       </c>
@@ -2237,7 +2411,7 @@
         <v>13.30000019073486</v>
       </c>
       <c r="F60">
-        <v>6.228262424468994</v>
+        <v>6.228262901306152</v>
       </c>
       <c r="G60">
         <v>15850</v>
@@ -2246,13 +2420,16 @@
         <v>0.02307693774883557</v>
       </c>
       <c r="I60">
-        <v>-0.1751937866210938</v>
+        <v>0.1110476911405807</v>
       </c>
       <c r="J60">
         <v>-0.1751937866210938</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60">
+        <v>-0.1751937866210938</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="2">
         <v>36923</v>
       </c>
@@ -2269,7 +2446,7 @@
         <v>12.9399995803833</v>
       </c>
       <c r="F61">
-        <v>6.059677124023438</v>
+        <v>6.059678554534912</v>
       </c>
       <c r="G61">
         <v>22950</v>
@@ -2278,13 +2455,16 @@
         <v>-0.02706771467585001</v>
       </c>
       <c r="I61">
-        <v>-0.09982611614724868</v>
+        <v>0.1101226831868035</v>
       </c>
       <c r="J61">
         <v>-0.09982611614724868</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="K61">
+        <v>-0.09982611614724868</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="2">
         <v>36951</v>
       </c>
@@ -2301,7 +2481,7 @@
         <v>10.80000019073486</v>
       </c>
       <c r="F62">
-        <v>5.057537078857422</v>
+        <v>5.057536602020264</v>
       </c>
       <c r="G62">
         <v>16800</v>
@@ -2310,13 +2490,16 @@
         <v>-0.1653786289833131</v>
       </c>
       <c r="I62">
-        <v>-0.2677965972383144</v>
+        <v>0.1111151193257188</v>
       </c>
       <c r="J62">
         <v>-0.2677965972383144</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62">
+        <v>-0.2677965972383144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="2">
         <v>36982</v>
       </c>
@@ -2333,7 +2516,7 @@
         <v>11.02000045776367</v>
       </c>
       <c r="F63">
-        <v>5.160561561584473</v>
+        <v>5.160560607910156</v>
       </c>
       <c r="G63">
         <v>13650</v>
@@ -2342,13 +2525,16 @@
         <v>0.02037039473550584</v>
       </c>
       <c r="I63">
-        <v>-0.2653333028157552</v>
+        <v>0.1102465420334728</v>
       </c>
       <c r="J63">
         <v>-0.2653333028157552</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63">
+        <v>-0.2653333028157552</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="2">
         <v>37012</v>
       </c>
@@ -2365,7 +2551,7 @@
         <v>10.68000030517578</v>
       </c>
       <c r="F64">
-        <v>5.001340866088867</v>
+        <v>5.001341819763184</v>
       </c>
       <c r="G64">
         <v>2800</v>
@@ -2374,13 +2560,16 @@
         <v>-0.03085300712019101</v>
       </c>
       <c r="I64">
-        <v>-0.193962241118809</v>
+        <v>0.1093781255680551</v>
       </c>
       <c r="J64">
         <v>-0.193962241118809</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="K64">
+        <v>-0.193962241118809</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="2">
         <v>37043</v>
       </c>
@@ -2397,7 +2586,7 @@
         <v>10.85999965667725</v>
       </c>
       <c r="F65">
-        <v>5.085634231567383</v>
+        <v>5.085633754730225</v>
       </c>
       <c r="G65">
         <v>12450</v>
@@ -2406,13 +2595,16 @@
         <v>0.0168538713818418</v>
       </c>
       <c r="I65">
-        <v>-0.2699159894670758</v>
+        <v>0.1085384885878045</v>
       </c>
       <c r="J65">
         <v>-0.2699159894670758</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="K65">
+        <v>-0.2699159894670758</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="2">
         <v>37073</v>
       </c>
@@ -2429,7 +2621,7 @@
         <v>10.52000045776367</v>
       </c>
       <c r="F66">
-        <v>4.926414966583252</v>
+        <v>4.926414489746094</v>
       </c>
       <c r="G66">
         <v>22000</v>
@@ -2438,13 +2630,16 @@
         <v>-0.03130747786944232</v>
       </c>
       <c r="I66">
-        <v>-0.2927730784696692</v>
+        <v>0.1077135941145865</v>
       </c>
       <c r="J66">
         <v>-0.2927730784696692</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66">
+        <v>-0.2927730784696692</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="2">
         <v>37104</v>
       </c>
@@ -2461,7 +2656,7 @@
         <v>10.5</v>
       </c>
       <c r="F67">
-        <v>4.946747303009033</v>
+        <v>4.946748733520508</v>
       </c>
       <c r="G67">
         <v>10450</v>
@@ -2470,13 +2665,16 @@
         <v>-0.001901184115340238</v>
       </c>
       <c r="I67">
-        <v>-0.3170731707317073</v>
+        <v>0.1068716260766754</v>
       </c>
       <c r="J67">
         <v>-0.3170731707317073</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="K67">
+        <v>-0.3170731707317073</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="2">
         <v>37135</v>
       </c>
@@ -2493,7 +2691,7 @@
         <v>8.319999694824219</v>
       </c>
       <c r="F68">
-        <v>3.919710159301758</v>
+        <v>3.919709444046021</v>
       </c>
       <c r="G68">
         <v>7600</v>
@@ -2502,13 +2700,16 @@
         <v>-0.2076190766834077</v>
       </c>
       <c r="I68">
-        <v>-0.3949091131036931</v>
+        <v>0.1088528706937639</v>
       </c>
       <c r="J68">
         <v>-0.3949091131036931</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="K68">
+        <v>-0.3949091131036931</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="2">
         <v>37165</v>
       </c>
@@ -2525,7 +2726,7 @@
         <v>8.619999885559082</v>
       </c>
       <c r="F69">
-        <v>4.061046600341797</v>
+        <v>4.061044692993164</v>
       </c>
       <c r="G69">
         <v>75900</v>
@@ -2534,13 +2735,16 @@
         <v>0.03605771655514478</v>
       </c>
       <c r="I69">
-        <v>-0.3730909174138849</v>
+        <v>0.1081787831249265</v>
       </c>
       <c r="J69">
         <v>-0.3730909174138849</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="K69">
+        <v>-0.3730909174138849</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="2">
         <v>37196</v>
       </c>
@@ -2557,7 +2761,7 @@
         <v>9.119999885559082</v>
       </c>
       <c r="F70">
-        <v>4.296603679656982</v>
+        <v>4.296604156494141</v>
       </c>
       <c r="G70">
         <v>7150</v>
@@ -2566,13 +2770,16 @@
         <v>0.05800464114131132</v>
       </c>
       <c r="I70">
-        <v>-0.3051428658621652</v>
+        <v>0.1076886349107255</v>
       </c>
       <c r="J70">
         <v>-0.3051428658621652</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70">
+        <v>-0.3051428658621652</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="2">
         <v>37226</v>
       </c>
@@ -2589,7 +2796,7 @@
         <v>10.14000034332275</v>
       </c>
       <c r="F71">
-        <v>4.816062450408936</v>
+        <v>4.816063404083252</v>
       </c>
       <c r="G71">
         <v>32050</v>
@@ -2598,13 +2805,16 @@
         <v>0.111842156859977</v>
       </c>
       <c r="I71">
-        <v>-0.2199999735905573</v>
+        <v>0.1078860509968502</v>
       </c>
       <c r="J71">
         <v>-0.2199999735905573</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71">
+        <v>-0.2199999735905573</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="2">
         <v>37257</v>
       </c>
@@ -2621,7 +2831,7 @@
         <v>11.46000003814697</v>
       </c>
       <c r="F72">
-        <v>5.44300651550293</v>
+        <v>5.443004131317139</v>
       </c>
       <c r="G72">
         <v>21650</v>
@@ -2630,13 +2840,16 @@
         <v>0.1301774802890856</v>
       </c>
       <c r="I72">
-        <v>-0.1383458741504142</v>
+        <v>0.1083611084496738</v>
       </c>
       <c r="J72">
         <v>-0.1383458741504142</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="K72">
+        <v>-0.1383458741504142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="2">
         <v>37288</v>
       </c>
@@ -2653,7 +2866,7 @@
         <v>11.02000045776367</v>
       </c>
       <c r="F73">
-        <v>5.234024047851562</v>
+        <v>5.234025001525879</v>
       </c>
       <c r="G73">
         <v>33650</v>
@@ -2662,13 +2875,16 @@
         <v>-0.0383943786141947</v>
       </c>
       <c r="I73">
-        <v>-0.1483770622010141</v>
+        <v>0.1076543019748616</v>
       </c>
       <c r="J73">
         <v>-0.1483770622010141</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="K73">
+        <v>-0.1483770622010141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="2">
         <v>37316</v>
       </c>
@@ -2694,13 +2910,16 @@
         <v>0.02903808362356064</v>
       </c>
       <c r="I74">
-        <v>0.04999999558484114</v>
+        <v>0.1069739023555406</v>
       </c>
       <c r="J74">
         <v>0.04999999558484114</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="K74">
+        <v>0.04999999558484114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="2">
         <v>37347</v>
       </c>
@@ -2717,7 +2936,7 @@
         <v>11</v>
       </c>
       <c r="F75">
-        <v>5.224526405334473</v>
+        <v>5.224526882171631</v>
       </c>
       <c r="G75">
         <v>31950</v>
@@ -2726,13 +2945,16 @@
         <v>-0.0299823763679844</v>
       </c>
       <c r="I75">
-        <v>-0.001814923496630261</v>
+        <v>0.1062665583068562</v>
       </c>
       <c r="J75">
         <v>-0.001814923496630261</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="K75">
+        <v>-0.001814923496630261</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="2">
         <v>37377</v>
       </c>
@@ -2758,13 +2980,16 @@
         <v>0.00545458360151807</v>
       </c>
       <c r="I76">
-        <v>0.03558053404331463</v>
+        <v>0.1055445892946935</v>
       </c>
       <c r="J76">
         <v>0.03558053404331463</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="K76">
+        <v>0.03558053404331463</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="2">
         <v>37408</v>
       </c>
@@ -2781,7 +3006,7 @@
         <v>10.53999996185303</v>
       </c>
       <c r="F77">
-        <v>5.006044864654541</v>
+        <v>5.006046295166016</v>
       </c>
       <c r="G77">
         <v>14100</v>
@@ -2790,13 +3015,16 @@
         <v>-0.04701631446969634</v>
       </c>
       <c r="I77">
-        <v>-0.02946590284903627</v>
+        <v>0.1049367885844045</v>
       </c>
       <c r="J77">
         <v>-0.02946590284903627</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="K77">
+        <v>-0.02946590284903627</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="2">
         <v>37438</v>
       </c>
@@ -2822,13 +3050,16 @@
         <v>-0.06831122102795772</v>
       </c>
       <c r="I78">
-        <v>-0.0665399935817359</v>
+        <v>0.1044765846065622</v>
       </c>
       <c r="J78">
         <v>-0.0665399935817359</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="K78">
+        <v>-0.0665399935817359</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="2">
         <v>37469</v>
       </c>
@@ -2845,7 +3076,7 @@
         <v>9.979999542236328</v>
       </c>
       <c r="F79">
-        <v>4.740070819854736</v>
+        <v>4.740069389343262</v>
       </c>
       <c r="G79">
         <v>10500</v>
@@ -2854,13 +3085,16 @@
         <v>0.01629326399026665</v>
       </c>
       <c r="I79">
-        <v>-0.04952385312034968</v>
+        <v>0.103821503528515</v>
       </c>
       <c r="J79">
         <v>-0.04952385312034968</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="K79">
+        <v>-0.04952385312034968</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="2">
         <v>37500</v>
       </c>
@@ -2886,13 +3120,16 @@
         <v>-0.1102203886022345</v>
       </c>
       <c r="I80">
-        <v>0.06730774521122518</v>
+        <v>0.1038064532573535</v>
       </c>
       <c r="J80">
         <v>0.06730774521122518</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="K80">
+        <v>0.06730774521122518</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="2">
         <v>37530</v>
       </c>
@@ -2918,13 +3155,16 @@
         <v>0.06081080573128195</v>
       </c>
       <c r="I81">
-        <v>0.09280744795311291</v>
+        <v>0.103430923955195</v>
       </c>
       <c r="J81">
         <v>0.09280744795311291</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="K81">
+        <v>0.09280744795311291</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="2">
         <v>37561</v>
       </c>
@@ -2941,7 +3181,7 @@
         <v>9.119999885559082</v>
       </c>
       <c r="F82">
-        <v>4.331605911254883</v>
+        <v>4.331607341766357</v>
       </c>
       <c r="G82">
         <v>12450</v>
@@ -2950,13 +3190,16 @@
         <v>-0.03184715374788938</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>0.1028106994732537</v>
       </c>
       <c r="J82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="K82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="2">
         <v>37591</v>
       </c>
@@ -2973,7 +3216,7 @@
         <v>8.539999961853027</v>
       </c>
       <c r="F83">
-        <v>4.131245613098145</v>
+        <v>4.131246089935303</v>
       </c>
       <c r="G83">
         <v>11100</v>
@@ -2982,13 +3225,16 @@
         <v>-0.06359648366053672</v>
       </c>
       <c r="I83">
-        <v>-0.1577909592994576</v>
+        <v>0.1023550058140742</v>
       </c>
       <c r="J83">
         <v>-0.1577909592994576</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="K83">
+        <v>-0.1577909592994576</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="2">
         <v>37622</v>
       </c>
@@ -3005,7 +3251,7 @@
         <v>8.279999732971191</v>
       </c>
       <c r="F84">
-        <v>4.005468845367432</v>
+        <v>4.00546932220459</v>
       </c>
       <c r="G84">
         <v>5400</v>
@@ -3014,13 +3260,16 @@
         <v>-0.03044499180833959</v>
       </c>
       <c r="I84">
-        <v>-0.2774869367007412</v>
+        <v>0.1017504893192819</v>
       </c>
       <c r="J84">
         <v>-0.2774869367007412</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84">
+        <v>-0.2774869367007412</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="2">
         <v>37653</v>
       </c>
@@ -3046,13 +3295,16 @@
         <v>-0.009661826846140142</v>
       </c>
       <c r="I85">
-        <v>-0.255898414823733</v>
+        <v>0.1011282213799257</v>
       </c>
       <c r="J85">
         <v>-0.255898414823733</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="K85">
+        <v>-0.255898414823733</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="2">
         <v>37681</v>
       </c>
@@ -3069,7 +3321,7 @@
         <v>8.020000457763672</v>
       </c>
       <c r="F86">
-        <v>3.879694700241089</v>
+        <v>3.879693984985352</v>
       </c>
       <c r="G86">
         <v>36250</v>
@@ -3078,13 +3330,16 @@
         <v>-0.02195114093759909</v>
       </c>
       <c r="I86">
-        <v>-0.2927689285847641</v>
+        <v>0.1005276778174487</v>
       </c>
       <c r="J86">
         <v>-0.2927689285847641</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="K86">
+        <v>-0.2927689285847641</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="2">
         <v>37712</v>
       </c>
@@ -3110,13 +3365,16 @@
         <v>0.03740638652584316</v>
       </c>
       <c r="I87">
-        <v>-0.2436363913796165</v>
+        <v>0.1000530442693854</v>
       </c>
       <c r="J87">
         <v>-0.2436363913796165</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="K87">
+        <v>-0.2436363913796165</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="2">
         <v>37742</v>
       </c>
@@ -3133,7 +3391,7 @@
         <v>9.359999656677246</v>
       </c>
       <c r="F88">
-        <v>4.527920246124268</v>
+        <v>4.527922630310059</v>
       </c>
       <c r="G88">
         <v>112300</v>
@@ -3142,13 +3400,16 @@
         <v>0.125</v>
       </c>
       <c r="I88">
-        <v>-0.1537071155914449</v>
+        <v>0.1004951884468746</v>
       </c>
       <c r="J88">
         <v>-0.1537071155914449</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="K88">
+        <v>-0.1537071155914449</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="2">
         <v>37773</v>
       </c>
@@ -3165,7 +3426,7 @@
         <v>9.659999847412109</v>
       </c>
       <c r="F89">
-        <v>4.673047065734863</v>
+        <v>4.67304801940918</v>
       </c>
       <c r="G89">
         <v>26750</v>
@@ -3174,13 +3435,16 @@
         <v>0.03205130360457309</v>
       </c>
       <c r="I89">
-        <v>-0.08349147226051845</v>
+        <v>0.09999552788647686</v>
       </c>
       <c r="J89">
         <v>-0.08349147226051845</v>
       </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="K89">
+        <v>-0.08349147226051845</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="2">
         <v>37803</v>
       </c>
@@ -3197,7 +3461,7 @@
         <v>10.53999996185303</v>
       </c>
       <c r="F90">
-        <v>5.098749160766602</v>
+        <v>5.098752021789551</v>
       </c>
       <c r="G90">
         <v>13300</v>
@@ -3206,13 +3470,16 @@
         <v>0.09109732177445817</v>
       </c>
       <c r="I90">
-        <v>0.07331978507171399</v>
+        <v>0.09995929415118167</v>
       </c>
       <c r="J90">
         <v>0.07331978507171399</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="K90">
+        <v>0.07331978507171399</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="2">
         <v>37834</v>
       </c>
@@ -3229,7 +3496,7 @@
         <v>10.84000015258789</v>
       </c>
       <c r="F91">
-        <v>5.243875026702881</v>
+        <v>5.243875980377197</v>
       </c>
       <c r="G91">
         <v>885550</v>
@@ -3238,13 +3505,16 @@
         <v>0.02846301630176851</v>
       </c>
       <c r="I91">
-        <v>0.08617240979941498</v>
+        <v>0.09945353974657031</v>
       </c>
       <c r="J91">
         <v>0.08617240979941498</v>
       </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="K91">
+        <v>0.08617240979941498</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="2">
         <v>37865</v>
       </c>
@@ -3261,7 +3531,7 @@
         <v>11.18000030517578</v>
       </c>
       <c r="F92">
-        <v>5.408351421356201</v>
+        <v>5.408351898193359</v>
       </c>
       <c r="G92">
         <v>137150</v>
@@ -3270,13 +3540,16 @@
         <v>0.03136532728800012</v>
       </c>
       <c r="I92">
-        <v>0.2590090271501839</v>
+        <v>0.09896654447333421</v>
       </c>
       <c r="J92">
         <v>0.2590090271501839</v>
       </c>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="K92">
+        <v>0.2590090271501839</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="2">
         <v>37895</v>
       </c>
@@ -3302,13 +3575,16 @@
         <v>0.06797846640985128</v>
       </c>
       <c r="I93">
-        <v>0.267515868755787</v>
+        <v>0.09870694827724853</v>
       </c>
       <c r="J93">
         <v>0.267515868755787</v>
       </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="K93">
+        <v>0.267515868755787</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="2">
         <v>37926</v>
       </c>
@@ -3334,13 +3610,16 @@
         <v>0</v>
       </c>
       <c r="I94">
-        <v>0.3092104967336131</v>
+        <v>0.09816380965103108</v>
       </c>
       <c r="J94">
         <v>0.3092104967336131</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="K94">
+        <v>0.3092104967336131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="2">
         <v>37956</v>
       </c>
@@ -3357,7 +3636,7 @@
         <v>12</v>
       </c>
       <c r="F95">
-        <v>5.994369029998779</v>
+        <v>5.994368553161621</v>
       </c>
       <c r="G95">
         <v>147150</v>
@@ -3366,13 +3645,16 @@
         <v>0.005025160948521012</v>
       </c>
       <c r="I95">
-        <v>0.4051522311009723</v>
+        <v>0.09763288423147627</v>
       </c>
       <c r="J95">
         <v>0.4051522311009723</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="K95">
+        <v>0.4051522311009723</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="2">
         <v>37987</v>
       </c>
@@ -3389,7 +3671,7 @@
         <v>12.65999984741211</v>
       </c>
       <c r="F96">
-        <v>6.324057102203369</v>
+        <v>6.324057579040527</v>
       </c>
       <c r="G96">
         <v>137300</v>
@@ -3398,13 +3680,16 @@
         <v>0.05499998728434252</v>
       </c>
       <c r="I96">
-        <v>0.5289855381274513</v>
+        <v>0.09729344405341731</v>
       </c>
       <c r="J96">
         <v>0.5289855381274513</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="K96">
+        <v>0.5289855381274513</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="2">
         <v>38018</v>
       </c>
@@ -3421,7 +3706,7 @@
         <v>12.96000003814697</v>
       </c>
       <c r="F97">
-        <v>6.473918914794922</v>
+        <v>6.473917484283447</v>
       </c>
       <c r="G97">
         <v>32100</v>
@@ -3430,13 +3715,16 @@
         <v>0.02369669781601047</v>
       </c>
       <c r="I97">
-        <v>0.5804878462928178</v>
+        <v>0.09681276658196031</v>
       </c>
       <c r="J97">
         <v>0.5804878462928178</v>
       </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="K97">
+        <v>0.5804878462928178</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="2">
         <v>38047</v>
       </c>
@@ -3453,7 +3741,7 @@
         <v>12.76000022888184</v>
       </c>
       <c r="F98">
-        <v>6.374011039733887</v>
+        <v>6.374009609222412</v>
       </c>
       <c r="G98">
         <v>33750</v>
@@ -3462,13 +3750,16 @@
         <v>-0.01543208400281249</v>
       </c>
       <c r="I98">
-        <v>0.5910223816171556</v>
+        <v>0.09631086906047752</v>
       </c>
       <c r="J98">
         <v>0.5910223816171556</v>
       </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="K98">
+        <v>0.5910223816171556</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="2">
         <v>38078</v>
       </c>
@@ -3485,7 +3776,7 @@
         <v>12.19999980926514</v>
       </c>
       <c r="F99">
-        <v>6.094274044036865</v>
+        <v>6.094272136688232</v>
       </c>
       <c r="G99">
         <v>139400</v>
@@ -3494,13 +3785,16 @@
         <v>-0.0438871794335205</v>
       </c>
       <c r="I99">
-        <v>0.466346184706548</v>
+        <v>0.09589928452611203</v>
       </c>
       <c r="J99">
         <v>0.466346184706548</v>
       </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="K99">
+        <v>0.466346184706548</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="2">
         <v>38108</v>
       </c>
@@ -3526,13 +3820,16 @@
         <v>-0.00327868544904808</v>
       </c>
       <c r="I100">
-        <v>0.2991453304955407</v>
+        <v>0.09540367943215351</v>
       </c>
       <c r="J100">
         <v>0.2991453304955407</v>
       </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="K100">
+        <v>0.2991453304955407</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="2">
         <v>38139</v>
       </c>
@@ -3549,7 +3846,7 @@
         <v>12.52000045776367</v>
       </c>
       <c r="F101">
-        <v>6.254124164581299</v>
+        <v>6.254124641418457</v>
       </c>
       <c r="G101">
         <v>111450</v>
@@ -3558,13 +3855,16 @@
         <v>0.02960531372277764</v>
       </c>
       <c r="I101">
-        <v>0.2960663204480019</v>
+        <v>0.09497257341102575</v>
       </c>
       <c r="J101">
         <v>0.2960663204480019</v>
       </c>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="K101">
+        <v>0.2960663204480019</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="2">
         <v>38169</v>
       </c>
@@ -3581,7 +3881,7 @@
         <v>12.60000038146973</v>
       </c>
       <c r="F102">
-        <v>6.29408597946167</v>
+        <v>6.294085502624512</v>
       </c>
       <c r="G102">
         <v>109300</v>
@@ -3590,13 +3890,16 @@
         <v>0.006389770030435393</v>
       </c>
       <c r="I102">
-        <v>0.1954459608228056</v>
+        <v>0.0944961347907302</v>
       </c>
       <c r="J102">
         <v>0.1954459608228056</v>
       </c>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="K102">
+        <v>0.1954459608228056</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="2">
         <v>38200</v>
       </c>
@@ -3613,7 +3916,7 @@
         <v>13.10000038146973</v>
       </c>
       <c r="F103">
-        <v>6.54385232925415</v>
+        <v>6.543850421905518</v>
       </c>
       <c r="G103">
         <v>21750</v>
@@ -3622,13 +3925,16 @@
         <v>0.0396825384811359</v>
       </c>
       <c r="I103">
-        <v>0.2084871030506668</v>
+        <v>0.09411689564695558</v>
       </c>
       <c r="J103">
         <v>0.2084871030506668</v>
       </c>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="K103">
+        <v>0.2084871030506668</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="2">
         <v>38231</v>
       </c>
@@ -3654,13 +3960,16 @@
         <v>0.03816793781985406</v>
       </c>
       <c r="I104">
-        <v>0.2164579615595901</v>
+        <v>0.09373531391107134</v>
       </c>
       <c r="J104">
         <v>0.2164579615595901</v>
       </c>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="K104">
+        <v>0.2164579615595901</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="2">
         <v>38261</v>
       </c>
@@ -3677,7 +3986,7 @@
         <v>13.80000019073486</v>
       </c>
       <c r="F105">
-        <v>6.893523216247559</v>
+        <v>6.893522262573242</v>
       </c>
       <c r="G105">
         <v>266250</v>
@@ -3686,13 +3995,16 @@
         <v>0.01470586791583028</v>
       </c>
       <c r="I105">
-        <v>0.1557789510652439</v>
+        <v>0.09328897890534207</v>
       </c>
       <c r="J105">
         <v>0.1557789510652439</v>
       </c>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="K105">
+        <v>0.1557789510652439</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="2">
         <v>38292</v>
       </c>
@@ -3709,7 +4021,7 @@
         <v>14.26000022888184</v>
       </c>
       <c r="F106">
-        <v>7.123309135437012</v>
+        <v>7.123308181762695</v>
       </c>
       <c r="G106">
         <v>230050</v>
@@ -3718,13 +4030,16 @@
         <v>0.03333333563689456</v>
       </c>
       <c r="I106">
-        <v>0.1943049187631594</v>
+        <v>0.09289855604258361</v>
       </c>
       <c r="J106">
         <v>0.1943049187631594</v>
       </c>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="K106">
+        <v>0.1943049187631594</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="2">
         <v>38322</v>
       </c>
@@ -3741,7 +4056,7 @@
         <v>14.34000015258789</v>
       </c>
       <c r="F107">
-        <v>7.443150043487549</v>
+        <v>7.443148612976074</v>
       </c>
       <c r="G107">
         <v>28450</v>
@@ -3750,13 +4065,16 @@
         <v>0.005610092736466177</v>
       </c>
       <c r="I107">
-        <v>0.1950000127156575</v>
+        <v>0.09245335450323239</v>
       </c>
       <c r="J107">
         <v>0.1950000127156575</v>
       </c>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="K107">
+        <v>0.1950000127156575</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="2">
         <v>38353</v>
       </c>
@@ -3773,7 +4091,7 @@
         <v>14.60000038146973</v>
       </c>
       <c r="F108">
-        <v>7.578100681304932</v>
+        <v>7.578101634979248</v>
       </c>
       <c r="G108">
         <v>110400</v>
@@ -3782,13 +4100,16 @@
         <v>0.0181311175812584</v>
       </c>
       <c r="I108">
-        <v>0.1532385906350688</v>
+        <v>0.0920313956710426</v>
       </c>
       <c r="J108">
         <v>0.1532385906350688</v>
       </c>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="K108">
+        <v>0.1532385906350688</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="2">
         <v>38384</v>
       </c>
@@ -3805,7 +4126,7 @@
         <v>14.65999984741211</v>
       </c>
       <c r="F109">
-        <v>7.609244823455811</v>
+        <v>7.609243392944336</v>
       </c>
       <c r="G109">
         <v>209700</v>
@@ -3814,13 +4135,16 @@
         <v>0.004109552354432333</v>
       </c>
       <c r="I109">
-        <v>0.1311728244028774</v>
+        <v>0.09159764859037625</v>
       </c>
       <c r="J109">
         <v>0.1311728244028774</v>
       </c>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="K109">
+        <v>0.1311728244028774</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="2">
         <v>38412</v>
       </c>
@@ -3837,7 +4161,7 @@
         <v>14.47999954223633</v>
       </c>
       <c r="F110">
-        <v>7.515814781188965</v>
+        <v>7.515815258026123</v>
       </c>
       <c r="G110">
         <v>139600</v>
@@ -3846,13 +4170,16 @@
         <v>-0.01227832926666472</v>
       </c>
       <c r="I110">
-        <v>0.1347961820142707</v>
+        <v>0.09117500216518974</v>
       </c>
       <c r="J110">
         <v>0.1347961820142707</v>
       </c>
-    </row>
-    <row r="111" spans="1:10">
+      <c r="K110">
+        <v>0.1347961820142707</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="2">
         <v>38443</v>
       </c>
@@ -3869,7 +4196,7 @@
         <v>14.5600004196167</v>
       </c>
       <c r="F111">
-        <v>7.557337760925293</v>
+        <v>7.5573410987854</v>
       </c>
       <c r="G111">
         <v>59200</v>
@@ -3878,13 +4205,16 @@
         <v>0.005524922645682384</v>
       </c>
       <c r="I111">
-        <v>0.1934426760039201</v>
+        <v>0.09075417888534798</v>
       </c>
       <c r="J111">
         <v>0.1934426760039201</v>
       </c>
-    </row>
-    <row r="112" spans="1:10">
+      <c r="K111">
+        <v>0.1934426760039201</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="2">
         <v>38473</v>
       </c>
@@ -3901,7 +4231,7 @@
         <v>14.72000026702881</v>
       </c>
       <c r="F112">
-        <v>7.640387058258057</v>
+        <v>7.640385627746582</v>
       </c>
       <c r="G112">
         <v>78950</v>
@@ -3910,13 +4240,16 @@
         <v>0.01098900019237226</v>
       </c>
       <c r="I112">
-        <v>0.2105263529391834</v>
+        <v>0.09034427847350589</v>
       </c>
       <c r="J112">
         <v>0.2105263529391834</v>
       </c>
-    </row>
-    <row r="113" spans="1:10">
+      <c r="K112">
+        <v>0.2105263529391834</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" s="2">
         <v>38504</v>
       </c>
@@ -3933,7 +4266,7 @@
         <v>15.14000034332275</v>
       </c>
       <c r="F113">
-        <v>7.858385562896729</v>
+        <v>7.858388423919678</v>
       </c>
       <c r="G113">
         <v>84600</v>
@@ -3942,13 +4275,16 @@
         <v>0.02853261336106772</v>
       </c>
       <c r="I113">
-        <v>0.2092651589269245</v>
+        <v>0.08997635247861908</v>
       </c>
       <c r="J113">
         <v>0.2092651589269245</v>
       </c>
-    </row>
-    <row r="114" spans="1:10">
+      <c r="K113">
+        <v>0.2092651589269245</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" s="2">
         <v>38534</v>
       </c>
@@ -3965,7 +4301,7 @@
         <v>16.21999931335449</v>
       </c>
       <c r="F114">
-        <v>8.418957710266113</v>
+        <v>8.41895866394043</v>
       </c>
       <c r="G114">
         <v>83600</v>
@@ -3974,13 +4310,16 @@
         <v>0.07133414435542296</v>
       </c>
       <c r="I114">
-        <v>0.2873014938323764</v>
+        <v>0.08982861241778241</v>
       </c>
       <c r="J114">
         <v>0.2873014938323764</v>
       </c>
-    </row>
-    <row r="115" spans="1:10">
+      <c r="K114">
+        <v>0.2873014938323764</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" s="2">
         <v>38565</v>
       </c>
@@ -3997,7 +4336,7 @@
         <v>15.65999984741211</v>
       </c>
       <c r="F115">
-        <v>8.128293037414551</v>
+        <v>8.128292083740234</v>
       </c>
       <c r="G115">
         <v>140450</v>
@@ -4006,13 +4345,16 @@
         <v>-0.03452524597096107</v>
       </c>
       <c r="I115">
-        <v>0.1954198008698966</v>
+        <v>0.08948535182572405</v>
       </c>
       <c r="J115">
         <v>0.1954198008698966</v>
       </c>
-    </row>
-    <row r="116" spans="1:10">
+      <c r="K115">
+        <v>0.1954198008698966</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" s="2">
         <v>38596</v>
       </c>
@@ -4038,13 +4380,16 @@
         <v>0.01915710048901698</v>
       </c>
       <c r="I116">
-        <v>0.1735293816530177</v>
+        <v>0.0891073334213394</v>
       </c>
       <c r="J116">
         <v>0.1735293816530177</v>
       </c>
-    </row>
-    <row r="117" spans="1:10">
+      <c r="K116">
+        <v>0.1735293816530177</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" s="2">
         <v>38626</v>
       </c>
@@ -4061,7 +4406,7 @@
         <v>15.31999969482422</v>
       </c>
       <c r="F117">
-        <v>7.951815128326416</v>
+        <v>7.951816082000732</v>
       </c>
       <c r="G117">
         <v>171550</v>
@@ -4070,13 +4415,16 @@
         <v>-0.04010027204217104</v>
       </c>
       <c r="I117">
-        <v>0.1101448900783251</v>
+        <v>0.08879355630992261</v>
       </c>
       <c r="J117">
         <v>0.1101448900783251</v>
       </c>
-    </row>
-    <row r="118" spans="1:10">
+      <c r="K117">
+        <v>0.1101448900783251</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" s="2">
         <v>38657</v>
       </c>
@@ -4093,7 +4441,7 @@
         <v>15.69999980926514</v>
       </c>
       <c r="F118">
-        <v>8.149051666259766</v>
+        <v>8.149053573608398</v>
       </c>
       <c r="G118">
         <v>669150</v>
@@ -4102,13 +4450,16 @@
         <v>0.02480418550982733</v>
       </c>
       <c r="I118">
-        <v>0.1009817361339702</v>
+        <v>0.08843803575017496</v>
       </c>
       <c r="J118">
         <v>0.1009817361339702</v>
       </c>
-    </row>
-    <row r="119" spans="1:10">
+      <c r="K118">
+        <v>0.1009817361339702</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" s="2">
         <v>38687</v>
       </c>
@@ -4125,7 +4476,7 @@
         <v>15.80000019073486</v>
       </c>
       <c r="F119">
-        <v>8.505475997924805</v>
+        <v>8.505475044250488</v>
       </c>
       <c r="G119">
         <v>50550</v>
@@ -4134,13 +4485,16 @@
         <v>0.006369451126407855</v>
       </c>
       <c r="I119">
-        <v>0.1018131117581258</v>
+        <v>0.08805820306511786</v>
       </c>
       <c r="J119">
         <v>0.1018131117581258</v>
       </c>
-    </row>
-    <row r="120" spans="1:10">
+      <c r="K119">
+        <v>0.1018131117581258</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" s="2">
         <v>38718</v>
       </c>
@@ -4157,7 +4511,7 @@
         <v>16.84000015258789</v>
       </c>
       <c r="F120">
-        <v>9.06533145904541</v>
+        <v>9.065330505371094</v>
       </c>
       <c r="G120">
         <v>368600</v>
@@ -4166,13 +4520,16 @@
         <v>0.06582278160116006</v>
       </c>
       <c r="I120">
-        <v>0.1534246378487198</v>
+        <v>0.08789206606907933</v>
       </c>
       <c r="J120">
         <v>0.1534246378487198</v>
       </c>
-    </row>
-    <row r="121" spans="1:10">
+      <c r="K120">
+        <v>0.1534246378487198</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" s="2">
         <v>38749</v>
       </c>
@@ -4189,7 +4546,7 @@
         <v>17.10000038146973</v>
       </c>
       <c r="F121">
-        <v>9.205291748046875</v>
+        <v>9.205293655395508</v>
       </c>
       <c r="G121">
         <v>487600</v>
@@ -4198,13 +4555,16 @@
         <v>0.01543944338040171</v>
       </c>
       <c r="I121">
-        <v>0.1664393287485841</v>
+        <v>0.08752989887039074</v>
       </c>
       <c r="J121">
         <v>0.1664393287485841</v>
       </c>
-    </row>
-    <row r="122" spans="1:10">
+      <c r="K121">
+        <v>0.1664393287485841</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" s="2">
         <v>38777</v>
       </c>
@@ -4221,7 +4581,7 @@
         <v>17.55999946594238</v>
       </c>
       <c r="F122">
-        <v>9.452919960021973</v>
+        <v>9.452921867370605</v>
       </c>
       <c r="G122">
         <v>175350</v>
@@ -4230,13 +4590,16 @@
         <v>0.02690053065560916</v>
       </c>
       <c r="I122">
-        <v>0.2127071837759444</v>
+        <v>0.08719492625947228</v>
       </c>
       <c r="J122">
         <v>0.2127071837759444</v>
       </c>
-    </row>
-    <row r="123" spans="1:10">
+      <c r="K122">
+        <v>0.2127071837759444</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" s="2">
         <v>38808</v>
       </c>
@@ -4262,13 +4625,16 @@
         <v>0.06378137091664726</v>
       </c>
       <c r="I123">
-        <v>0.2829670169520191</v>
+        <v>0.08737963088720292</v>
       </c>
       <c r="J123">
         <v>0.2829670169520191</v>
       </c>
-    </row>
-    <row r="124" spans="1:10">
+      <c r="K123">
+        <v>0.2829670169520191</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" s="2">
         <v>38838</v>
       </c>
@@ -4294,13 +4660,16 @@
         <v>-0.07815851006259122</v>
       </c>
       <c r="I124">
-        <v>0.1698368886531483</v>
+        <v>0.08755958277409555</v>
       </c>
       <c r="J124">
         <v>0.1698368886531483</v>
       </c>
-    </row>
-    <row r="125" spans="1:10">
+      <c r="K124">
+        <v>0.1698368886531483</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" s="2">
         <v>38869</v>
       </c>
@@ -4317,7 +4686,7 @@
         <v>17.60000038146973</v>
       </c>
       <c r="F125">
-        <v>9.474453926086426</v>
+        <v>9.474454879760742</v>
       </c>
       <c r="G125">
         <v>276450</v>
@@ -4326,13 +4695,16 @@
         <v>0.02206742643831205</v>
       </c>
       <c r="I125">
-        <v>0.1624834862855149</v>
+        <v>0.08757994395999577</v>
       </c>
       <c r="J125">
         <v>0.1624834862855149</v>
       </c>
-    </row>
-    <row r="126" spans="1:10">
+      <c r="K125">
+        <v>0.1624834862855149</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" s="2">
         <v>38899</v>
       </c>
@@ -4349,7 +4721,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="F126">
-        <v>9.485222816467285</v>
+        <v>9.485220909118652</v>
       </c>
       <c r="G126">
         <v>160250</v>
@@ -4358,13 +4730,16 @@
         <v>0.001136389621032574</v>
       </c>
       <c r="I126">
-        <v>0.08631329131600118</v>
+        <v>0.08728172340841893</v>
       </c>
       <c r="J126">
         <v>0.08631329131600118</v>
       </c>
-    </row>
-    <row r="127" spans="1:10">
+      <c r="K126">
+        <v>0.08631329131600118</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" s="2">
         <v>38930</v>
       </c>
@@ -4381,7 +4756,7 @@
         <v>18.13999938964844</v>
       </c>
       <c r="F127">
-        <v>9.765149116516113</v>
+        <v>9.76514720916748</v>
       </c>
       <c r="G127">
         <v>247600</v>
@@ -4390,13 +4765,16 @@
         <v>0.02951183459975715</v>
       </c>
       <c r="I127">
-        <v>0.15836523412522</v>
+        <v>0.08728581739078492</v>
       </c>
       <c r="J127">
         <v>0.15836523412522</v>
       </c>
-    </row>
-    <row r="128" spans="1:10">
+      <c r="K127">
+        <v>0.15836523412522</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" s="2">
         <v>38961</v>
       </c>
@@ -4413,7 +4791,7 @@
         <v>18.65999984741211</v>
       </c>
       <c r="F128">
-        <v>10.04507637023926</v>
+        <v>10.04507446289062</v>
       </c>
       <c r="G128">
         <v>162800</v>
@@ -4422,13 +4800,16 @@
         <v>0.0286659578423365</v>
       </c>
       <c r="I128">
-        <v>0.1691729199756706</v>
+        <v>0.08731221784133447</v>
       </c>
       <c r="J128">
         <v>0.1691729199756706</v>
       </c>
-    </row>
-    <row r="129" spans="1:10">
+      <c r="K128">
+        <v>0.1691729199756706</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" s="2">
         <v>38991</v>
       </c>
@@ -4445,7 +4826,7 @@
         <v>20.26000022888184</v>
       </c>
       <c r="F129">
-        <v>10.90638542175293</v>
+        <v>10.90638732910156</v>
       </c>
       <c r="G129">
         <v>552550</v>
@@ -4454,13 +4835,16 @@
         <v>0.0857449300403732</v>
       </c>
       <c r="I129">
-        <v>0.3224543493774723</v>
+        <v>0.08756287782201884</v>
       </c>
       <c r="J129">
         <v>0.3224543493774723</v>
       </c>
-    </row>
-    <row r="130" spans="1:10">
+      <c r="K129">
+        <v>0.3224543493774723</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" s="2">
         <v>39022</v>
       </c>
@@ -4477,7 +4861,7 @@
         <v>21.94000053405762</v>
       </c>
       <c r="F130">
-        <v>11.81076622009277</v>
+        <v>11.81076526641846</v>
       </c>
       <c r="G130">
         <v>3375050</v>
@@ -4486,13 +4870,16 @@
         <v>0.08292202794651704</v>
       </c>
       <c r="I130">
-        <v>0.3974522802930247</v>
+        <v>0.08762535456853655</v>
       </c>
       <c r="J130">
         <v>0.3974522802930247</v>
       </c>
-    </row>
-    <row r="131" spans="1:10">
+      <c r="K130">
+        <v>0.3974522802930247</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" s="2">
         <v>39052</v>
       </c>
@@ -4518,13 +4905,16 @@
         <v>0.02096622941091519</v>
       </c>
       <c r="I131">
-        <v>0.4177214777292</v>
+        <v>0.08762482208418092</v>
       </c>
       <c r="J131">
         <v>0.4177214777292</v>
       </c>
-    </row>
-    <row r="132" spans="1:10">
+      <c r="K131">
+        <v>0.4177214777292</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" s="2">
         <v>39083</v>
       </c>
@@ -4541,7 +4931,7 @@
         <v>23.44000053405762</v>
       </c>
       <c r="F132">
-        <v>12.97658443450928</v>
+        <v>12.97658538818359</v>
       </c>
       <c r="G132">
         <v>1744000</v>
@@ -4550,13 +4940,16 @@
         <v>0.04642861309100232</v>
       </c>
       <c r="I132">
-        <v>0.3919240096001704</v>
+        <v>0.08766131296359812</v>
       </c>
       <c r="J132">
         <v>0.3919240096001704</v>
       </c>
-    </row>
-    <row r="133" spans="1:10">
+      <c r="K132">
+        <v>0.3919240096001704</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" s="2">
         <v>39114</v>
       </c>
@@ -4573,7 +4966,7 @@
         <v>23.3799991607666</v>
       </c>
       <c r="F133">
-        <v>12.94337272644043</v>
+        <v>12.9433650970459</v>
       </c>
       <c r="G133">
         <v>5500900</v>
@@ -4582,13 +4975,16 @@
         <v>-0.002559785491635824</v>
       </c>
       <c r="I133">
-        <v>0.3672513824094497</v>
+        <v>0.08749716783678893</v>
       </c>
       <c r="J133">
         <v>0.3672513824094497</v>
       </c>
-    </row>
-    <row r="134" spans="1:10">
+      <c r="K133">
+        <v>0.3672513824094497</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134" s="2">
         <v>39142</v>
       </c>
@@ -4605,7 +5001,7 @@
         <v>24.73999977111816</v>
       </c>
       <c r="F134">
-        <v>13.6962718963623</v>
+        <v>13.69627380371094</v>
       </c>
       <c r="G134">
         <v>1445750</v>
@@ -4614,13 +5010,16 @@
         <v>0.0581694037283691</v>
       </c>
       <c r="I134">
-        <v>0.4088838566938109</v>
+        <v>0.08725163882834962</v>
       </c>
       <c r="J134">
         <v>0.4088838566938109</v>
       </c>
-    </row>
-    <row r="135" spans="1:10">
+      <c r="K134">
+        <v>0.4088838566938109</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135" s="2">
         <v>39173</v>
       </c>
@@ -4637,7 +5036,7 @@
         <v>25.45999908447266</v>
       </c>
       <c r="F135">
-        <v>14.09487533569336</v>
+        <v>14.09487438201904</v>
       </c>
       <c r="G135">
         <v>1315350</v>
@@ -4646,13 +5045,16 @@
         <v>0.0291026402593193</v>
       </c>
       <c r="I135">
-        <v>0.362954960842174</v>
+        <v>0.08726584252635164</v>
       </c>
       <c r="J135">
         <v>0.362954960842174</v>
       </c>
-    </row>
-    <row r="136" spans="1:10">
+      <c r="K135">
+        <v>0.362954960842174</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" s="2">
         <v>39203</v>
       </c>
@@ -4669,7 +5071,7 @@
         <v>27.3799991607666</v>
       </c>
       <c r="F136">
-        <v>15.15779685974121</v>
+        <v>15.15780448913574</v>
       </c>
       <c r="G136">
         <v>1223800</v>
@@ -4678,13 +5080,16 @@
         <v>0.07541241733448834</v>
       </c>
       <c r="I136">
-        <v>0.5900116290674184</v>
+        <v>0.0874181485711116</v>
       </c>
       <c r="J136">
         <v>0.5900116290674184</v>
       </c>
-    </row>
-    <row r="137" spans="1:10">
+      <c r="K136">
+        <v>0.5900116290674184</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137" s="2">
         <v>39234</v>
       </c>
@@ -4701,7 +5106,7 @@
         <v>27.28000068664551</v>
       </c>
       <c r="F137">
-        <v>15.10244369506836</v>
+        <v>15.10243797302246</v>
       </c>
       <c r="G137">
         <v>1100850</v>
@@ -4710,13 +5115,16 @@
         <v>-0.003652245331854598</v>
       </c>
       <c r="I137">
-        <v>0.5500000054186041</v>
+        <v>0.08740867240423771</v>
       </c>
       <c r="J137">
         <v>0.5500000054186041</v>
       </c>
-    </row>
-    <row r="138" spans="1:10">
+      <c r="K137">
+        <v>0.5500000054186041</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" s="2">
         <v>39264</v>
       </c>
@@ -4733,7 +5141,7 @@
         <v>27.05999946594238</v>
       </c>
       <c r="F138">
-        <v>14.98064517974854</v>
+        <v>14.9806489944458</v>
       </c>
       <c r="G138">
         <v>1800350</v>
@@ -4742,13 +5150,16 @@
         <v>-0.008064560673226917</v>
       </c>
       <c r="I138">
-        <v>0.5357547206064546</v>
+        <v>0.08741106326992604</v>
       </c>
       <c r="J138">
         <v>0.5357547206064546</v>
       </c>
-    </row>
-    <row r="139" spans="1:10">
+      <c r="K138">
+        <v>0.5357547206064546</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139" s="2">
         <v>39295</v>
       </c>
@@ -4765,7 +5176,7 @@
         <v>26.60000038146973</v>
       </c>
       <c r="F139">
-        <v>14.72598838806152</v>
+        <v>14.72598934173584</v>
       </c>
       <c r="G139">
         <v>1598950</v>
@@ -4774,13 +5185,16 @@
         <v>-0.01699922740396242</v>
       </c>
       <c r="I139">
-        <v>0.4663727274791958</v>
+        <v>0.08498961530952685</v>
       </c>
       <c r="J139">
         <v>0.4663727274791958</v>
       </c>
-    </row>
-    <row r="140" spans="1:10">
+      <c r="K139">
+        <v>0.4663727274791958</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140" s="2">
         <v>39326</v>
       </c>
@@ -4797,7 +5211,7 @@
         <v>29.63999938964844</v>
       </c>
       <c r="F140">
-        <v>16.40895652770996</v>
+        <v>16.40896034240723</v>
       </c>
       <c r="G140">
         <v>1501750</v>
@@ -4806,13 +5220,16 @@
         <v>0.1142856753602326</v>
       </c>
       <c r="I140">
-        <v>0.5884244175789266</v>
+        <v>0.0854638973202234</v>
       </c>
       <c r="J140">
         <v>0.5884244175789266</v>
       </c>
-    </row>
-    <row r="141" spans="1:10">
+      <c r="K140">
+        <v>0.5884244175789266</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141" s="2">
         <v>39356</v>
       </c>
@@ -4829,7 +5246,7 @@
         <v>31.47999954223633</v>
       </c>
       <c r="F141">
-        <v>17.42759323120117</v>
+        <v>17.4275951385498</v>
       </c>
       <c r="G141">
         <v>1584100</v>
@@ -4838,13 +5255,16 @@
         <v>0.06207827903095353</v>
       </c>
       <c r="I141">
-        <v>0.5538005521520042</v>
+        <v>0.08363559076893613</v>
       </c>
       <c r="J141">
         <v>0.5538005521520042</v>
       </c>
-    </row>
-    <row r="142" spans="1:10">
+      <c r="K141">
+        <v>0.5538005521520042</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
       <c r="A142" s="2">
         <v>39387</v>
       </c>
@@ -4861,7 +5281,7 @@
         <v>28.76000022888184</v>
       </c>
       <c r="F142">
-        <v>15.92178058624268</v>
+        <v>15.92178440093994</v>
       </c>
       <c r="G142">
         <v>1793300</v>
@@ -4870,13 +5290,16 @@
         <v>-0.08640404551801539</v>
       </c>
       <c r="I142">
-        <v>0.3108477451601463</v>
+        <v>0.08407932498617465</v>
       </c>
       <c r="J142">
         <v>0.3108477451601463</v>
       </c>
-    </row>
-    <row r="143" spans="1:10">
+      <c r="K142">
+        <v>0.3108477451601463</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143" s="2">
         <v>39417</v>
       </c>
@@ -4893,7 +5316,7 @@
         <v>27.57999992370605</v>
       </c>
       <c r="F143">
-        <v>15.86128330230713</v>
+        <v>15.86128044128418</v>
       </c>
       <c r="G143">
         <v>916200</v>
@@ -4902,13 +5325,16 @@
         <v>-0.04102921751686162</v>
       </c>
       <c r="I143">
-        <v>0.2312500175620831</v>
+        <v>0.0835888589524697</v>
       </c>
       <c r="J143">
         <v>0.2312500175620831</v>
       </c>
-    </row>
-    <row r="144" spans="1:10">
+      <c r="K143">
+        <v>0.2312500175620831</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144" s="2">
         <v>39448</v>
       </c>
@@ -4925,7 +5351,7 @@
         <v>24.36000061035156</v>
       </c>
       <c r="F144">
-        <v>14.00946235656738</v>
+        <v>14.00946044921875</v>
       </c>
       <c r="G144">
         <v>3025250</v>
@@ -4934,13 +5360,16 @@
         <v>-0.116751244461998</v>
       </c>
       <c r="I144">
-        <v>0.0392491491182867</v>
+        <v>0.08384755942618126</v>
       </c>
       <c r="J144">
         <v>0.0392491491182867</v>
       </c>
-    </row>
-    <row r="145" spans="1:10">
+      <c r="K144">
+        <v>0.0392491491182867</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145" s="2">
         <v>39479</v>
       </c>
@@ -4957,7 +5386,7 @@
         <v>24.29999923706055</v>
       </c>
       <c r="F145">
-        <v>13.97495365142822</v>
+        <v>13.97495174407959</v>
       </c>
       <c r="G145">
         <v>2957700</v>
@@ -4966,13 +5395,16 @@
         <v>-0.002463110500314114</v>
       </c>
       <c r="I145">
-        <v>0.03934987636089282</v>
+        <v>0.08290677786515563</v>
       </c>
       <c r="J145">
         <v>0.03934987636089282</v>
       </c>
-    </row>
-    <row r="146" spans="1:10">
+      <c r="K145">
+        <v>0.03934987636089282</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146" s="2">
         <v>39508</v>
       </c>
@@ -4989,7 +5421,7 @@
         <v>25.54000091552734</v>
       </c>
       <c r="F146">
-        <v>14.68808078765869</v>
+        <v>14.68807697296143</v>
       </c>
       <c r="G146">
         <v>4311600</v>
@@ -4998,13 +5430,16 @@
         <v>0.05102887725920735</v>
       </c>
       <c r="I146">
-        <v>0.03233634405054087</v>
+        <v>0.08299444311869202</v>
       </c>
       <c r="J146">
         <v>0.03233634405054087</v>
       </c>
-    </row>
-    <row r="147" spans="1:10">
+      <c r="K146">
+        <v>0.03233634405054087</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147" s="2">
         <v>39539</v>
       </c>
@@ -5021,7 +5456,7 @@
         <v>27.13999938964844</v>
       </c>
       <c r="F147">
-        <v>15.60823822021484</v>
+        <v>15.60824108123779</v>
       </c>
       <c r="G147">
         <v>1236500</v>
@@ -5030,13 +5465,16 @@
         <v>0.0626467665139494</v>
       </c>
       <c r="I147">
-        <v>0.06598587453211513</v>
+        <v>0.08255594425324381</v>
       </c>
       <c r="J147">
         <v>0.06598587453211513</v>
       </c>
-    </row>
-    <row r="148" spans="1:10">
+      <c r="K147">
+        <v>0.06598587453211513</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148" s="2">
         <v>39569</v>
       </c>
@@ -5053,7 +5491,7 @@
         <v>27.47999954223633</v>
       </c>
       <c r="F148">
-        <v>15.8037748336792</v>
+        <v>15.80377388000488</v>
       </c>
       <c r="G148">
         <v>1605700</v>
@@ -5062,13 +5500,16 @@
         <v>0.01252764039182597</v>
       </c>
       <c r="I148">
-        <v>0.003652314993968897</v>
+        <v>0.08052180961663455</v>
       </c>
       <c r="J148">
         <v>0.003652314993968897</v>
       </c>
-    </row>
-    <row r="149" spans="1:10">
+      <c r="K148">
+        <v>0.003652314993968897</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149" s="2">
         <v>39600</v>
       </c>
@@ -5085,7 +5526,7 @@
         <v>24.81999969482422</v>
       </c>
       <c r="F149">
-        <v>14.42701435089111</v>
+        <v>14.42701816558838</v>
       </c>
       <c r="G149">
         <v>998450</v>
@@ -5094,13 +5535,16 @@
         <v>-0.09679766709325199</v>
       </c>
       <c r="I149">
-        <v>-0.09017598716650854</v>
+        <v>0.08002511671683138</v>
       </c>
       <c r="J149">
         <v>-0.09017598716650854</v>
       </c>
-    </row>
-    <row r="150" spans="1:10">
+      <c r="K149">
+        <v>-0.09017598716650854</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
       <c r="A150" s="2">
         <v>39630</v>
       </c>
@@ -5117,7 +5561,7 @@
         <v>24.65999984741211</v>
       </c>
       <c r="F150">
-        <v>14.33401775360107</v>
+        <v>14.33401489257812</v>
       </c>
       <c r="G150">
         <v>802000</v>
@@ -5126,13 +5570,16 @@
         <v>-0.00644640811359376</v>
       </c>
       <c r="I150">
-        <v>-0.08869178366211372</v>
+        <v>0.08003521413002018</v>
       </c>
       <c r="J150">
         <v>-0.08869178366211372</v>
       </c>
-    </row>
-    <row r="151" spans="1:10">
+      <c r="K150">
+        <v>-0.08869178366211372</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
       <c r="A151" s="2">
         <v>39661</v>
       </c>
@@ -5158,13 +5605,16 @@
         <v>-0.08759123523022994</v>
       </c>
       <c r="I151">
-        <v>-0.1541353504763818</v>
+        <v>0.07591184227271046</v>
       </c>
       <c r="J151">
         <v>-0.1541353504763818</v>
       </c>
-    </row>
-    <row r="152" spans="1:10">
+      <c r="K151">
+        <v>-0.1541353504763818</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
       <c r="A152" s="2">
         <v>39692</v>
       </c>
@@ -5181,7 +5631,7 @@
         <v>19.47999954223633</v>
       </c>
       <c r="F152">
-        <v>11.32306098937988</v>
+        <v>11.32305908203125</v>
       </c>
       <c r="G152">
         <v>1436900</v>
@@ -5190,13 +5640,16 @@
         <v>-0.1342222425672743</v>
       </c>
       <c r="I152">
-        <v>-0.3427800289010943</v>
+        <v>0.0755970438128412</v>
       </c>
       <c r="J152">
         <v>-0.3427800289010943</v>
       </c>
-    </row>
-    <row r="153" spans="1:10">
+      <c r="K152">
+        <v>-0.3427800289010943</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
       <c r="A153" s="2">
         <v>39722</v>
       </c>
@@ -5213,7 +5666,7 @@
         <v>14.0600004196167</v>
       </c>
       <c r="F153">
-        <v>8.172598838806152</v>
+        <v>8.172595977783203</v>
       </c>
       <c r="G153">
         <v>2472500</v>
@@ -5222,13 +5675,16 @@
         <v>-0.2782340477405065</v>
       </c>
       <c r="I153">
-        <v>-0.553367197456513</v>
+        <v>0.07148860683062859</v>
       </c>
       <c r="J153">
         <v>-0.553367197456513</v>
       </c>
-    </row>
-    <row r="154" spans="1:10">
+      <c r="K153">
+        <v>-0.553367197456513</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
       <c r="A154" s="2">
         <v>39753</v>
       </c>
@@ -5245,7 +5701,7 @@
         <v>13.60000038146973</v>
       </c>
       <c r="F154">
-        <v>7.905216693878174</v>
+        <v>7.90521764755249</v>
       </c>
       <c r="G154">
         <v>798000</v>
@@ -5254,13 +5710,16 @@
         <v>-0.03271692919049807</v>
       </c>
       <c r="I154">
-        <v>-0.5271209918902535</v>
+        <v>0.0706222968103091</v>
       </c>
       <c r="J154">
         <v>-0.5271209918902535</v>
       </c>
-    </row>
-    <row r="155" spans="1:10">
+      <c r="K154">
+        <v>-0.5271209918902535</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
       <c r="A155" s="2">
         <v>39783</v>
       </c>
@@ -5277,7 +5736,7 @@
         <v>14.10000038146973</v>
       </c>
       <c r="F155">
-        <v>8.541342735290527</v>
+        <v>8.541341781616211</v>
       </c>
       <c r="G155">
         <v>832300</v>
@@ -5286,13 +5745,16 @@
         <v>0.03676470485113081</v>
       </c>
       <c r="I155">
-        <v>-0.4887599557478518</v>
+        <v>0.07064109617855106</v>
       </c>
       <c r="J155">
         <v>-0.4887599557478518</v>
       </c>
-    </row>
-    <row r="156" spans="1:10">
+      <c r="K155">
+        <v>-0.4887599557478518</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
       <c r="A156" s="2">
         <v>39814</v>
       </c>
@@ -5309,7 +5771,7 @@
         <v>12.89999961853027</v>
       </c>
       <c r="F156">
-        <v>7.814419269561768</v>
+        <v>7.814418315887451</v>
       </c>
       <c r="G156">
         <v>1617800</v>
@@ -5318,13 +5780,16 @@
         <v>-0.08510643478538471</v>
       </c>
       <c r="I156">
-        <v>-0.4704433786816682</v>
+        <v>0.0710724008871107</v>
       </c>
       <c r="J156">
         <v>-0.4704433786816682</v>
       </c>
-    </row>
-    <row r="157" spans="1:10">
+      <c r="K156">
+        <v>-0.4704433786816682</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
       <c r="A157" s="2">
         <v>39845</v>
       </c>
@@ -5341,7 +5806,7 @@
         <v>11.47999954223633</v>
       </c>
       <c r="F157">
-        <v>6.954226493835449</v>
+        <v>6.954225540161133</v>
       </c>
       <c r="G157">
         <v>1993900</v>
@@ -5350,13 +5815,16 @@
         <v>-0.1100775285492396</v>
       </c>
       <c r="I157">
-        <v>-0.527572020466244</v>
+        <v>0.0717543506025756</v>
       </c>
       <c r="J157">
         <v>-0.527572020466244</v>
       </c>
-    </row>
-    <row r="158" spans="1:10">
+      <c r="K157">
+        <v>-0.527572020466244</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
       <c r="A158" s="2">
         <v>39873</v>
       </c>
@@ -5382,13 +5850,16 @@
         <v>0.09756105260394632</v>
       </c>
       <c r="I158">
-        <v>-0.5066562282772117</v>
+        <v>0.0722277983547123</v>
       </c>
       <c r="J158">
         <v>-0.5066562282772117</v>
       </c>
-    </row>
-    <row r="159" spans="1:10">
+      <c r="K158">
+        <v>-0.5066562282772117</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
       <c r="A159" s="2">
         <v>39904</v>
       </c>
@@ -5405,7 +5876,7 @@
         <v>14.64000034332275</v>
       </c>
       <c r="F159">
-        <v>8.868457794189453</v>
+        <v>8.86845588684082</v>
       </c>
       <c r="G159">
         <v>1330950</v>
@@ -5414,13 +5885,16 @@
         <v>0.1619047539754972</v>
       </c>
       <c r="I159">
-        <v>-0.4605747725658885</v>
+        <v>0.06946605419594742</v>
       </c>
       <c r="J159">
         <v>-0.4605747725658885</v>
       </c>
-    </row>
-    <row r="160" spans="1:10">
+      <c r="K159">
+        <v>-0.4605747725658885</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
       <c r="A160" s="2">
         <v>39934</v>
       </c>
@@ -5437,7 +5911,7 @@
         <v>18.63999938964844</v>
       </c>
       <c r="F160">
-        <v>11.29153060913086</v>
+        <v>11.29153251647949</v>
       </c>
       <c r="G160">
         <v>2173250</v>
@@ -5446,13 +5920,16 @@
         <v>0.2732239721667813</v>
       </c>
       <c r="I160">
-        <v>-0.3216885116391996</v>
+        <v>0.07369351223282551</v>
       </c>
       <c r="J160">
         <v>-0.3216885116391996</v>
       </c>
-    </row>
-    <row r="161" spans="1:10">
+      <c r="K160">
+        <v>-0.3216885116391996</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
       <c r="A161" s="2">
         <v>39965</v>
       </c>
@@ -5469,7 +5946,7 @@
         <v>18.04000091552734</v>
       </c>
       <c r="F161">
-        <v>11.0104284286499</v>
+        <v>11.01042747497559</v>
       </c>
       <c r="G161">
         <v>2103500</v>
@@ -5478,13 +5955,16 @@
         <v>-0.03218876039525509</v>
       </c>
       <c r="I161">
-        <v>-0.273166755143463</v>
+        <v>0.07237139062010295</v>
       </c>
       <c r="J161">
         <v>-0.273166755143463</v>
       </c>
-    </row>
-    <row r="162" spans="1:10">
+      <c r="K161">
+        <v>-0.273166755143463</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
       <c r="A162" s="2">
         <v>39995</v>
       </c>
@@ -5501,7 +5981,7 @@
         <v>21.05999946594238</v>
       </c>
       <c r="F162">
-        <v>12.85363674163818</v>
+        <v>12.85363483428955</v>
       </c>
       <c r="G162">
         <v>1063050</v>
@@ -5510,13 +5990,16 @@
         <v>0.1674056761169935</v>
       </c>
       <c r="I162">
-        <v>-0.1459854178323331</v>
+        <v>0.0736320401982829</v>
       </c>
       <c r="J162">
         <v>-0.1459854178323331</v>
       </c>
-    </row>
-    <row r="163" spans="1:10">
+      <c r="K162">
+        <v>-0.1459854178323331</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
       <c r="A163" s="2">
         <v>40026</v>
       </c>
@@ -5533,7 +6016,7 @@
         <v>20.45999908447266</v>
       </c>
       <c r="F163">
-        <v>12.48743438720703</v>
+        <v>12.4874382019043</v>
       </c>
       <c r="G163">
         <v>2112900</v>
@@ -5542,13 +6025,16 @@
         <v>-0.02849004732597593</v>
       </c>
       <c r="I163">
-        <v>-0.09066670735677085</v>
+        <v>0.07368650205920353</v>
       </c>
       <c r="J163">
         <v>-0.09066670735677085</v>
       </c>
-    </row>
-    <row r="164" spans="1:10">
+      <c r="K163">
+        <v>-0.09066670735677085</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
       <c r="A164" s="2">
         <v>40057</v>
       </c>
@@ -5565,7 +6051,7 @@
         <v>21.5</v>
       </c>
       <c r="F164">
-        <v>13.12217998504639</v>
+        <v>13.12218189239502</v>
       </c>
       <c r="G164">
         <v>2025850</v>
@@ -5574,13 +6060,16 @@
         <v>0.0508309365622901</v>
       </c>
       <c r="I164">
-        <v>0.1036961244985621</v>
+        <v>0.07365037635361926</v>
       </c>
       <c r="J164">
         <v>0.1036961244985621</v>
       </c>
-    </row>
-    <row r="165" spans="1:10">
+      <c r="K164">
+        <v>0.1036961244985621</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
       <c r="A165" s="2">
         <v>40087</v>
       </c>
@@ -5597,7 +6086,7 @@
         <v>20.95999908447266</v>
       </c>
       <c r="F165">
-        <v>12.7926025390625</v>
+        <v>12.79260158538818</v>
       </c>
       <c r="G165">
         <v>2678500</v>
@@ -5606,13 +6095,16 @@
         <v>-0.0251163216524346</v>
       </c>
       <c r="I165">
-        <v>0.4907538021996776</v>
+        <v>0.0734952044983006</v>
       </c>
       <c r="J165">
         <v>0.4907538021996776</v>
       </c>
-    </row>
-    <row r="166" spans="1:10">
+      <c r="K165">
+        <v>0.4907538021996776</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
       <c r="A166" s="2">
         <v>40118</v>
       </c>
@@ -5638,13 +6130,16 @@
         <v>0.08396948023655493</v>
       </c>
       <c r="I166">
-        <v>0.670588137946742</v>
+        <v>0.07381251327981431</v>
       </c>
       <c r="J166">
         <v>0.670588137946742</v>
       </c>
-    </row>
-    <row r="167" spans="1:10">
+      <c r="K166">
+        <v>0.670588137946742</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
       <c r="A167" s="2">
         <v>40148</v>
       </c>
@@ -5661,7 +6156,7 @@
         <v>22.97999954223633</v>
       </c>
       <c r="F167">
-        <v>14.34722518920898</v>
+        <v>14.34723377227783</v>
       </c>
       <c r="G167">
         <v>738400</v>
@@ -5670,13 +6165,16 @@
         <v>0.01144367239170707</v>
       </c>
       <c r="I167">
-        <v>0.6297871574838203</v>
+        <v>0.07333093279870916</v>
       </c>
       <c r="J167">
         <v>0.6297871574838203</v>
       </c>
-    </row>
-    <row r="168" spans="1:10">
+      <c r="K167">
+        <v>0.6297871574838203</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
       <c r="A168" s="2">
         <v>40179</v>
       </c>
@@ -5693,7 +6191,7 @@
         <v>21.55999946594238</v>
       </c>
       <c r="F168">
-        <v>13.46066951751709</v>
+        <v>13.46066856384277</v>
       </c>
       <c r="G168">
         <v>2383500</v>
@@ -5702,13 +6200,16 @@
         <v>-0.06179286791037752</v>
       </c>
       <c r="I168">
-        <v>0.6713178374805846</v>
+        <v>0.07265374654453088</v>
       </c>
       <c r="J168">
         <v>0.6713178374805846</v>
       </c>
-    </row>
-    <row r="169" spans="1:10">
+      <c r="K168">
+        <v>0.6713178374805846</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
       <c r="A169" s="2">
         <v>40210</v>
       </c>
@@ -5725,7 +6226,7 @@
         <v>22.02000045776367</v>
       </c>
       <c r="F169">
-        <v>13.74786281585693</v>
+        <v>13.74786376953125</v>
       </c>
       <c r="G169">
         <v>1279350</v>
@@ -5734,13 +6235,16 @@
         <v>0.02133585358144074</v>
       </c>
       <c r="I169">
-        <v>0.9181185832585956</v>
+        <v>0.07191029347310954</v>
       </c>
       <c r="J169">
         <v>0.9181185832585956</v>
       </c>
-    </row>
-    <row r="170" spans="1:10">
+      <c r="K169">
+        <v>0.9181185832585956</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
       <c r="A170" s="2">
         <v>40238</v>
       </c>
@@ -5757,7 +6261,7 @@
         <v>23</v>
       </c>
       <c r="F170">
-        <v>14.35971546173096</v>
+        <v>14.35971450805664</v>
       </c>
       <c r="G170">
         <v>2253450</v>
@@ -5766,13 +6270,16 @@
         <v>0.04450497374493945</v>
       </c>
       <c r="I170">
-        <v>0.8253967701322533</v>
+        <v>0.07197274934085485</v>
       </c>
       <c r="J170">
         <v>0.8253967701322533</v>
       </c>
-    </row>
-    <row r="171" spans="1:10">
+      <c r="K170">
+        <v>0.8253967701322533</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
       <c r="A171" s="2">
         <v>40269</v>
       </c>
@@ -5789,7 +6296,7 @@
         <v>24.02000045776367</v>
       </c>
       <c r="F171">
-        <v>14.99653339385986</v>
+        <v>14.99653434753418</v>
       </c>
       <c r="G171">
         <v>1699250</v>
@@ -5798,13 +6305,16 @@
         <v>0.04434784598972485</v>
       </c>
       <c r="I171">
-        <v>0.6407103753053598</v>
+        <v>0.07205009902468953</v>
       </c>
       <c r="J171">
         <v>0.6407103753053598</v>
       </c>
-    </row>
-    <row r="172" spans="1:10">
+      <c r="K171">
+        <v>0.6407103753053598</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
       <c r="A172" s="2">
         <v>40299</v>
       </c>
@@ -5821,7 +6331,7 @@
         <v>22.02000045776367</v>
       </c>
       <c r="F172">
-        <v>13.74786281585693</v>
+        <v>13.74786376953125</v>
       </c>
       <c r="G172">
         <v>2229550</v>
@@ -5830,13 +6340,16 @@
         <v>-0.08326394512426272</v>
       </c>
       <c r="I172">
-        <v>0.1813305353428438</v>
+        <v>0.07163330611895383</v>
       </c>
       <c r="J172">
         <v>0.1813305353428438</v>
       </c>
-    </row>
-    <row r="173" spans="1:10">
+      <c r="K172">
+        <v>0.1813305353428438</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
       <c r="A173" s="2">
         <v>40330</v>
       </c>
@@ -5853,7 +6366,7 @@
         <v>22.47999954223633</v>
       </c>
       <c r="F173">
-        <v>14.1788158416748</v>
+        <v>14.17881298065186</v>
       </c>
       <c r="G173">
         <v>1072450</v>
@@ -5862,13 +6375,16 @@
         <v>0.02089005789781773</v>
       </c>
       <c r="I173">
-        <v>0.2461196453092971</v>
+        <v>0.07084906708649261</v>
       </c>
       <c r="J173">
         <v>0.2461196453092971</v>
       </c>
-    </row>
-    <row r="174" spans="1:10">
+      <c r="K173">
+        <v>0.2461196453092971</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
       <c r="A174" s="2">
         <v>40360</v>
       </c>
@@ -5885,7 +6401,7 @@
         <v>24.6200008392334</v>
       </c>
       <c r="F174">
-        <v>15.5285758972168</v>
+        <v>15.52857303619385</v>
       </c>
       <c r="G174">
         <v>1498700</v>
@@ -5894,13 +6410,16 @@
         <v>0.09519578917145211</v>
       </c>
       <c r="I174">
-        <v>0.1690409052026876</v>
+        <v>0.07131274860761884</v>
       </c>
       <c r="J174">
         <v>0.1690409052026876</v>
       </c>
-    </row>
-    <row r="175" spans="1:10">
+      <c r="K174">
+        <v>0.1690409052026876</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
       <c r="A175" s="2">
         <v>40391</v>
       </c>
@@ -5917,7 +6436,7 @@
         <v>24.31999969482422</v>
       </c>
       <c r="F175">
-        <v>15.33935928344727</v>
+        <v>15.33935546875</v>
       </c>
       <c r="G175">
         <v>2763800</v>
@@ -5926,13 +6445,16 @@
         <v>-0.01218526133967923</v>
       </c>
       <c r="I175">
-        <v>0.1886608398375229</v>
+        <v>0.07129055969864406</v>
       </c>
       <c r="J175">
         <v>0.1886608398375229</v>
       </c>
-    </row>
-    <row r="176" spans="1:10">
+      <c r="K175">
+        <v>0.1886608398375229</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
       <c r="A176" s="2">
         <v>40422</v>
       </c>
@@ -5958,13 +6480,16 @@
         <v>0.08717108823338426</v>
       </c>
       <c r="I176">
-        <v>0.2297674667003542</v>
+        <v>0.0709150116284471</v>
       </c>
       <c r="J176">
         <v>0.2297674667003542</v>
       </c>
-    </row>
-    <row r="177" spans="1:10">
+      <c r="K176">
+        <v>0.2297674667003542</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
       <c r="A177" s="2">
         <v>40452</v>
       </c>
@@ -5981,7 +6506,7 @@
         <v>27.28000068664551</v>
       </c>
       <c r="F177">
-        <v>17.20631790161133</v>
+        <v>17.2063159942627</v>
       </c>
       <c r="G177">
         <v>730850</v>
@@ -5990,13 +6515,16 @@
         <v>0.0317700505151608</v>
       </c>
       <c r="I177">
-        <v>0.3015268071674089</v>
+        <v>0.07094411835111633</v>
       </c>
       <c r="J177">
         <v>0.3015268071674089</v>
       </c>
-    </row>
-    <row r="178" spans="1:10">
+      <c r="K177">
+        <v>0.3015268071674089</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
       <c r="A178" s="2">
         <v>40483</v>
       </c>
@@ -6022,13 +6550,16 @@
         <v>-0.02052790906142299</v>
       </c>
       <c r="I178">
-        <v>0.1760563433489568</v>
+        <v>0.0708218371839896</v>
       </c>
       <c r="J178">
         <v>0.1760563433489568</v>
       </c>
-    </row>
-    <row r="179" spans="1:10">
+      <c r="K178">
+        <v>0.1760563433489568</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
       <c r="A179" s="2">
         <v>40513</v>
       </c>
@@ -6045,7 +6576,7 @@
         <v>27.70000076293945</v>
       </c>
       <c r="F179">
-        <v>17.87796592712402</v>
+        <v>17.87795829772949</v>
       </c>
       <c r="G179">
         <v>1246800</v>
@@ -6054,13 +6585,16 @@
         <v>0.03667670190003203</v>
       </c>
       <c r="I179">
-        <v>0.2053960537304602</v>
+        <v>0.07084864884094014</v>
       </c>
       <c r="J179">
         <v>0.2053960537304602</v>
       </c>
-    </row>
-    <row r="180" spans="1:10">
+      <c r="K179">
+        <v>0.2053960537304602</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
       <c r="A180" s="2">
         <v>40544</v>
       </c>
@@ -6077,7 +6611,7 @@
         <v>27.47999954223633</v>
       </c>
       <c r="F180">
-        <v>17.73597526550293</v>
+        <v>17.73596954345703</v>
       </c>
       <c r="G180">
         <v>2311950</v>
@@ -6086,13 +6620,16 @@
         <v>-0.007942282117099131</v>
       </c>
       <c r="I180">
-        <v>0.2745825706371456</v>
+        <v>0.07085299207653456</v>
       </c>
       <c r="J180">
         <v>0.2745825706371456</v>
       </c>
-    </row>
-    <row r="181" spans="1:10">
+      <c r="K180">
+        <v>0.2745825706371456</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
       <c r="A181" s="2">
         <v>40575</v>
       </c>
@@ -6109,7 +6646,7 @@
         <v>26.10000038146973</v>
       </c>
       <c r="F181">
-        <v>16.84529876708984</v>
+        <v>16.84530258178711</v>
       </c>
       <c r="G181">
         <v>1221650</v>
@@ -6118,13 +6655,16 @@
         <v>-0.0502183109081048</v>
       </c>
       <c r="I181">
-        <v>0.18528609622565</v>
+        <v>0.07098237648559128</v>
       </c>
       <c r="J181">
         <v>0.18528609622565</v>
       </c>
-    </row>
-    <row r="182" spans="1:10">
+      <c r="K181">
+        <v>0.18528609622565</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
       <c r="A182" s="2">
         <v>40603</v>
       </c>
@@ -6141,7 +6681,7 @@
         <v>27.34000015258789</v>
       </c>
       <c r="F182">
-        <v>17.64561462402344</v>
+        <v>17.64560890197754</v>
       </c>
       <c r="G182">
         <v>1506600</v>
@@ -6150,13 +6690,16 @@
         <v>0.04750956908025672</v>
       </c>
       <c r="I182">
-        <v>0.1886956588081692</v>
+        <v>0.06924097297234864</v>
       </c>
       <c r="J182">
         <v>0.1886956588081692</v>
       </c>
-    </row>
-    <row r="183" spans="1:10">
+      <c r="K182">
+        <v>0.1886956588081692</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
       <c r="A183" s="2">
         <v>40634</v>
       </c>
@@ -6173,7 +6716,7 @@
         <v>28.89999961853027</v>
       </c>
       <c r="F183">
-        <v>18.65246200561523</v>
+        <v>18.6524600982666</v>
       </c>
       <c r="G183">
         <v>986300</v>
@@ -6182,13 +6725,16 @@
         <v>0.05705923398814328</v>
       </c>
       <c r="I183">
-        <v>0.2031639911642593</v>
+        <v>0.0693671464732757</v>
       </c>
       <c r="J183">
         <v>0.2031639911642593</v>
       </c>
-    </row>
-    <row r="184" spans="1:10">
+      <c r="K183">
+        <v>0.2031639911642593</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
       <c r="A184" s="2">
         <v>40664</v>
       </c>
@@ -6205,7 +6751,7 @@
         <v>28.39999961853027</v>
       </c>
       <c r="F184">
-        <v>18.32975196838379</v>
+        <v>18.32975006103516</v>
       </c>
       <c r="G184">
         <v>1576550</v>
@@ -6214,13 +6760,16 @@
         <v>-0.01730103829065133</v>
       </c>
       <c r="I184">
-        <v>0.2897365589525762</v>
+        <v>0.06931025530816823</v>
       </c>
       <c r="J184">
         <v>0.2897365589525762</v>
       </c>
-    </row>
-    <row r="185" spans="1:10">
+      <c r="K184">
+        <v>0.2897365589525762</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
       <c r="A185" s="2">
         <v>40695</v>
       </c>
@@ -6237,7 +6786,7 @@
         <v>27.45999908447266</v>
       </c>
       <c r="F185">
-        <v>17.97246170043945</v>
+        <v>17.97246360778809</v>
       </c>
       <c r="G185">
         <v>1471100</v>
@@ -6246,13 +6795,16 @@
         <v>-0.03309861079872312</v>
       </c>
       <c r="I185">
-        <v>0.2215302332582216</v>
+        <v>0.06942240526490008</v>
       </c>
       <c r="J185">
         <v>0.2215302332582216</v>
       </c>
-    </row>
-    <row r="186" spans="1:10">
+      <c r="K185">
+        <v>0.2215302332582216</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
       <c r="A186" s="2">
         <v>40725</v>
       </c>
@@ -6278,13 +6830,16 @@
         <v>0.04734163101790734</v>
       </c>
       <c r="I186">
-        <v>0.1681559402325896</v>
+        <v>0.06939847890012861</v>
       </c>
       <c r="J186">
         <v>0.1681559402325896</v>
       </c>
-    </row>
-    <row r="187" spans="1:10">
+      <c r="K186">
+        <v>0.1681559402325896</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
       <c r="A187" s="2">
         <v>40756</v>
       </c>
@@ -6310,13 +6865,16 @@
         <v>-0.09457577509415216</v>
       </c>
       <c r="I187">
-        <v>0.07072373529137721</v>
+        <v>0.07005421355134203</v>
       </c>
       <c r="J187">
         <v>0.07072373529137721</v>
       </c>
-    </row>
-    <row r="188" spans="1:10">
+      <c r="K187">
+        <v>0.07072373529137721</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
       <c r="A188" s="2">
         <v>40787</v>
       </c>
@@ -6333,7 +6891,7 @@
         <v>22</v>
       </c>
       <c r="F188">
-        <v>14.39891242980957</v>
+        <v>14.39891338348389</v>
       </c>
       <c r="G188">
         <v>1127950</v>
@@ -6342,13 +6900,16 @@
         <v>-0.1551459590432787</v>
       </c>
       <c r="I188">
-        <v>-0.1679273995603143</v>
+        <v>0.06883708561322312</v>
       </c>
       <c r="J188">
         <v>-0.1679273995603143</v>
       </c>
-    </row>
-    <row r="189" spans="1:10">
+      <c r="K188">
+        <v>-0.1679273995603143</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
       <c r="A189" s="2">
         <v>40817</v>
       </c>
@@ -6365,7 +6926,7 @@
         <v>24.5</v>
       </c>
       <c r="F189">
-        <v>16.0351505279541</v>
+        <v>16.03515625</v>
       </c>
       <c r="G189">
         <v>727600</v>
@@ -6374,13 +6935,16 @@
         <v>0.1136363636363635</v>
       </c>
       <c r="I189">
-        <v>-0.101906180963053</v>
+        <v>0.06944056393380529</v>
       </c>
       <c r="J189">
         <v>-0.101906180963053</v>
       </c>
-    </row>
-    <row r="190" spans="1:10">
+      <c r="K189">
+        <v>-0.101906180963053</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
       <c r="A190" s="2">
         <v>40848</v>
       </c>
@@ -6406,13 +6970,16 @@
         <v>-0.03918363610092479</v>
       </c>
       <c r="I190">
-        <v>-0.1190119191446912</v>
+        <v>0.06945648197102888</v>
       </c>
       <c r="J190">
         <v>-0.1190119191446912</v>
       </c>
-    </row>
-    <row r="191" spans="1:10">
+      <c r="K190">
+        <v>-0.1190119191446912</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
       <c r="A191" s="2">
         <v>40878</v>
       </c>
@@ -6429,7 +6996,7 @@
         <v>21.65999984741211</v>
       </c>
       <c r="F191">
-        <v>14.54884433746338</v>
+        <v>14.54884815216064</v>
       </c>
       <c r="G191">
         <v>813900</v>
@@ -6438,13 +7005,16 @@
         <v>-0.07986410344084383</v>
       </c>
       <c r="I191">
-        <v>-0.2180505685620203</v>
+        <v>0.06930721478540197</v>
       </c>
       <c r="J191">
         <v>-0.2180505685620203</v>
       </c>
-    </row>
-    <row r="192" spans="1:10">
+      <c r="K191">
+        <v>-0.2180505685620203</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
       <c r="A192" s="2">
         <v>40909</v>
       </c>
@@ -6461,7 +7031,7 @@
         <v>24.76000022888184</v>
       </c>
       <c r="F192">
-        <v>16.63108825683594</v>
+        <v>16.63109016418457</v>
       </c>
       <c r="G192">
         <v>875500</v>
@@ -6470,13 +7040,16 @@
         <v>0.143120978915432</v>
       </c>
       <c r="I192">
-        <v>-0.098981053808749</v>
+        <v>0.06950754408829844</v>
       </c>
       <c r="J192">
         <v>-0.098981053808749</v>
       </c>
-    </row>
-    <row r="193" spans="1:10">
+      <c r="K192">
+        <v>-0.098981053808749</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
       <c r="A193" s="2">
         <v>40940</v>
       </c>
@@ -6493,7 +7066,7 @@
         <v>25.78000068664551</v>
       </c>
       <c r="F193">
-        <v>17.31621551513672</v>
+        <v>17.31621932983398</v>
       </c>
       <c r="G193">
         <v>902500</v>
@@ -6502,13 +7075,16 @@
         <v>0.0411954946823414</v>
       </c>
       <c r="I193">
-        <v>-0.01226052452671267</v>
+        <v>0.06943244463544417</v>
       </c>
       <c r="J193">
         <v>-0.01226052452671267</v>
       </c>
-    </row>
-    <row r="194" spans="1:10">
+      <c r="K193">
+        <v>-0.01226052452671267</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
       <c r="A194" s="2">
         <v>40969</v>
       </c>
@@ -6525,7 +7101,7 @@
         <v>25.78000068664551</v>
       </c>
       <c r="F194">
-        <v>17.31621551513672</v>
+        <v>17.31621932983398</v>
       </c>
       <c r="G194">
         <v>693750</v>
@@ -6534,13 +7110,16 @@
         <v>0</v>
       </c>
       <c r="I194">
-        <v>-0.05705923398814317</v>
+        <v>0.06941449278264875</v>
       </c>
       <c r="J194">
         <v>-0.05705923398814317</v>
       </c>
-    </row>
-    <row r="195" spans="1:10">
+      <c r="K194">
+        <v>-0.05705923398814317</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
       <c r="A195" s="2">
         <v>41000</v>
       </c>
@@ -6557,7 +7136,7 @@
         <v>26</v>
       </c>
       <c r="F195">
-        <v>17.46398735046387</v>
+        <v>17.4639892578125</v>
       </c>
       <c r="G195">
         <v>943450</v>
@@ -6566,13 +7145,16 @@
         <v>0.008533720228659947</v>
       </c>
       <c r="I195">
-        <v>-0.1003460088861328</v>
+        <v>0.06932035487200155</v>
       </c>
       <c r="J195">
         <v>-0.1003460088861328</v>
       </c>
-    </row>
-    <row r="196" spans="1:10">
+      <c r="K195">
+        <v>-0.1003460088861328</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
       <c r="A196" s="2">
         <v>41030</v>
       </c>
@@ -6589,7 +7171,7 @@
         <v>23.29999923706055</v>
       </c>
       <c r="F196">
-        <v>15.65042018890381</v>
+        <v>15.65041828155518</v>
       </c>
       <c r="G196">
         <v>1432050</v>
@@ -6598,13 +7180,16 @@
         <v>-0.103846183189979</v>
       </c>
       <c r="I196">
-        <v>-0.1795774806328556</v>
+        <v>0.0700892546210088</v>
       </c>
       <c r="J196">
         <v>-0.1795774806328556</v>
       </c>
-    </row>
-    <row r="197" spans="1:10">
+      <c r="K196">
+        <v>-0.1795774806328556</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
       <c r="A197" s="2">
         <v>41061</v>
       </c>
@@ -6621,7 +7206,7 @@
         <v>24.63999938964844</v>
       </c>
       <c r="F197">
-        <v>16.81893157958984</v>
+        <v>16.81893539428711</v>
       </c>
       <c r="G197">
         <v>871800</v>
@@ -6630,13 +7215,16 @@
         <v>0.0575107380457125</v>
       </c>
       <c r="I197">
-        <v>-0.1026948211523721</v>
+        <v>0.07004049763185594</v>
       </c>
       <c r="J197">
         <v>-0.1026948211523721</v>
       </c>
-    </row>
-    <row r="198" spans="1:10">
+      <c r="K197">
+        <v>-0.1026948211523721</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
       <c r="A198" s="2">
         <v>41091</v>
       </c>
@@ -6653,7 +7241,7 @@
         <v>26.28000068664551</v>
       </c>
       <c r="F198">
-        <v>17.93837356567383</v>
+        <v>17.93837928771973</v>
       </c>
       <c r="G198">
         <v>1788250</v>
@@ -6662,13 +7250,16 @@
         <v>0.06655849584501428</v>
       </c>
       <c r="I198">
-        <v>-0.08623085961403509</v>
+        <v>0.06986210882693088</v>
       </c>
       <c r="J198">
         <v>-0.08623085961403509</v>
       </c>
-    </row>
-    <row r="199" spans="1:10">
+      <c r="K198">
+        <v>-0.08623085961403509</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
       <c r="A199" s="2">
         <v>41122</v>
       </c>
@@ -6685,7 +7276,7 @@
         <v>26.26000022888184</v>
       </c>
       <c r="F199">
-        <v>17.92472648620605</v>
+        <v>17.92472267150879</v>
       </c>
       <c r="G199">
         <v>1217150</v>
@@ -6694,13 +7285,16 @@
         <v>-0.000761052406434537</v>
       </c>
       <c r="I199">
-        <v>0.008448514040693134</v>
+        <v>0.06986797274642932</v>
       </c>
       <c r="J199">
         <v>0.008448514040693134</v>
       </c>
-    </row>
-    <row r="200" spans="1:10">
+      <c r="K199">
+        <v>0.008448514040693134</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
       <c r="A200" s="2">
         <v>41153</v>
       </c>
@@ -6717,7 +7311,7 @@
         <v>26.81999969482422</v>
       </c>
       <c r="F200">
-        <v>18.30697441101074</v>
+        <v>18.30697059631348</v>
       </c>
       <c r="G200">
         <v>1141800</v>
@@ -6726,13 +7320,16 @@
         <v>0.02132518892084678</v>
       </c>
       <c r="I200">
-        <v>0.2190908952192827</v>
+        <v>0.06898349239396406</v>
       </c>
       <c r="J200">
         <v>0.2190908952192827</v>
       </c>
-    </row>
-    <row r="201" spans="1:10">
+      <c r="K200">
+        <v>0.2190908952192827</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
       <c r="A201" s="2">
         <v>41183</v>
       </c>
@@ -6749,7 +7346,7 @@
         <v>26.68000030517578</v>
       </c>
       <c r="F201">
-        <v>18.2114086151123</v>
+        <v>18.21141052246094</v>
       </c>
       <c r="G201">
         <v>1270650</v>
@@ -6758,13 +7355,16 @@
         <v>-0.005219962387824184</v>
       </c>
       <c r="I201">
-        <v>0.08897960429288898</v>
+        <v>0.06885128347676193</v>
       </c>
       <c r="J201">
         <v>0.08897960429288898</v>
       </c>
-    </row>
-    <row r="202" spans="1:10">
+      <c r="K201">
+        <v>0.08897960429288898</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
       <c r="A202" s="2">
         <v>41214</v>
       </c>
@@ -6781,7 +7381,7 @@
         <v>27.05999946594238</v>
       </c>
       <c r="F202">
-        <v>18.47079277038574</v>
+        <v>18.47078895568848</v>
       </c>
       <c r="G202">
         <v>858650</v>
@@ -6790,13 +7390,16 @@
         <v>0.01424284694227995</v>
       </c>
       <c r="I202">
-        <v>0.149532642885039</v>
+        <v>0.06873815610467682</v>
       </c>
       <c r="J202">
         <v>0.149532642885039</v>
       </c>
-    </row>
-    <row r="203" spans="1:10">
+      <c r="K202">
+        <v>0.149532642885039</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
       <c r="A203" s="2">
         <v>41244</v>
       </c>
@@ -6813,7 +7416,7 @@
         <v>27.3799991607666</v>
       </c>
       <c r="F203">
-        <v>19.16630935668945</v>
+        <v>19.16631317138672</v>
       </c>
       <c r="G203">
         <v>941800</v>
@@ -6822,13 +7425,16 @@
         <v>0.01182556175682747</v>
       </c>
       <c r="I203">
-        <v>0.2640812259302903</v>
+        <v>0.06838981399056507</v>
       </c>
       <c r="J203">
         <v>0.2640812259302903</v>
       </c>
-    </row>
-    <row r="204" spans="1:10">
+      <c r="K203">
+        <v>0.2640812259302903</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
       <c r="A204" s="2">
         <v>41275</v>
       </c>
@@ -6854,13 +7460,16 @@
         <v>0.005843745787619037</v>
       </c>
       <c r="I204">
-        <v>0.1122778942224207</v>
+        <v>0.0682801959307418</v>
       </c>
       <c r="J204">
         <v>0.1122778942224207</v>
       </c>
-    </row>
-    <row r="205" spans="1:10">
+      <c r="K204">
+        <v>0.1122778942224207</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
       <c r="A205" s="2">
         <v>41306</v>
       </c>
@@ -6877,7 +7486,7 @@
         <v>27.31999969482422</v>
       </c>
       <c r="F205">
-        <v>19.12431144714355</v>
+        <v>19.12430953979492</v>
       </c>
       <c r="G205">
         <v>814500</v>
@@ -6886,13 +7495,16 @@
         <v>-0.007988424596568788</v>
       </c>
       <c r="I205">
-        <v>0.05973618957180471</v>
+        <v>0.06827582005327806</v>
       </c>
       <c r="J205">
         <v>0.05973618957180471</v>
       </c>
-    </row>
-    <row r="206" spans="1:10">
+      <c r="K205">
+        <v>0.05973618957180471</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
       <c r="A206" s="2">
         <v>41334</v>
       </c>
@@ -6918,13 +7530,16 @@
         <v>0.02196194685841801</v>
       </c>
       <c r="I206">
-        <v>0.08301005945112316</v>
+        <v>0.06820765212374744</v>
       </c>
       <c r="J206">
         <v>0.08301005945112316</v>
       </c>
-    </row>
-    <row r="207" spans="1:10">
+      <c r="K206">
+        <v>0.08301005945112316</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
       <c r="A207" s="2">
         <v>41365</v>
       </c>
@@ -6941,7 +7556,7 @@
         <v>28.8799991607666</v>
       </c>
       <c r="F207">
-        <v>20.2163257598877</v>
+        <v>20.21632766723633</v>
       </c>
       <c r="G207">
         <v>618950</v>
@@ -6950,13 +7565,16 @@
         <v>0.0343839212696766</v>
       </c>
       <c r="I207">
-        <v>0.1107691984910231</v>
+        <v>0.06819904478686409</v>
       </c>
       <c r="J207">
         <v>0.1107691984910231</v>
       </c>
-    </row>
-    <row r="208" spans="1:10">
+      <c r="K207">
+        <v>0.1107691984910231</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
       <c r="A208" s="2">
         <v>41395</v>
       </c>
@@ -6973,7 +7591,7 @@
         <v>27.05999946594238</v>
       </c>
       <c r="F208">
-        <v>18.94230651855469</v>
+        <v>18.94230270385742</v>
       </c>
       <c r="G208">
         <v>1111700</v>
@@ -6982,13 +7600,16 @@
         <v>-0.06301938184598987</v>
       </c>
       <c r="I208">
-        <v>0.1613734056652349</v>
+        <v>0.06775733251586807</v>
       </c>
       <c r="J208">
         <v>0.1613734056652349</v>
       </c>
-    </row>
-    <row r="209" spans="1:10">
+      <c r="K208">
+        <v>0.1613734056652349</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
       <c r="A209" s="2">
         <v>41426</v>
       </c>
@@ -7005,7 +7626,7 @@
         <v>25.57999992370605</v>
       </c>
       <c r="F209">
-        <v>18.24275398254395</v>
+        <v>18.24275016784668</v>
       </c>
       <c r="G209">
         <v>1407200</v>
@@ -7014,13 +7635,16 @@
         <v>-0.05469325836828087</v>
       </c>
       <c r="I209">
-        <v>0.03814937326875589</v>
+        <v>0.06799533815098367</v>
       </c>
       <c r="J209">
         <v>0.03814937326875589</v>
       </c>
-    </row>
-    <row r="210" spans="1:10">
+      <c r="K209">
+        <v>0.03814937326875589</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
       <c r="A210" s="2">
         <v>41456</v>
       </c>
@@ -7037,7 +7661,7 @@
         <v>26.63999938964844</v>
       </c>
       <c r="F210">
-        <v>18.99870681762695</v>
+        <v>18.99870300292969</v>
       </c>
       <c r="G210">
         <v>1216500</v>
@@ -7046,13 +7670,16 @@
         <v>0.041438603170598</v>
       </c>
       <c r="I210">
-        <v>0.01369858042606009</v>
+        <v>0.06765081215380875</v>
       </c>
       <c r="J210">
         <v>0.01369858042606009</v>
       </c>
-    </row>
-    <row r="211" spans="1:10">
+      <c r="K210">
+        <v>0.01369858042606009</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
       <c r="A211" s="2">
         <v>41487</v>
       </c>
@@ -7069,7 +7696,7 @@
         <v>24.79999923706055</v>
       </c>
       <c r="F211">
-        <v>17.68648147583008</v>
+        <v>17.68648338317871</v>
       </c>
       <c r="G211">
         <v>698400</v>
@@ -7078,13 +7705,16 @@
         <v>-0.06906907637929094</v>
       </c>
       <c r="I211">
-        <v>-0.05559790476374482</v>
+        <v>0.06801284238372904</v>
       </c>
       <c r="J211">
         <v>-0.05559790476374482</v>
       </c>
-    </row>
-    <row r="212" spans="1:10">
+      <c r="K211">
+        <v>-0.05559790476374482</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
       <c r="A212" s="2">
         <v>41518</v>
       </c>
@@ -7101,7 +7731,7 @@
         <v>26.70000076293945</v>
       </c>
       <c r="F212">
-        <v>19.0414981842041</v>
+        <v>19.04150009155273</v>
       </c>
       <c r="G212">
         <v>671200</v>
@@ -7110,13 +7740,16 @@
         <v>0.07661296711007903</v>
       </c>
       <c r="I212">
-        <v>-0.004474233156233853</v>
+        <v>0.06826143537606989</v>
       </c>
       <c r="J212">
         <v>-0.004474233156233853</v>
       </c>
-    </row>
-    <row r="213" spans="1:10">
+      <c r="K212">
+        <v>-0.004474233156233853</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
       <c r="A213" s="2">
         <v>41548</v>
       </c>
@@ -7133,7 +7766,7 @@
         <v>27.6200008392334</v>
       </c>
       <c r="F213">
-        <v>19.69761085510254</v>
+        <v>19.69760704040527</v>
       </c>
       <c r="G213">
         <v>542150</v>
@@ -7142,13 +7775,16 @@
         <v>0.03445693071181255</v>
       </c>
       <c r="I213">
-        <v>0.03523240342224665</v>
+        <v>0.06808902237633488</v>
       </c>
       <c r="J213">
         <v>0.03523240342224665</v>
       </c>
-    </row>
-    <row r="214" spans="1:10">
+      <c r="K213">
+        <v>0.03523240342224665</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11">
       <c r="A214" s="2">
         <v>41579</v>
       </c>
@@ -7165,7 +7801,7 @@
         <v>27.15999984741211</v>
       </c>
       <c r="F214">
-        <v>19.36955070495605</v>
+        <v>19.36954879760742</v>
       </c>
       <c r="G214">
         <v>214350</v>
@@ -7174,13 +7810,16 @@
         <v>-0.016654633520788</v>
       </c>
       <c r="I214">
-        <v>0.003695505670485488</v>
+        <v>0.06812520692078194</v>
       </c>
       <c r="J214">
         <v>0.003695505670485488</v>
       </c>
-    </row>
-    <row r="215" spans="1:10">
+      <c r="K214">
+        <v>0.003695505670485488</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11">
       <c r="A215" s="2">
         <v>41609</v>
       </c>
@@ -7206,13 +7845,16 @@
         <v>-0.03019144695990672</v>
       </c>
       <c r="I215">
-        <v>-0.03798389481578024</v>
+        <v>0.06821918339591873</v>
       </c>
       <c r="J215">
         <v>-0.03798389481578024</v>
       </c>
-    </row>
-    <row r="216" spans="1:10">
+      <c r="K215">
+        <v>-0.03798389481578024</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11">
       <c r="A216" s="2">
         <v>41640</v>
       </c>
@@ -7238,13 +7880,16 @@
         <v>-0.07213362215351393</v>
       </c>
       <c r="I216">
-        <v>-0.1125635540455597</v>
+        <v>0.06848420286175448</v>
       </c>
       <c r="J216">
         <v>-0.1125635540455597</v>
       </c>
-    </row>
-    <row r="217" spans="1:10">
+      <c r="K216">
+        <v>-0.1125635540455597</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
       <c r="A217" s="2">
         <v>41671</v>
       </c>
@@ -7270,13 +7915,16 @@
         <v>0.03682486083730252</v>
       </c>
       <c r="I217">
-        <v>-0.07247436179918554</v>
+        <v>0.06852019202461845</v>
       </c>
       <c r="J217">
         <v>-0.07247436179918554</v>
       </c>
-    </row>
-    <row r="218" spans="1:10">
+      <c r="K217">
+        <v>-0.07247436179918554</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
       <c r="A218" s="2">
         <v>41699</v>
       </c>
@@ -7293,7 +7941,7 @@
         <v>26.1200008392334</v>
       </c>
       <c r="F218">
-        <v>19.00802040100098</v>
+        <v>19.00802230834961</v>
       </c>
       <c r="G218">
         <v>502050</v>
@@ -7302,13 +7950,16 @@
         <v>0.03078140023475284</v>
       </c>
       <c r="I218">
-        <v>-0.06446988653803309</v>
+        <v>0.06851743535311342</v>
       </c>
       <c r="J218">
         <v>-0.06446988653803309</v>
       </c>
-    </row>
-    <row r="219" spans="1:10">
+      <c r="K218">
+        <v>-0.06446988653803309</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
       <c r="A219" s="2">
         <v>41730</v>
       </c>
@@ -7334,13 +7985,16 @@
         <v>0.04211326335291865</v>
       </c>
       <c r="I219">
-        <v>-0.05747922076352463</v>
+        <v>0.06841611548356485</v>
       </c>
       <c r="J219">
         <v>-0.05747922076352463</v>
       </c>
-    </row>
-    <row r="220" spans="1:10">
+      <c r="K219">
+        <v>-0.05747922076352463</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
       <c r="A220" s="2">
         <v>41760</v>
       </c>
@@ -7366,13 +8020,16 @@
         <v>0.01836884689981222</v>
       </c>
       <c r="I220">
-        <v>0.02439023874493351</v>
+        <v>0.06841182020726</v>
       </c>
       <c r="J220">
         <v>0.02439023874493351</v>
       </c>
-    </row>
-    <row r="221" spans="1:10">
+      <c r="K220">
+        <v>0.02439023874493351</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11">
       <c r="A221" s="2">
         <v>41791</v>
       </c>
@@ -7389,7 +8046,7 @@
         <v>27.04000091552734</v>
       </c>
       <c r="F221">
-        <v>19.9559440612793</v>
+        <v>19.95594596862793</v>
       </c>
       <c r="G221">
         <v>245400</v>
@@ -7398,13 +8055,16 @@
         <v>-0.02453096734023186</v>
       </c>
       <c r="I221">
-        <v>0.05707587944393411</v>
+        <v>0.06845495013254581</v>
       </c>
       <c r="J221">
         <v>0.05707587944393411</v>
       </c>
-    </row>
-    <row r="222" spans="1:10">
+      <c r="K221">
+        <v>0.05707587944393411</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11">
       <c r="A222" s="2">
         <v>41821</v>
       </c>
@@ -7421,7 +8081,7 @@
         <v>28.1200008392334</v>
       </c>
       <c r="F222">
-        <v>20.75300216674805</v>
+        <v>20.75299835205078</v>
       </c>
       <c r="G222">
         <v>671050</v>
@@ -7430,13 +8090,16 @@
         <v>0.03994082422851841</v>
       </c>
       <c r="I222">
-        <v>0.05555561124224528</v>
+        <v>0.06851351683475676</v>
       </c>
       <c r="J222">
         <v>0.05555561124224528</v>
       </c>
-    </row>
-    <row r="223" spans="1:10">
+      <c r="K222">
+        <v>0.05555561124224528</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
       <c r="A223" s="2">
         <v>41852</v>
       </c>
@@ -7462,13 +8125,16 @@
         <v>-0.007112402452720046</v>
       </c>
       <c r="I223">
-        <v>0.1258064893232311</v>
+        <v>0.06847102584711626</v>
       </c>
       <c r="J223">
         <v>0.1258064893232311</v>
       </c>
-    </row>
-    <row r="224" spans="1:10">
+      <c r="K223">
+        <v>0.1258064893232311</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11">
       <c r="A224" s="2">
         <v>41883</v>
       </c>
@@ -7494,13 +8160,16 @@
         <v>-0.04441259913072182</v>
       </c>
       <c r="I224">
-        <v>-0.000749080793714163</v>
+        <v>0.06858714953242712</v>
       </c>
       <c r="J224">
         <v>-0.000749080793714163</v>
       </c>
-    </row>
-    <row r="225" spans="1:10">
+      <c r="K224">
+        <v>-0.000749080793714163</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11">
       <c r="A225" s="2">
         <v>41913</v>
       </c>
@@ -7517,7 +8186,7 @@
         <v>26.54000091552734</v>
       </c>
       <c r="F225">
-        <v>19.58693695068359</v>
+        <v>19.58693504333496</v>
       </c>
       <c r="G225">
         <v>435450</v>
@@ -7526,13 +8195,16 @@
         <v>-0.005247353375077646</v>
       </c>
       <c r="I225">
-        <v>-0.03910209597720016</v>
+        <v>0.06859494419379983</v>
       </c>
       <c r="J225">
         <v>-0.03910209597720016</v>
       </c>
-    </row>
-    <row r="226" spans="1:10">
+      <c r="K225">
+        <v>-0.03910209597720016</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
       <c r="A226" s="2">
         <v>41944</v>
       </c>
@@ -7558,13 +8230,16 @@
         <v>0.01055006667814617</v>
       </c>
       <c r="I226">
-        <v>-0.01251841511406659</v>
+        <v>0.06855529360327467</v>
       </c>
       <c r="J226">
         <v>-0.01251841511406659</v>
       </c>
-    </row>
-    <row r="227" spans="1:10">
+      <c r="K226">
+        <v>-0.01251841511406659</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11">
       <c r="A227" s="2">
         <v>41974</v>
       </c>
@@ -7590,13 +8265,16 @@
         <v>-0.02460849570924784</v>
       </c>
       <c r="I227">
-        <v>-0.006833724530487362</v>
+        <v>0.06861830204533248</v>
       </c>
       <c r="J227">
         <v>-0.006833724530487362</v>
       </c>
-    </row>
-    <row r="228" spans="1:10">
+      <c r="K227">
+        <v>-0.006833724530487362</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11">
       <c r="A228" s="2">
         <v>42005</v>
       </c>
@@ -7613,7 +8291,7 @@
         <v>25.54000091552734</v>
       </c>
       <c r="F228">
-        <v>19.21745300292969</v>
+        <v>19.21745491027832</v>
       </c>
       <c r="G228">
         <v>558900</v>
@@ -7622,13 +8300,16 @@
         <v>-0.02370026511854506</v>
       </c>
       <c r="I228">
-        <v>0.04500819793096378</v>
+        <v>0.06866952877365319</v>
       </c>
       <c r="J228">
         <v>0.04500819793096378</v>
       </c>
-    </row>
-    <row r="229" spans="1:10">
+      <c r="K228">
+        <v>0.04500819793096378</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11">
       <c r="A229" s="2">
         <v>42036</v>
       </c>
@@ -7645,7 +8326,7 @@
         <v>25.63999938964844</v>
       </c>
       <c r="F229">
-        <v>19.29269981384277</v>
+        <v>19.29269790649414</v>
       </c>
       <c r="G229">
         <v>346200</v>
@@ -7654,13 +8335,16 @@
         <v>0.00391536689649441</v>
       </c>
       <c r="I229">
-        <v>0.01183895956014469</v>
+        <v>0.06866960080386611</v>
       </c>
       <c r="J229">
         <v>0.01183895956014469</v>
       </c>
-    </row>
-    <row r="230" spans="1:10">
+      <c r="K229">
+        <v>0.01183895956014469</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11">
       <c r="A230" s="2">
         <v>42064</v>
       </c>
@@ -7677,7 +8361,7 @@
         <v>25.60000038146973</v>
       </c>
       <c r="F230">
-        <v>19.26259613037109</v>
+        <v>19.26259803771973</v>
       </c>
       <c r="G230">
         <v>1013350</v>
@@ -7686,13 +8370,16 @@
         <v>-0.00156002375705433</v>
       </c>
       <c r="I230">
-        <v>-0.01990813327167307</v>
+        <v>0.06865122666428985</v>
       </c>
       <c r="J230">
         <v>-0.01990813327167307</v>
       </c>
-    </row>
-    <row r="231" spans="1:10">
+      <c r="K230">
+        <v>-0.01990813327167307</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11">
       <c r="A231" s="2">
         <v>42095</v>
       </c>
@@ -7709,7 +8396,7 @@
         <v>27.36000061035156</v>
       </c>
       <c r="F231">
-        <v>20.58690071105957</v>
+        <v>20.58690452575684</v>
       </c>
       <c r="G231">
         <v>450600</v>
@@ -7718,13 +8405,16 @@
         <v>0.06875000791624175</v>
       </c>
       <c r="I231">
-        <v>0.005143324780628733</v>
+        <v>0.06888101953869694</v>
       </c>
       <c r="J231">
         <v>0.005143324780628733</v>
       </c>
-    </row>
-    <row r="232" spans="1:10">
+      <c r="K231">
+        <v>0.005143324780628733</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11">
       <c r="A232" s="2">
         <v>42125</v>
       </c>
@@ -7741,7 +8431,7 @@
         <v>25.76000022888184</v>
       </c>
       <c r="F232">
-        <v>19.38299179077148</v>
+        <v>19.38298988342285</v>
       </c>
       <c r="G232">
         <v>365600</v>
@@ -7750,13 +8440,16 @@
         <v>-0.05847954480177797</v>
       </c>
       <c r="I232">
-        <v>-0.07070703943085599</v>
+        <v>0.06914421606145767</v>
       </c>
       <c r="J232">
         <v>-0.07070703943085599</v>
       </c>
-    </row>
-    <row r="233" spans="1:10">
+      <c r="K232">
+        <v>-0.07070703943085599</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11">
       <c r="A233" s="2">
         <v>42156</v>
       </c>
@@ -7773,7 +8466,7 @@
         <v>25.13999938964844</v>
       </c>
       <c r="F233">
-        <v>19.18353080749512</v>
+        <v>19.18352890014648</v>
       </c>
       <c r="G233">
         <v>449400</v>
@@ -7782,13 +8475,16 @@
         <v>-0.02406835534645146</v>
       </c>
       <c r="I233">
-        <v>-0.07026632624068652</v>
+        <v>0.06917380073672345</v>
       </c>
       <c r="J233">
         <v>-0.07026632624068652</v>
       </c>
-    </row>
-    <row r="234" spans="1:10">
+      <c r="K233">
+        <v>-0.07026632624068652</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11">
       <c r="A234" s="2">
         <v>42186</v>
       </c>
@@ -7805,7 +8501,7 @@
         <v>24.07999992370605</v>
       </c>
       <c r="F234">
-        <v>18.37468338012695</v>
+        <v>18.37467765808105</v>
       </c>
       <c r="G234">
         <v>1736950</v>
@@ -7814,13 +8510,16 @@
         <v>-0.04216386203966438</v>
       </c>
       <c r="I234">
-        <v>-0.1436700140453296</v>
+        <v>0.06905765990747952</v>
       </c>
       <c r="J234">
         <v>-0.1436700140453296</v>
       </c>
-    </row>
-    <row r="235" spans="1:10">
+      <c r="K234">
+        <v>-0.1436700140453296</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11">
       <c r="A235" s="2">
         <v>42217</v>
       </c>
@@ -7837,7 +8536,7 @@
         <v>21.15999984741211</v>
       </c>
       <c r="F235">
-        <v>16.14651870727539</v>
+        <v>16.14652061462402</v>
       </c>
       <c r="G235">
         <v>714450</v>
@@ -7846,13 +8545,16 @@
         <v>-0.1212624620243163</v>
       </c>
       <c r="I235">
-        <v>-0.2421203513756991</v>
+        <v>0.06993059494983166</v>
       </c>
       <c r="J235">
         <v>-0.2421203513756991</v>
       </c>
-    </row>
-    <row r="236" spans="1:10">
+      <c r="K235">
+        <v>-0.2421203513756991</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11">
       <c r="A236" s="2">
         <v>42248</v>
       </c>
@@ -7869,7 +8571,7 @@
         <v>20.34000015258789</v>
       </c>
       <c r="F236">
-        <v>15.52080535888672</v>
+        <v>15.52080345153809</v>
       </c>
       <c r="G236">
         <v>640750</v>
@@ -7878,13 +8580,16 @@
         <v>-0.03875234880611333</v>
       </c>
       <c r="I236">
-        <v>-0.2376311874088683</v>
+        <v>0.07003162984821075</v>
       </c>
       <c r="J236">
         <v>-0.2376311874088683</v>
       </c>
-    </row>
-    <row r="237" spans="1:10">
+      <c r="K236">
+        <v>-0.2376311874088683</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11">
       <c r="A237" s="2">
         <v>42278</v>
       </c>
@@ -7901,7 +8606,7 @@
         <v>22.23999977111816</v>
       </c>
       <c r="F237">
-        <v>16.97063064575195</v>
+        <v>16.97063255310059</v>
       </c>
       <c r="G237">
         <v>706250</v>
@@ -7910,13 +8615,16 @@
         <v>0.09341197661144229</v>
       </c>
       <c r="I237">
-        <v>-0.162019630598183</v>
+        <v>0.07037696835179627</v>
       </c>
       <c r="J237">
         <v>-0.162019630598183</v>
       </c>
-    </row>
-    <row r="238" spans="1:10">
+      <c r="K237">
+        <v>-0.162019630598183</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11">
       <c r="A238" s="2">
         <v>42309</v>
       </c>
@@ -7942,13 +8650,16 @@
         <v>-0.05485608479811388</v>
       </c>
       <c r="I238">
-        <v>-0.2162564989954061</v>
+        <v>0.07056976776836009</v>
       </c>
       <c r="J238">
         <v>-0.2162564989954061</v>
       </c>
-    </row>
-    <row r="239" spans="1:10">
+      <c r="K238">
+        <v>-0.2162564989954061</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11">
       <c r="A239" s="2">
         <v>42339</v>
       </c>
@@ -7965,7 +8676,7 @@
         <v>20.55999946594238</v>
       </c>
       <c r="F239">
-        <v>16.07865524291992</v>
+        <v>16.07865142822266</v>
       </c>
       <c r="G239">
         <v>553850</v>
@@ -7974,13 +8685,16 @@
         <v>-0.02188396678418669</v>
       </c>
       <c r="I239">
-        <v>-0.2140672941182646</v>
+        <v>0.07061207517530316</v>
       </c>
       <c r="J239">
         <v>-0.2140672941182646</v>
       </c>
-    </row>
-    <row r="240" spans="1:10">
+      <c r="K239">
+        <v>-0.2140672941182646</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11">
       <c r="A240" s="2">
         <v>42370</v>
       </c>
@@ -7997,7 +8711,7 @@
         <v>18.78000068664551</v>
       </c>
       <c r="F240">
-        <v>14.68662929534912</v>
+        <v>14.68663024902344</v>
       </c>
       <c r="G240">
         <v>625700</v>
@@ -8006,13 +8720,16 @@
         <v>-0.08657581836251704</v>
       </c>
       <c r="I240">
-        <v>-0.2646828499043637</v>
+        <v>0.07087358092131422</v>
       </c>
       <c r="J240">
         <v>-0.2646828499043637</v>
       </c>
-    </row>
-    <row r="241" spans="1:10">
+      <c r="K240">
+        <v>-0.2646828499043637</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11">
       <c r="A241" s="2">
         <v>42401</v>
       </c>
@@ -8029,7 +8746,7 @@
         <v>19.39999961853027</v>
       </c>
       <c r="F241">
-        <v>15.17149066925049</v>
+        <v>15.17149257659912</v>
       </c>
       <c r="G241">
         <v>845200</v>
@@ -8038,13 +8755,16 @@
         <v>0.03301378643322672</v>
       </c>
       <c r="I241">
-        <v>-0.2433697316559774</v>
+        <v>0.07091674224828541</v>
       </c>
       <c r="J241">
         <v>-0.2433697316559774</v>
       </c>
-    </row>
-    <row r="242" spans="1:10">
+      <c r="K241">
+        <v>-0.2433697316559774</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11">
       <c r="A242" s="2">
         <v>42430</v>
       </c>
@@ -8061,7 +8781,7 @@
         <v>21.71999931335449</v>
       </c>
       <c r="F242">
-        <v>16.98581504821777</v>
+        <v>16.98581123352051</v>
       </c>
       <c r="G242">
         <v>487950</v>
@@ -8070,13 +8790,16 @@
         <v>0.1195876154867668</v>
       </c>
       <c r="I242">
-        <v>-0.1515625394647935</v>
+        <v>0.07167358319410484</v>
       </c>
       <c r="J242">
         <v>-0.1515625394647935</v>
       </c>
-    </row>
-    <row r="243" spans="1:10">
+      <c r="K242">
+        <v>-0.1515625394647935</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11">
       <c r="A243" s="2">
         <v>42461</v>
       </c>
@@ -8102,13 +8825,16 @@
         <v>0.0009208314178617005</v>
       </c>
       <c r="I243">
-        <v>-0.2054093828165738</v>
+        <v>0.07146499920579802</v>
       </c>
       <c r="J243">
         <v>-0.2054093828165738</v>
       </c>
-    </row>
-    <row r="244" spans="1:10">
+      <c r="K243">
+        <v>-0.2054093828165738</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11">
       <c r="A244" s="2">
         <v>42491</v>
       </c>
@@ -8125,7 +8851,7 @@
         <v>20.84000015258789</v>
       </c>
       <c r="F244">
-        <v>16.29762649536133</v>
+        <v>16.2976245880127</v>
       </c>
       <c r="G244">
         <v>538100</v>
@@ -8134,13 +8860,16 @@
         <v>-0.04139832695517931</v>
       </c>
       <c r="I244">
-        <v>-0.1909937900845861</v>
+        <v>0.07118885955291998</v>
       </c>
       <c r="J244">
         <v>-0.1909937900845861</v>
       </c>
-    </row>
-    <row r="245" spans="1:10">
+      <c r="K244">
+        <v>-0.1909937900845861</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11">
       <c r="A245" s="2">
         <v>42522</v>
       </c>
@@ -8157,7 +8886,7 @@
         <v>21.73999977111816</v>
       </c>
       <c r="F245">
-        <v>17.10404777526855</v>
+        <v>17.10404586791992</v>
       </c>
       <c r="G245">
         <v>708250</v>
@@ -8166,13 +8895,16 @@
         <v>0.0431861618013718</v>
       </c>
       <c r="I245">
-        <v>-0.1352426293188475</v>
+        <v>0.07125963228771766</v>
       </c>
       <c r="J245">
         <v>-0.1352426293188475</v>
       </c>
-    </row>
-    <row r="246" spans="1:10">
+      <c r="K245">
+        <v>-0.1352426293188475</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11">
       <c r="A246" s="2">
         <v>42552</v>
       </c>
@@ -8189,7 +8921,7 @@
         <v>21.84000015258789</v>
       </c>
       <c r="F246">
-        <v>17.18272399902344</v>
+        <v>17.18272018432617</v>
       </c>
       <c r="G246">
         <v>1371000</v>
@@ -8198,13 +8930,16 @@
         <v>0.004599833602692893</v>
       </c>
       <c r="I246">
-        <v>-0.09302324660362438</v>
+        <v>0.07125903698186842</v>
       </c>
       <c r="J246">
         <v>-0.09302324660362438</v>
       </c>
-    </row>
-    <row r="247" spans="1:10">
+      <c r="K246">
+        <v>-0.09302324660362438</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11">
       <c r="A247" s="2">
         <v>42583</v>
       </c>
@@ -8221,7 +8956,7 @@
         <v>21.18000030517578</v>
       </c>
       <c r="F247">
-        <v>16.66346740722656</v>
+        <v>16.66346549987793</v>
       </c>
       <c r="G247">
         <v>692150</v>
@@ -8230,13 +8965,16 @@
         <v>-0.03021977302202095</v>
       </c>
       <c r="I247">
-        <v>0.0009452012243809094</v>
+        <v>0.07129034174131907</v>
       </c>
       <c r="J247">
         <v>0.0009452012243809094</v>
       </c>
-    </row>
-    <row r="248" spans="1:10">
+      <c r="K247">
+        <v>0.0009452012243809094</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11">
       <c r="A248" s="2">
         <v>42614</v>
       </c>
@@ -8253,7 +8991,7 @@
         <v>21.71999931335449</v>
       </c>
       <c r="F248">
-        <v>17.08831214904785</v>
+        <v>17.08831405639648</v>
       </c>
       <c r="G248">
         <v>616050</v>
@@ -8262,13 +9000,16 @@
         <v>0.02549570351265529</v>
       </c>
       <c r="I248">
-        <v>0.06784656590039506</v>
+        <v>0.0712816521770169</v>
       </c>
       <c r="J248">
         <v>0.06784656590039506</v>
       </c>
-    </row>
-    <row r="249" spans="1:10">
+      <c r="K248">
+        <v>0.06784656590039506</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11">
       <c r="A249" s="2">
         <v>42644</v>
       </c>
@@ -8285,7 +9026,7 @@
         <v>20.70000076293945</v>
       </c>
       <c r="F249">
-        <v>16.28582572937012</v>
+        <v>16.28582382202148</v>
       </c>
       <c r="G249">
         <v>520850</v>
@@ -8294,13 +9035,16 @@
         <v>-0.04696126071182216</v>
       </c>
       <c r="I249">
-        <v>-0.06924456043289262</v>
+        <v>0.07102887299904466</v>
       </c>
       <c r="J249">
         <v>-0.06924456043289262</v>
       </c>
-    </row>
-    <row r="250" spans="1:10">
+      <c r="K249">
+        <v>-0.06924456043289262</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11">
       <c r="A250" s="2">
         <v>42675</v>
       </c>
@@ -8317,7 +9061,7 @@
         <v>21.04999923706055</v>
       </c>
       <c r="F250">
-        <v>16.56118583679199</v>
+        <v>16.56118774414062</v>
       </c>
       <c r="G250">
         <v>580100</v>
@@ -8326,13 +9070,16 @@
         <v>0.01690813822324677</v>
       </c>
       <c r="I250">
-        <v>0.001427154074385095</v>
+        <v>0.0706570781072845</v>
       </c>
       <c r="J250">
         <v>0.001427154074385095</v>
       </c>
-    </row>
-    <row r="251" spans="1:10">
+      <c r="K250">
+        <v>0.001427154074385095</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11">
       <c r="A251" s="2">
         <v>42705</v>
       </c>
@@ -8358,13 +9105,16 @@
         <v>-0.0532066020179659</v>
       </c>
       <c r="I251">
-        <v>-0.03064198332350132</v>
+        <v>0.07081543205085983</v>
       </c>
       <c r="J251">
         <v>-0.03064198332350132</v>
       </c>
-    </row>
-    <row r="252" spans="1:10">
+      <c r="K251">
+        <v>-0.03064198332350132</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11">
       <c r="A252" s="2">
         <v>42736</v>
       </c>
@@ -8390,13 +9140,16 @@
         <v>0.09232313720085816</v>
       </c>
       <c r="I252">
-        <v>0.1592119095738032</v>
+        <v>0.07118286887845457</v>
       </c>
       <c r="J252">
         <v>0.1592119095738032</v>
       </c>
-    </row>
-    <row r="253" spans="1:10">
+      <c r="K252">
+        <v>0.1592119095738032</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11">
       <c r="A253" s="2">
         <v>42767</v>
       </c>
@@ -8413,7 +9166,7 @@
         <v>22.31999969482422</v>
       </c>
       <c r="F253">
-        <v>18.13138961791992</v>
+        <v>18.13139343261719</v>
       </c>
       <c r="G253">
         <v>671700</v>
@@ -8422,13 +9175,16 @@
         <v>0.02526408936589641</v>
       </c>
       <c r="I253">
-        <v>0.1505154708098475</v>
+        <v>0.07121344930280009</v>
       </c>
       <c r="J253">
         <v>0.1505154708098475</v>
       </c>
-    </row>
-    <row r="254" spans="1:10">
+      <c r="K253">
+        <v>0.1505154708098475</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11">
       <c r="A254" s="2">
         <v>42795</v>
       </c>
@@ -8454,13 +9210,16 @@
         <v>0.02195339506352179</v>
       </c>
       <c r="I254">
-        <v>0.05018417067433822</v>
+        <v>0.07105062709841638</v>
       </c>
       <c r="J254">
         <v>0.05018417067433822</v>
       </c>
-    </row>
-    <row r="255" spans="1:10">
+      <c r="K254">
+        <v>0.05018417067433822</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11">
       <c r="A255" s="2">
         <v>42826</v>
       </c>
@@ -8486,13 +9245,16 @@
         <v>0.007452875066821907</v>
       </c>
       <c r="I255">
-        <v>0.05703770856361823</v>
+        <v>0.07100832998616226</v>
       </c>
       <c r="J255">
         <v>0.05703770856361823</v>
       </c>
-    </row>
-    <row r="256" spans="1:10">
+      <c r="K255">
+        <v>0.05703770856361823</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11">
       <c r="A256" s="2">
         <v>42856</v>
       </c>
@@ -8509,7 +9271,7 @@
         <v>23.69000053405762</v>
       </c>
       <c r="F256">
-        <v>19.24429321289062</v>
+        <v>19.24429512023926</v>
       </c>
       <c r="G256">
         <v>502100</v>
@@ -8518,13 +9280,16 @@
         <v>0.03089647545537733</v>
       </c>
       <c r="I256">
-        <v>0.1367562553072159</v>
+        <v>0.07073562117899762</v>
       </c>
       <c r="J256">
         <v>0.1367562553072159</v>
       </c>
-    </row>
-    <row r="257" spans="1:10">
+      <c r="K256">
+        <v>0.1367562553072159</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11">
       <c r="A257" s="2">
         <v>42887</v>
       </c>
@@ -8541,7 +9306,7 @@
         <v>23.6200008392334</v>
       </c>
       <c r="F257">
-        <v>19.39635276794434</v>
+        <v>19.3963508605957</v>
       </c>
       <c r="G257">
         <v>595100</v>
@@ -8550,13 +9315,16 @@
         <v>-0.002954820314317153</v>
       </c>
       <c r="I257">
-        <v>0.08647659098013594</v>
+        <v>0.07073523927406927</v>
       </c>
       <c r="J257">
         <v>0.08647659098013594</v>
       </c>
-    </row>
-    <row r="258" spans="1:10">
+      <c r="K257">
+        <v>0.08647659098013594</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11">
       <c r="A258" s="2">
         <v>42917</v>
       </c>
@@ -8582,13 +9350,16 @@
         <v>0.0520744918938898</v>
       </c>
       <c r="I258">
-        <v>0.1378205223375502</v>
+        <v>0.07088116330048588</v>
       </c>
       <c r="J258">
         <v>0.1378205223375502</v>
       </c>
-    </row>
-    <row r="259" spans="1:10">
+      <c r="K258">
+        <v>0.1378205223375502</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11">
       <c r="A259" s="2">
         <v>42948</v>
       </c>
@@ -8614,13 +9385,16 @@
         <v>-0.003621736467054659</v>
       </c>
       <c r="I259">
-        <v>0.1690273782872045</v>
+        <v>0.0708618496161567</v>
       </c>
       <c r="J259">
         <v>0.1690273782872045</v>
       </c>
-    </row>
-    <row r="260" spans="1:10">
+      <c r="K259">
+        <v>0.1690273782872045</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11">
       <c r="A260" s="2">
         <v>42979</v>
       </c>
@@ -8646,13 +9420,16 @@
         <v>-0.01332794509917323</v>
       </c>
       <c r="I260">
-        <v>0.124769847030108</v>
+        <v>0.07011502574180388</v>
       </c>
       <c r="J260">
         <v>0.124769847030108</v>
       </c>
-    </row>
-    <row r="261" spans="1:10">
+      <c r="K260">
+        <v>0.124769847030108</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11">
       <c r="A261" s="2">
         <v>43009</v>
       </c>
@@ -8669,7 +9446,7 @@
         <v>25.53000068664551</v>
       </c>
       <c r="F261">
-        <v>20.96481513977051</v>
+        <v>20.96481323242188</v>
       </c>
       <c r="G261">
         <v>374600</v>
@@ -8678,13 +9455,16 @@
         <v>0.04502662168353222</v>
       </c>
       <c r="I261">
-        <v>0.2333333210476742</v>
+        <v>0.07000710784587288</v>
       </c>
       <c r="J261">
         <v>0.2333333210476742</v>
       </c>
-    </row>
-    <row r="262" spans="1:10">
+      <c r="K261">
+        <v>0.2333333210476742</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11">
       <c r="A262" s="2">
         <v>43040</v>
       </c>
@@ -8701,7 +9481,7 @@
         <v>26.44000053405762</v>
       </c>
       <c r="F262">
-        <v>21.71209144592285</v>
+        <v>21.71208953857422</v>
       </c>
       <c r="G262">
         <v>765700</v>
@@ -8710,13 +9490,16 @@
         <v>0.0356443330566818</v>
       </c>
       <c r="I262">
-        <v>0.2560570780215257</v>
+        <v>0.06961626008818396</v>
       </c>
       <c r="J262">
         <v>0.2560570780215257</v>
       </c>
-    </row>
-    <row r="263" spans="1:10">
+      <c r="K262">
+        <v>0.2560570780215257</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11">
       <c r="A263" s="2">
         <v>43070</v>
       </c>
@@ -8733,7 +9516,7 @@
         <v>25.93000030517578</v>
       </c>
       <c r="F263">
-        <v>21.82131385803223</v>
+        <v>21.82131576538086</v>
       </c>
       <c r="G263">
         <v>534800</v>
@@ -8742,13 +9525,16 @@
         <v>-0.01928896439411565</v>
       </c>
       <c r="I263">
-        <v>0.3010536832978277</v>
+        <v>0.0695322788017023</v>
       </c>
       <c r="J263">
         <v>0.3010536832978277</v>
       </c>
-    </row>
-    <row r="264" spans="1:10">
+      <c r="K263">
+        <v>0.3010536832978277</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11">
       <c r="A264" s="2">
         <v>43101</v>
       </c>
@@ -8765,7 +9551,7 @@
         <v>27.52000045776367</v>
       </c>
       <c r="F264">
-        <v>23.15937423706055</v>
+        <v>23.15937805175781</v>
       </c>
       <c r="G264">
         <v>1120300</v>
@@ -8774,13 +9560,16 @@
         <v>0.06131894075876732</v>
       </c>
       <c r="I264">
-        <v>0.2641249370277079</v>
+        <v>0.06887554452406593</v>
       </c>
       <c r="J264">
         <v>0.2641249370277079</v>
       </c>
-    </row>
-    <row r="265" spans="1:10">
+      <c r="K264">
+        <v>0.2641249370277079</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11">
       <c r="A265" s="2">
         <v>43132</v>
       </c>
@@ -8797,7 +9586,7 @@
         <v>26.69000053405762</v>
       </c>
       <c r="F265">
-        <v>22.46088981628418</v>
+        <v>22.46089172363281</v>
       </c>
       <c r="G265">
         <v>1075300</v>
@@ -8806,13 +9595,16 @@
         <v>-0.03015988044694606</v>
       </c>
       <c r="I265">
-        <v>0.1957885707429807</v>
+        <v>0.06894172555941268</v>
       </c>
       <c r="J265">
         <v>0.1957885707429807</v>
       </c>
-    </row>
-    <row r="266" spans="1:10">
+      <c r="K265">
+        <v>0.1957885707429807</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11">
       <c r="A266" s="2">
         <v>43160</v>
       </c>
@@ -8829,7 +9621,7 @@
         <v>26.67000007629395</v>
       </c>
       <c r="F266">
-        <v>22.44405937194824</v>
+        <v>22.44406127929688</v>
       </c>
       <c r="G266">
         <v>1271900</v>
@@ -8838,13 +9630,16 @@
         <v>-0.0007493614598527154</v>
       </c>
       <c r="I266">
-        <v>0.1692240552708004</v>
+        <v>0.06880154616697373</v>
       </c>
       <c r="J266">
         <v>0.1692240552708004</v>
       </c>
-    </row>
-    <row r="267" spans="1:10">
+      <c r="K266">
+        <v>0.1692240552708004</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11">
       <c r="A267" s="2">
         <v>43191</v>
       </c>
@@ -8861,7 +9656,7 @@
         <v>27.86000061035156</v>
       </c>
       <c r="F267">
-        <v>23.44550132751465</v>
+        <v>23.44549942016602</v>
       </c>
       <c r="G267">
         <v>772300</v>
@@ -8870,13 +9665,16 @@
         <v>0.0446194424691948</v>
       </c>
       <c r="I267">
-        <v>0.2123586233823018</v>
+        <v>0.06868922106395317</v>
       </c>
       <c r="J267">
         <v>0.2123586233823018</v>
       </c>
-    </row>
-    <row r="268" spans="1:10">
+      <c r="K267">
+        <v>0.2123586233823018</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11">
       <c r="A268" s="2">
         <v>43221</v>
       </c>
@@ -8893,7 +9691,7 @@
         <v>26.43000030517578</v>
       </c>
       <c r="F268">
-        <v>22.24208831787109</v>
+        <v>22.24209022521973</v>
       </c>
       <c r="G268">
         <v>1745800</v>
@@ -8902,13 +9700,16 @@
         <v>-0.05132807874542744</v>
       </c>
       <c r="I268">
-        <v>0.1156606040248518</v>
+        <v>0.06885868654842403</v>
       </c>
       <c r="J268">
         <v>0.1156606040248518</v>
       </c>
-    </row>
-    <row r="269" spans="1:10">
+      <c r="K268">
+        <v>0.1156606040248518</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11">
       <c r="A269" s="2">
         <v>43252</v>
       </c>
@@ -8925,7 +9726,7 @@
         <v>23.98999977111816</v>
       </c>
       <c r="F269">
-        <v>20.58912658691406</v>
+        <v>20.58912467956543</v>
       </c>
       <c r="G269">
         <v>596600</v>
@@ -8934,13 +9735,16 @@
         <v>-0.09231935323057083</v>
       </c>
       <c r="I269">
-        <v>0.01566464516250932</v>
+        <v>0.06880585543542619</v>
       </c>
       <c r="J269">
         <v>0.01566464516250932</v>
       </c>
-    </row>
-    <row r="270" spans="1:10">
+      <c r="K269">
+        <v>0.01566464516250932</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11">
       <c r="A270" s="2">
         <v>43282</v>
       </c>
@@ -8966,13 +9770,16 @@
         <v>0.0179241479482406</v>
       </c>
       <c r="I270">
-        <v>-0.01730383495271193</v>
+        <v>0.0688164109535573</v>
       </c>
       <c r="J270">
         <v>-0.01730383495271193</v>
       </c>
-    </row>
-    <row r="271" spans="1:10">
+      <c r="K270">
+        <v>-0.01730383495271193</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11">
       <c r="A271" s="2">
         <v>43313</v>
       </c>
@@ -8989,7 +9796,7 @@
         <v>23.79999923706055</v>
       </c>
       <c r="F271">
-        <v>20.42606163024902</v>
+        <v>20.42605972290039</v>
       </c>
       <c r="G271">
         <v>445300</v>
@@ -8998,13 +9805,16 @@
         <v>-0.02538905967634586</v>
       </c>
       <c r="I271">
-        <v>-0.03877225294616415</v>
+        <v>0.06836646778131414</v>
       </c>
       <c r="J271">
         <v>-0.03877225294616415</v>
       </c>
-    </row>
-    <row r="272" spans="1:10">
+      <c r="K271">
+        <v>-0.03877225294616415</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11">
       <c r="A272" s="2">
         <v>43344</v>
       </c>
@@ -9021,7 +9831,7 @@
         <v>24.27000045776367</v>
       </c>
       <c r="F272">
-        <v>20.82943153381348</v>
+        <v>20.82943344116211</v>
       </c>
       <c r="G272">
         <v>332300</v>
@@ -9030,13 +9840,16 @@
         <v>0.01974795108275695</v>
       </c>
       <c r="I272">
-        <v>-0.00654931827316485</v>
+        <v>0.06720805212694772</v>
       </c>
       <c r="J272">
         <v>-0.00654931827316485</v>
       </c>
-    </row>
-    <row r="273" spans="1:10">
+      <c r="K272">
+        <v>-0.00654931827316485</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11">
       <c r="A273" s="2">
         <v>43374</v>
       </c>
@@ -9062,13 +9875,16 @@
         <v>-0.08364238353345954</v>
       </c>
       <c r="I273">
-        <v>-0.1288680308280724</v>
+        <v>0.06252302331286255</v>
       </c>
       <c r="J273">
         <v>-0.1288680308280724</v>
       </c>
-    </row>
-    <row r="274" spans="1:10">
+      <c r="K273">
+        <v>-0.1288680308280724</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11">
       <c r="A274" s="2">
         <v>43405</v>
       </c>
@@ -9085,7 +9901,7 @@
         <v>22.93000030517578</v>
       </c>
       <c r="F274">
-        <v>19.67939567565918</v>
+        <v>19.67939376831055</v>
       </c>
       <c r="G274">
         <v>481100</v>
@@ -9094,13 +9910,16 @@
         <v>0.03102520418879151</v>
       </c>
       <c r="I274">
-        <v>-0.1327534099086183</v>
+        <v>0.06246449691754521</v>
       </c>
       <c r="J274">
         <v>-0.1327534099086183</v>
       </c>
-    </row>
-    <row r="275" spans="1:10">
+      <c r="K274">
+        <v>-0.1327534099086183</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11">
       <c r="A275" s="2">
         <v>43435</v>
       </c>
@@ -9117,7 +9936,7 @@
         <v>22.10000038146973</v>
       </c>
       <c r="F275">
-        <v>19.3468074798584</v>
+        <v>19.34680938720703</v>
       </c>
       <c r="G275">
         <v>487600</v>
@@ -9126,13 +9945,16 @@
         <v>-0.03619711786565949</v>
       </c>
       <c r="I275">
-        <v>-0.1477053559055131</v>
+        <v>0.06252003000955131</v>
       </c>
       <c r="J275">
         <v>-0.1477053559055131</v>
       </c>
-    </row>
-    <row r="276" spans="1:10">
+      <c r="K275">
+        <v>-0.1477053559055131</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11">
       <c r="A276" s="2">
         <v>43466</v>
       </c>
@@ -9158,13 +9980,16 @@
         <v>0.06606330584938935</v>
       </c>
       <c r="I276">
-        <v>-0.1438953824836923</v>
+        <v>0.06219833973897126</v>
       </c>
       <c r="J276">
         <v>-0.1438953824836923</v>
       </c>
-    </row>
-    <row r="277" spans="1:10">
+      <c r="K276">
+        <v>-0.1438953824836923</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11">
       <c r="A277" s="2">
         <v>43497</v>
       </c>
@@ -9181,7 +10006,7 @@
         <v>23.46999931335449</v>
       </c>
       <c r="F277">
-        <v>20.5461311340332</v>
+        <v>20.54613304138184</v>
       </c>
       <c r="G277">
         <v>560000</v>
@@ -9190,13 +10015,16 @@
         <v>-0.003820040519015855</v>
       </c>
       <c r="I277">
-        <v>-0.1206444794406902</v>
+        <v>0.06126842264310637</v>
       </c>
       <c r="J277">
         <v>-0.1206444794406902</v>
       </c>
-    </row>
-    <row r="278" spans="1:10">
+      <c r="K277">
+        <v>-0.1206444794406902</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11">
       <c r="A278" s="2">
         <v>43525</v>
       </c>
@@ -9222,13 +10050,16 @@
         <v>0.01107798195519738</v>
       </c>
       <c r="I278">
-        <v>-0.1102362401817495</v>
+        <v>0.06070962308220567</v>
       </c>
       <c r="J278">
         <v>-0.1102362401817495</v>
       </c>
-    </row>
-    <row r="279" spans="1:10">
+      <c r="K278">
+        <v>-0.1102362401817495</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11">
       <c r="A279" s="2">
         <v>43556</v>
       </c>
@@ -9245,7 +10076,7 @@
         <v>25.13999938964844</v>
       </c>
       <c r="F279">
-        <v>22.00809097290039</v>
+        <v>22.00808715820312</v>
       </c>
       <c r="G279">
         <v>506900</v>
@@ -9254,13 +10085,16 @@
         <v>0.05941845236458998</v>
       </c>
       <c r="I279">
-        <v>-0.09763105388061233</v>
+        <v>0.05921554723492764</v>
       </c>
       <c r="J279">
         <v>-0.09763105388061233</v>
       </c>
-    </row>
-    <row r="280" spans="1:10">
+      <c r="K279">
+        <v>-0.09763105388061233</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11">
       <c r="A280" s="2">
         <v>43586</v>
       </c>
@@ -9277,7 +10111,7 @@
         <v>22.84000015258789</v>
       </c>
       <c r="F280">
-        <v>19.99462127685547</v>
+        <v>19.99461936950684</v>
       </c>
       <c r="G280">
         <v>650200</v>
@@ -9286,13 +10120,16 @@
         <v>-0.09148764092681672</v>
       </c>
       <c r="I280">
-        <v>-0.1358304998537916</v>
+        <v>0.05457332396091384</v>
       </c>
       <c r="J280">
         <v>-0.1358304998537916</v>
       </c>
-    </row>
-    <row r="281" spans="1:10">
+      <c r="K280">
+        <v>-0.1358304998537916</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11">
       <c r="A281" s="2">
         <v>43617</v>
       </c>
@@ -9318,13 +10155,16 @@
         <v>0.08143610323666373</v>
       </c>
       <c r="I281">
-        <v>0.02959570648583609</v>
+        <v>0.05493915356677791</v>
       </c>
       <c r="J281">
         <v>0.02959570648583609</v>
       </c>
-    </row>
-    <row r="282" spans="1:10">
+      <c r="K281">
+        <v>0.02959570648583609</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11">
       <c r="A282" s="2">
         <v>43647</v>
       </c>
@@ -9341,7 +10181,7 @@
         <v>24.17000007629395</v>
       </c>
       <c r="F282">
-        <v>21.56978416442871</v>
+        <v>21.56978225708008</v>
       </c>
       <c r="G282">
         <v>1200800</v>
@@ -9350,13 +10190,16 @@
         <v>-0.02145751701517096</v>
       </c>
       <c r="I282">
-        <v>-0.01023751020552577</v>
+        <v>0.05288905276334931</v>
       </c>
       <c r="J282">
         <v>-0.01023751020552577</v>
       </c>
-    </row>
-    <row r="283" spans="1:10">
+      <c r="K282">
+        <v>-0.01023751020552577</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11">
       <c r="A283" s="2">
         <v>43678</v>
       </c>
@@ -9382,13 +10225,16 @@
         <v>-0.05502688951211565</v>
       </c>
       <c r="I283">
-        <v>-0.04033609727927123</v>
+        <v>0.05307505492440737</v>
       </c>
       <c r="J283">
         <v>-0.04033609727927123</v>
       </c>
-    </row>
-    <row r="284" spans="1:10">
+      <c r="K283">
+        <v>-0.04033609727927123</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11">
       <c r="A284" s="2">
         <v>43709</v>
       </c>
@@ -9405,7 +10251,7 @@
         <v>23.20000076293945</v>
       </c>
       <c r="F284">
-        <v>20.70413589477539</v>
+        <v>20.70413970947266</v>
       </c>
       <c r="G284">
         <v>554900</v>
@@ -9414,13 +10260,16 @@
         <v>0.01576184798364699</v>
       </c>
       <c r="I284">
-        <v>-0.04408733723290637</v>
+        <v>0.05290198249920501</v>
       </c>
       <c r="J284">
         <v>-0.04408733723290637</v>
       </c>
-    </row>
-    <row r="285" spans="1:10">
+      <c r="K284">
+        <v>-0.04408733723290637</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11">
       <c r="A285" s="2">
         <v>43739</v>
       </c>
@@ -9446,13 +10295,16 @@
         <v>0.04784477010777022</v>
       </c>
       <c r="I285">
-        <v>0.09307552680429487</v>
+        <v>0.0530065274618428</v>
       </c>
       <c r="J285">
         <v>0.09307552680429487</v>
       </c>
-    </row>
-    <row r="286" spans="1:10">
+      <c r="K285">
+        <v>0.09307552680429487</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11">
       <c r="A286" s="2">
         <v>43770</v>
       </c>
@@ -9469,7 +10321,7 @@
         <v>24.07999992370605</v>
       </c>
       <c r="F286">
-        <v>21.48946762084961</v>
+        <v>21.48946571350098</v>
       </c>
       <c r="G286">
         <v>512800</v>
@@ -9478,13 +10330,16 @@
         <v>-0.00946110848577153</v>
       </c>
       <c r="I286">
-        <v>0.0501526211611385</v>
+        <v>0.0524854785309807</v>
       </c>
       <c r="J286">
         <v>0.0501526211611385</v>
       </c>
-    </row>
-    <row r="287" spans="1:10">
+      <c r="K286">
+        <v>0.0501526211611385</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11">
       <c r="A287" s="2">
         <v>43800</v>
       </c>
@@ -9510,13 +10365,16 @@
         <v>0.002491672181581528</v>
       </c>
       <c r="I287">
-        <v>0.09230764583557183</v>
+        <v>0.05247810410078207</v>
       </c>
       <c r="J287">
         <v>0.09230764583557183</v>
       </c>
-    </row>
-    <row r="288" spans="1:10">
+      <c r="K287">
+        <v>0.09230764583557183</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11">
       <c r="A288" s="2">
         <v>43831</v>
       </c>
@@ -9533,7 +10391,7 @@
         <v>22.88999938964844</v>
       </c>
       <c r="F288">
-        <v>21.01142120361328</v>
+        <v>21.01142501831055</v>
       </c>
       <c r="G288">
         <v>874500</v>
@@ -9542,13 +10400,16 @@
         <v>-0.0517812771998668</v>
       </c>
       <c r="I288">
-        <v>-0.02843803444318738</v>
+        <v>0.05238405129378031</v>
       </c>
       <c r="J288">
         <v>-0.02843803444318738</v>
       </c>
-    </row>
-    <row r="289" spans="1:10">
+      <c r="K288">
+        <v>-0.02843803444318738</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11">
       <c r="A289" s="2">
         <v>43862</v>
       </c>
@@ -9565,7 +10426,7 @@
         <v>21.82999992370605</v>
       </c>
       <c r="F289">
-        <v>20.03841972351074</v>
+        <v>20.03841781616211</v>
       </c>
       <c r="G289">
         <v>3594200</v>
@@ -9574,13 +10435,16 @@
         <v>-0.04630840953284376</v>
       </c>
       <c r="I289">
-        <v>-0.06987641404468525</v>
+        <v>0.05253654601983818</v>
       </c>
       <c r="J289">
         <v>-0.06987641404468525</v>
       </c>
-    </row>
-    <row r="290" spans="1:10">
+      <c r="K289">
+        <v>-0.06987641404468525</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11">
       <c r="A290" s="2">
         <v>43891</v>
       </c>
@@ -9606,13 +10470,16 @@
         <v>-0.2052221510716232</v>
       </c>
       <c r="I290">
-        <v>-0.2688579554926256</v>
+        <v>0.05566392683610058</v>
       </c>
       <c r="J290">
         <v>-0.2688579554926256</v>
       </c>
-    </row>
-    <row r="291" spans="1:10">
+      <c r="K290">
+        <v>-0.2688579554926256</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11">
       <c r="A291" s="2">
         <v>43922</v>
       </c>
@@ -9629,7 +10496,7 @@
         <v>18.52000045776367</v>
       </c>
       <c r="F291">
-        <v>17.00006866455078</v>
+        <v>17.00006675720215</v>
       </c>
       <c r="G291">
         <v>1359200</v>
@@ -9638,13 +10505,16 @@
         <v>0.06743516141610795</v>
       </c>
       <c r="I291">
-        <v>-0.2633253417902068</v>
+        <v>0.05586075146629699</v>
       </c>
       <c r="J291">
         <v>-0.2633253417902068</v>
       </c>
-    </row>
-    <row r="292" spans="1:10">
+      <c r="K291">
+        <v>-0.2633253417902068</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11">
       <c r="A292" s="2">
         <v>43952</v>
       </c>
@@ -9670,13 +10540,16 @@
         <v>-0.01511882719895563</v>
       </c>
       <c r="I292">
-        <v>-0.2014010661444117</v>
+        <v>0.0553572734451693</v>
       </c>
       <c r="J292">
         <v>-0.2014010661444117</v>
       </c>
-    </row>
-    <row r="293" spans="1:10">
+      <c r="K292">
+        <v>-0.2014010661444117</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11">
       <c r="A293" s="2">
         <v>43983</v>
       </c>
@@ -9702,13 +10575,16 @@
         <v>0.02905705555351634</v>
       </c>
       <c r="I293">
-        <v>-0.2400809765995358</v>
+        <v>0.05538820319482333</v>
       </c>
       <c r="J293">
         <v>-0.2400809765995358</v>
       </c>
-    </row>
-    <row r="294" spans="1:10">
+      <c r="K293">
+        <v>-0.2400809765995358</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11">
       <c r="A294" s="2">
         <v>44013</v>
       </c>
@@ -9734,13 +10610,16 @@
         <v>-0.007458779626143386</v>
       </c>
       <c r="I294">
-        <v>-0.2292098013256112</v>
+        <v>0.05469479074276074</v>
       </c>
       <c r="J294">
         <v>-0.2292098013256112</v>
       </c>
-    </row>
-    <row r="295" spans="1:10">
+      <c r="K294">
+        <v>-0.2292098013256112</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11">
       <c r="A295" s="2">
         <v>44044</v>
       </c>
@@ -9766,13 +10645,16 @@
         <v>0.02308106948718125</v>
       </c>
       <c r="I295">
-        <v>-0.1654991533008906</v>
+        <v>0.05472785326033421</v>
       </c>
       <c r="J295">
         <v>-0.1654991533008906</v>
       </c>
-    </row>
-    <row r="296" spans="1:10">
+      <c r="K295">
+        <v>-0.1654991533008906</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11">
       <c r="A296" s="2">
         <v>44075</v>
       </c>
@@ -9798,13 +10680,16 @@
         <v>-0.01783841354221571</v>
       </c>
       <c r="I296">
-        <v>-0.1931035044077016</v>
+        <v>0.05415058704225356</v>
       </c>
       <c r="J296">
         <v>-0.1931035044077016</v>
       </c>
-    </row>
-    <row r="297" spans="1:10">
+      <c r="K296">
+        <v>-0.1931035044077016</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11">
       <c r="A297" s="2">
         <v>44105</v>
       </c>
@@ -9821,7 +10706,7 @@
         <v>18.03000068664551</v>
       </c>
       <c r="F297">
-        <v>16.73904800415039</v>
+        <v>16.73904991149902</v>
       </c>
       <c r="G297">
         <v>1682400</v>
@@ -9830,13 +10715,16 @@
         <v>-0.036858902351388</v>
       </c>
       <c r="I297">
-        <v>-0.2583298608498521</v>
+        <v>0.05415989926212499</v>
       </c>
       <c r="J297">
         <v>-0.2583298608498521</v>
       </c>
-    </row>
-    <row r="298" spans="1:10">
+      <c r="K297">
+        <v>-0.2583298608498521</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11">
       <c r="A298" s="2">
         <v>44136</v>
       </c>
@@ -9853,7 +10741,7 @@
         <v>21.14999961853027</v>
       </c>
       <c r="F298">
-        <v>19.63565826416016</v>
+        <v>19.63565635681152</v>
       </c>
       <c r="G298">
         <v>1648500</v>
@@ -9862,13 +10750,16 @@
         <v>0.1730448592936378</v>
       </c>
       <c r="I298">
-        <v>-0.1216777539227183</v>
+        <v>0.05643693390394949</v>
       </c>
       <c r="J298">
         <v>-0.1216777539227183</v>
       </c>
-    </row>
-    <row r="299" spans="1:10">
+      <c r="K298">
+        <v>-0.1216777539227183</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11">
       <c r="A299" s="2">
         <v>44166</v>
       </c>
@@ -9894,13 +10785,16 @@
         <v>0.01560283355357273</v>
       </c>
       <c r="I299">
-        <v>-0.1101905515603597</v>
+        <v>0.05635349796299868</v>
       </c>
       <c r="J299">
         <v>-0.1101905515603597</v>
       </c>
-    </row>
-    <row r="300" spans="1:10">
+      <c r="K299">
+        <v>-0.1101905515603597</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11">
       <c r="A300" s="2">
         <v>44197</v>
       </c>
@@ -9926,13 +10820,16 @@
         <v>0.00279336008238884</v>
       </c>
       <c r="I300">
-        <v>-0.0589776544394145</v>
+        <v>0.05635013480233013</v>
       </c>
       <c r="J300">
         <v>-0.0589776544394145</v>
       </c>
-    </row>
-    <row r="301" spans="1:10">
+      <c r="K300">
+        <v>-0.0589776544394145</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11">
       <c r="A301" s="2">
         <v>44228</v>
       </c>
@@ -9958,13 +10855,16 @@
         <v>0.02460532761235035</v>
       </c>
       <c r="I301">
-        <v>0.01099403444603486</v>
+        <v>0.05620836606458746</v>
       </c>
       <c r="J301">
         <v>0.01099403444603486</v>
       </c>
-    </row>
-    <row r="302" spans="1:10">
+      <c r="K301">
+        <v>0.01099403444603486</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11">
       <c r="A302" s="2">
         <v>44256</v>
       </c>
@@ -9990,13 +10890,16 @@
         <v>0.06116902583312323</v>
       </c>
       <c r="I302">
-        <v>0.3498558824994116</v>
+        <v>0.05631871267235405</v>
       </c>
       <c r="J302">
         <v>0.3498558824994116</v>
       </c>
-    </row>
-    <row r="303" spans="1:10">
+      <c r="K302">
+        <v>0.3498558824994116</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11">
       <c r="A303" s="2">
         <v>44287</v>
       </c>
@@ -10022,13 +10925,16 @@
         <v>0.0217762693091561</v>
       </c>
       <c r="I303">
-        <v>0.2921166152101369</v>
+        <v>0.05611166291237391</v>
       </c>
       <c r="J303">
         <v>0.2921166152101369</v>
       </c>
-    </row>
-    <row r="304" spans="1:10">
+      <c r="K303">
+        <v>0.2921166152101369</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11">
       <c r="A304" s="2">
         <v>44317</v>
       </c>
@@ -10054,13 +10960,16 @@
         <v>0.006268266469592554</v>
       </c>
       <c r="I304">
-        <v>0.3201754509797279</v>
+        <v>0.05609179049288904</v>
       </c>
       <c r="J304">
         <v>0.3201754509797279</v>
       </c>
-    </row>
-    <row r="305" spans="1:10">
+      <c r="K304">
+        <v>0.3201754509797279</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11">
       <c r="A305" s="2">
         <v>44348</v>
       </c>
@@ -10086,13 +10995,16 @@
         <v>-0.03488372737746293</v>
       </c>
       <c r="I305">
-        <v>0.2381459352338804</v>
+        <v>0.05610093459672581</v>
       </c>
       <c r="J305">
         <v>0.2381459352338804</v>
       </c>
-    </row>
-    <row r="306" spans="1:10">
+      <c r="K305">
+        <v>0.2381459352338804</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11">
       <c r="A306" s="2">
         <v>44378</v>
       </c>
@@ -10118,13 +11030,16 @@
         <v>0.01075731508012701</v>
       </c>
       <c r="I306">
-        <v>0.2608696097306522</v>
+        <v>0.05594175678161527</v>
       </c>
       <c r="J306">
         <v>0.2608696097306522</v>
       </c>
-    </row>
-    <row r="307" spans="1:10">
+      <c r="K306">
+        <v>0.2608696097306522</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11">
       <c r="A307" s="2">
         <v>44409</v>
       </c>
@@ -10150,13 +11065,16 @@
         <v>-0.01660278388456848</v>
       </c>
       <c r="I307">
-        <v>0.2119622785271464</v>
+        <v>0.05528425727249168</v>
       </c>
       <c r="J307">
         <v>0.2119622785271464</v>
       </c>
-    </row>
-    <row r="308" spans="1:10">
+      <c r="K307">
+        <v>0.2119622785271464</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11">
       <c r="A308" s="2">
         <v>44440</v>
       </c>
@@ -10182,13 +11100,16 @@
         <v>-0.01428571074703411</v>
       </c>
       <c r="I308">
-        <v>0.2163462229146551</v>
+        <v>0.05341463431741571</v>
       </c>
       <c r="J308">
         <v>0.2163462229146551</v>
       </c>
-    </row>
-    <row r="309" spans="1:10">
+      <c r="K308">
+        <v>0.2163462229146551</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11">
       <c r="A309" s="2">
         <v>44470</v>
       </c>
@@ -10214,13 +11135,16 @@
         <v>0.05621426234361127</v>
       </c>
       <c r="I309">
-        <v>0.3338878713894859</v>
+        <v>0.05265536547830576</v>
       </c>
       <c r="J309">
         <v>0.3338878713894859</v>
       </c>
-    </row>
-    <row r="310" spans="1:10">
+      <c r="K309">
+        <v>0.3338878713894859</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11">
       <c r="A310" s="2">
         <v>44501</v>
       </c>
@@ -10246,42 +11170,83 @@
         <v>-0.06528065466234534</v>
       </c>
       <c r="I310">
-        <v>0.06288415828342586</v>
+        <v>0.05287713386387666</v>
       </c>
       <c r="J310">
         <v>0.06288415828342586</v>
       </c>
-    </row>
-    <row r="311" spans="1:10">
+      <c r="K310">
+        <v>0.06288415828342586</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11">
       <c r="A311" s="2">
         <v>44531</v>
       </c>
       <c r="B311">
-        <v>21.22999954223633</v>
+        <v>21.39999961853027</v>
       </c>
       <c r="C311">
-        <v>21.29000091552734</v>
+        <v>21.48999977111816</v>
       </c>
       <c r="D311">
-        <v>21.21170043945312</v>
+        <v>21.36000061035156</v>
       </c>
       <c r="E311">
-        <v>21.28000068664551</v>
+        <v>21.38999938964844</v>
       </c>
       <c r="F311">
-        <v>21.28000068664551</v>
+        <v>21.38999938964844</v>
       </c>
       <c r="G311">
-        <v>401168</v>
+        <v>730000</v>
       </c>
       <c r="H311">
-        <v>-0.05338073309726787</v>
+        <v>-0.04848755225906276</v>
       </c>
       <c r="I311">
-        <v>-0.009310933885150252</v>
+        <v>0.05255038429661912</v>
       </c>
       <c r="J311">
-        <v>-0.009310933885150252</v>
+        <v>-0.004189951327090213</v>
+      </c>
+      <c r="K311">
+        <v>-0.004189951327090213</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11">
+      <c r="A312" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B312">
+        <v>21.43000030517578</v>
+      </c>
+      <c r="C312">
+        <v>21.43000030517578</v>
+      </c>
+      <c r="D312">
+        <v>21.26000022888184</v>
+      </c>
+      <c r="E312">
+        <v>21.42000007629395</v>
+      </c>
+      <c r="F312">
+        <v>21.42000007629395</v>
+      </c>
+      <c r="G312">
+        <v>599634</v>
+      </c>
+      <c r="H312">
+        <v>0.001402556685439871</v>
+      </c>
+      <c r="I312">
+        <v>0.05090256133026993</v>
+      </c>
+      <c r="J312">
+        <v>-0.00557106936550289</v>
+      </c>
+      <c r="K312">
+        <v>-0.00557106936550289</v>
       </c>
     </row>
   </sheetData>

--- a/etf_dfs/EWS.xlsx
+++ b/etf_dfs/EWS.xlsx
@@ -508,7 +508,7 @@
         <v>25.625</v>
       </c>
       <c r="F2" t="n">
-        <v>10.93748378753662</v>
+        <v>10.93748474121094</v>
       </c>
       <c r="G2" t="n">
         <v>3100</v>
@@ -535,7 +535,7 @@
         <v>25.375</v>
       </c>
       <c r="F3" t="n">
-        <v>10.83078002929688</v>
+        <v>10.83077621459961</v>
       </c>
       <c r="G3" t="n">
         <v>16850</v>
@@ -564,7 +564,7 @@
         <v>24.125</v>
       </c>
       <c r="F4" t="n">
-        <v>10.29723739624023</v>
+        <v>10.29724025726318</v>
       </c>
       <c r="G4" t="n">
         <v>5900</v>
@@ -595,7 +595,7 @@
         <v>24.25</v>
       </c>
       <c r="F5" t="n">
-        <v>10.35059356689453</v>
+        <v>10.35059547424316</v>
       </c>
       <c r="G5" t="n">
         <v>3400</v>
@@ -626,7 +626,7 @@
         <v>22.375</v>
       </c>
       <c r="F6" t="n">
-        <v>9.550291061401367</v>
+        <v>9.550293922424316</v>
       </c>
       <c r="G6" t="n">
         <v>1900</v>
@@ -657,7 +657,7 @@
         <v>23</v>
       </c>
       <c r="F7" t="n">
-        <v>9.84788990020752</v>
+        <v>9.847886085510254</v>
       </c>
       <c r="G7" t="n">
         <v>2550</v>
@@ -688,7 +688,7 @@
         <v>22.75</v>
       </c>
       <c r="F8" t="n">
-        <v>9.740842819213867</v>
+        <v>9.740845680236816</v>
       </c>
       <c r="G8" t="n">
         <v>7450</v>
@@ -719,7 +719,7 @@
         <v>21.875</v>
       </c>
       <c r="F9" t="n">
-        <v>9.366199493408203</v>
+        <v>9.366195678710938</v>
       </c>
       <c r="G9" t="n">
         <v>6850</v>
@@ -750,7 +750,7 @@
         <v>23.5</v>
       </c>
       <c r="F10" t="n">
-        <v>10.06197071075439</v>
+        <v>10.06196880340576</v>
       </c>
       <c r="G10" t="n">
         <v>7850</v>
@@ -781,7 +781,7 @@
         <v>24</v>
       </c>
       <c r="F11" t="n">
-        <v>10.27605438232422</v>
+        <v>10.27605533599854</v>
       </c>
       <c r="G11" t="n">
         <v>2400</v>
@@ -812,7 +812,7 @@
         <v>24.875</v>
       </c>
       <c r="F12" t="n">
-        <v>10.65070152282715</v>
+        <v>10.65070056915283</v>
       </c>
       <c r="G12" t="n">
         <v>7550</v>
@@ -843,7 +843,7 @@
         <v>23.5</v>
       </c>
       <c r="F13" t="n">
-        <v>10.06197071075439</v>
+        <v>10.06196880340576</v>
       </c>
       <c r="G13" t="n">
         <v>6200</v>
@@ -944,7 +944,7 @@
         <v>22.25</v>
       </c>
       <c r="F16" t="n">
-        <v>9.526755332946777</v>
+        <v>9.526760101318359</v>
       </c>
       <c r="G16" t="n">
         <v>50</v>
@@ -979,7 +979,7 @@
         <v>22</v>
       </c>
       <c r="F17" t="n">
-        <v>9.419719696044922</v>
+        <v>9.419715881347656</v>
       </c>
       <c r="G17" t="n">
         <v>26000</v>
@@ -1014,7 +1014,7 @@
         <v>22.375</v>
       </c>
       <c r="F18" t="n">
-        <v>9.580281257629395</v>
+        <v>9.58028507232666</v>
       </c>
       <c r="G18" t="n">
         <v>1950</v>
@@ -1049,7 +1049,7 @@
         <v>17.5</v>
       </c>
       <c r="F19" t="n">
-        <v>7.533637046813965</v>
+        <v>7.533640384674072</v>
       </c>
       <c r="G19" t="n">
         <v>27600</v>
@@ -1084,7 +1084,7 @@
         <v>18.375</v>
       </c>
       <c r="F20" t="n">
-        <v>7.910320281982422</v>
+        <v>7.910322189331055</v>
       </c>
       <c r="G20" t="n">
         <v>14350</v>
@@ -1119,7 +1119,7 @@
         <v>14.875</v>
       </c>
       <c r="F21" t="n">
-        <v>6.40359354019165</v>
+        <v>6.403592586517334</v>
       </c>
       <c r="G21" t="n">
         <v>33700</v>
@@ -1154,7 +1154,7 @@
         <v>14.75</v>
       </c>
       <c r="F22" t="n">
-        <v>6.349780559539795</v>
+        <v>6.34978199005127</v>
       </c>
       <c r="G22" t="n">
         <v>20300</v>
@@ -1189,7 +1189,7 @@
         <v>13.25</v>
       </c>
       <c r="F23" t="n">
-        <v>5.712503910064697</v>
+        <v>5.712502956390381</v>
       </c>
       <c r="G23" t="n">
         <v>21350</v>
@@ -1224,7 +1224,7 @@
         <v>12</v>
       </c>
       <c r="F24" t="n">
-        <v>5.173587799072266</v>
+        <v>5.173588275909424</v>
       </c>
       <c r="G24" t="n">
         <v>399700</v>
@@ -1259,7 +1259,7 @@
         <v>13.75</v>
       </c>
       <c r="F25" t="n">
-        <v>5.92807149887085</v>
+        <v>5.9280686378479</v>
       </c>
       <c r="G25" t="n">
         <v>59750</v>
@@ -1294,7 +1294,7 @@
         <v>14</v>
       </c>
       <c r="F26" t="n">
-        <v>6.035854339599609</v>
+        <v>6.03585147857666</v>
       </c>
       <c r="G26" t="n">
         <v>83450</v>
@@ -1329,7 +1329,7 @@
         <v>12.625</v>
       </c>
       <c r="F27" t="n">
-        <v>5.443046092987061</v>
+        <v>5.443048000335693</v>
       </c>
       <c r="G27" t="n">
         <v>14050</v>
@@ -1399,7 +1399,7 @@
         <v>8.875</v>
       </c>
       <c r="F29" t="n">
-        <v>3.826300621032715</v>
+        <v>3.826299428939819</v>
       </c>
       <c r="G29" t="n">
         <v>55700</v>
@@ -1434,7 +1434,7 @@
         <v>8.875</v>
       </c>
       <c r="F30" t="n">
-        <v>3.826300621032715</v>
+        <v>3.826299428939819</v>
       </c>
       <c r="G30" t="n">
         <v>43450</v>
@@ -1469,7 +1469,7 @@
         <v>6.375</v>
       </c>
       <c r="F31" t="n">
-        <v>2.79315972328186</v>
+        <v>2.793159008026123</v>
       </c>
       <c r="G31" t="n">
         <v>171250</v>
@@ -1504,7 +1504,7 @@
         <v>7.5</v>
       </c>
       <c r="F32" t="n">
-        <v>3.286068677902222</v>
+        <v>3.286069631576538</v>
       </c>
       <c r="G32" t="n">
         <v>12450</v>
@@ -1574,7 +1574,7 @@
         <v>11.875</v>
       </c>
       <c r="F34" t="n">
-        <v>5.202942848205566</v>
+        <v>5.202943801879883</v>
       </c>
       <c r="G34" t="n">
         <v>36900</v>
@@ -1609,7 +1609,7 @@
         <v>12.25</v>
       </c>
       <c r="F35" t="n">
-        <v>5.421352386474609</v>
+        <v>5.421353340148926</v>
       </c>
       <c r="G35" t="n">
         <v>26650</v>
@@ -1644,7 +1644,7 @@
         <v>12</v>
       </c>
       <c r="F36" t="n">
-        <v>5.310712337493896</v>
+        <v>5.310714244842529</v>
       </c>
       <c r="G36" t="n">
         <v>13100</v>
@@ -1679,7 +1679,7 @@
         <v>11.625</v>
       </c>
       <c r="F37" t="n">
-        <v>5.144753456115723</v>
+        <v>5.144754886627197</v>
       </c>
       <c r="G37" t="n">
         <v>32850</v>
@@ -1714,7 +1714,7 @@
         <v>12</v>
       </c>
       <c r="F38" t="n">
-        <v>5.310712337493896</v>
+        <v>5.310714244842529</v>
       </c>
       <c r="G38" t="n">
         <v>46100</v>
@@ -1749,7 +1749,7 @@
         <v>15.25</v>
       </c>
       <c r="F39" t="n">
-        <v>6.749031066894531</v>
+        <v>6.749030590057373</v>
       </c>
       <c r="G39" t="n">
         <v>82300</v>
@@ -1784,7 +1784,7 @@
         <v>14.875</v>
       </c>
       <c r="F40" t="n">
-        <v>6.583069801330566</v>
+        <v>6.583072185516357</v>
       </c>
       <c r="G40" t="n">
         <v>14050</v>
@@ -1819,7 +1819,7 @@
         <v>17.25</v>
       </c>
       <c r="F41" t="n">
-        <v>7.63415002822876</v>
+        <v>7.634151458740234</v>
       </c>
       <c r="G41" t="n">
         <v>98150</v>
@@ -1854,7 +1854,7 @@
         <v>16.125</v>
       </c>
       <c r="F42" t="n">
-        <v>7.136271476745605</v>
+        <v>7.136270046234131</v>
       </c>
       <c r="G42" t="n">
         <v>40550</v>
@@ -1889,7 +1889,7 @@
         <v>16</v>
       </c>
       <c r="F43" t="n">
-        <v>7.132346153259277</v>
+        <v>7.132349967956543</v>
       </c>
       <c r="G43" t="n">
         <v>32100</v>
@@ -1924,7 +1924,7 @@
         <v>15.25</v>
       </c>
       <c r="F44" t="n">
-        <v>6.798017501831055</v>
+        <v>6.798019886016846</v>
       </c>
       <c r="G44" t="n">
         <v>52500</v>
@@ -1959,7 +1959,7 @@
         <v>16.25</v>
       </c>
       <c r="F45" t="n">
-        <v>7.243791103363037</v>
+        <v>7.243790149688721</v>
       </c>
       <c r="G45" t="n">
         <v>62150</v>
@@ -1994,7 +1994,7 @@
         <v>16.75</v>
       </c>
       <c r="F46" t="n">
-        <v>7.466678142547607</v>
+        <v>7.4666748046875</v>
       </c>
       <c r="G46" t="n">
         <v>23700</v>
@@ -2029,7 +2029,7 @@
         <v>18.375</v>
       </c>
       <c r="F47" t="n">
-        <v>8.276580810546875</v>
+        <v>8.276579856872559</v>
       </c>
       <c r="G47" t="n">
         <v>15500</v>
@@ -2064,7 +2064,7 @@
         <v>16.125</v>
       </c>
       <c r="F48" t="n">
-        <v>7.263123512268066</v>
+        <v>7.263123035430908</v>
       </c>
       <c r="G48" t="n">
         <v>99450</v>
@@ -2099,7 +2099,7 @@
         <v>14.375</v>
       </c>
       <c r="F49" t="n">
-        <v>6.474876403808594</v>
+        <v>6.474875450134277</v>
       </c>
       <c r="G49" t="n">
         <v>76100</v>
@@ -2134,7 +2134,7 @@
         <v>14.75</v>
       </c>
       <c r="F50" t="n">
-        <v>6.643784999847412</v>
+        <v>6.64378547668457</v>
       </c>
       <c r="G50" t="n">
         <v>74650</v>
@@ -2169,7 +2169,7 @@
         <v>15</v>
       </c>
       <c r="F51" t="n">
-        <v>6.756391048431396</v>
+        <v>6.756391525268555</v>
       </c>
       <c r="G51" t="n">
         <v>37250</v>
@@ -2204,7 +2204,7 @@
         <v>13.25</v>
       </c>
       <c r="F52" t="n">
-        <v>5.968146324157715</v>
+        <v>5.968145847320557</v>
       </c>
       <c r="G52" t="n">
         <v>34200</v>
@@ -2309,7 +2309,7 @@
         <v>15.375</v>
       </c>
       <c r="F55" t="n">
-        <v>7.075076580047607</v>
+        <v>7.075076103210449</v>
       </c>
       <c r="G55" t="n">
         <v>61450</v>
@@ -2344,7 +2344,7 @@
         <v>13.75</v>
       </c>
       <c r="F56" t="n">
-        <v>6.327303886413574</v>
+        <v>6.327303409576416</v>
       </c>
       <c r="G56" t="n">
         <v>38250</v>
@@ -2379,7 +2379,7 @@
         <v>13.75</v>
       </c>
       <c r="F57" t="n">
-        <v>6.327303886413574</v>
+        <v>6.327303409576416</v>
       </c>
       <c r="G57" t="n">
         <v>56700</v>
@@ -2414,7 +2414,7 @@
         <v>13.125</v>
       </c>
       <c r="F58" t="n">
-        <v>6.039699077606201</v>
+        <v>6.039698600769043</v>
       </c>
       <c r="G58" t="n">
         <v>29950</v>
@@ -2449,7 +2449,7 @@
         <v>13</v>
       </c>
       <c r="F59" t="n">
-        <v>6.087777137756348</v>
+        <v>6.087775230407715</v>
       </c>
       <c r="G59" t="n">
         <v>26250</v>
@@ -2484,7 +2484,7 @@
         <v>13.30000019073486</v>
       </c>
       <c r="F60" t="n">
-        <v>6.228261947631836</v>
+        <v>6.228262424468994</v>
       </c>
       <c r="G60" t="n">
         <v>15850</v>
@@ -2519,7 +2519,7 @@
         <v>12.9399995803833</v>
       </c>
       <c r="F61" t="n">
-        <v>6.059674739837646</v>
+        <v>6.059677600860596</v>
       </c>
       <c r="G61" t="n">
         <v>22950</v>
@@ -2554,7 +2554,7 @@
         <v>10.80000019073486</v>
       </c>
       <c r="F62" t="n">
-        <v>5.057537078857422</v>
+        <v>5.057536602020264</v>
       </c>
       <c r="G62" t="n">
         <v>16800</v>
@@ -2589,7 +2589,7 @@
         <v>11.02000045776367</v>
       </c>
       <c r="F63" t="n">
-        <v>5.160561084747314</v>
+        <v>5.160562038421631</v>
       </c>
       <c r="G63" t="n">
         <v>13650</v>
@@ -2624,7 +2624,7 @@
         <v>10.68000030517578</v>
       </c>
       <c r="F64" t="n">
-        <v>5.001341342926025</v>
+        <v>5.001342296600342</v>
       </c>
       <c r="G64" t="n">
         <v>2800</v>
@@ -2659,7 +2659,7 @@
         <v>10.85999965667725</v>
       </c>
       <c r="F65" t="n">
-        <v>5.085634708404541</v>
+        <v>5.085633754730225</v>
       </c>
       <c r="G65" t="n">
         <v>12450</v>
@@ -2694,7 +2694,7 @@
         <v>10.52000045776367</v>
       </c>
       <c r="F66" t="n">
-        <v>4.926414489746094</v>
+        <v>4.92641544342041</v>
       </c>
       <c r="G66" t="n">
         <v>22000</v>
@@ -2729,7 +2729,7 @@
         <v>10.5</v>
       </c>
       <c r="F67" t="n">
-        <v>4.946749210357666</v>
+        <v>4.9467453956604</v>
       </c>
       <c r="G67" t="n">
         <v>10450</v>
@@ -2764,7 +2764,7 @@
         <v>8.319999694824219</v>
       </c>
       <c r="F68" t="n">
-        <v>3.9197096824646</v>
+        <v>3.919709205627441</v>
       </c>
       <c r="G68" t="n">
         <v>7600</v>
@@ -2834,7 +2834,7 @@
         <v>9.119999885559082</v>
       </c>
       <c r="F70" t="n">
-        <v>4.296604633331299</v>
+        <v>4.296604156494141</v>
       </c>
       <c r="G70" t="n">
         <v>7150</v>
@@ -2869,7 +2869,7 @@
         <v>10.14000034332275</v>
       </c>
       <c r="F71" t="n">
-        <v>4.816062450408936</v>
+        <v>4.816063404083252</v>
       </c>
       <c r="G71" t="n">
         <v>32050</v>
@@ -2904,7 +2904,7 @@
         <v>11.46000003814697</v>
       </c>
       <c r="F72" t="n">
-        <v>5.443005561828613</v>
+        <v>5.443006038665771</v>
       </c>
       <c r="G72" t="n">
         <v>21650</v>
@@ -2974,7 +2974,7 @@
         <v>11.34000015258789</v>
       </c>
       <c r="F74" t="n">
-        <v>5.386010646820068</v>
+        <v>5.386013507843018</v>
       </c>
       <c r="G74" t="n">
         <v>7600</v>
@@ -3009,7 +3009,7 @@
         <v>11</v>
       </c>
       <c r="F75" t="n">
-        <v>5.224526405334473</v>
+        <v>5.22452449798584</v>
       </c>
       <c r="G75" t="n">
         <v>31950</v>
@@ -3079,7 +3079,7 @@
         <v>10.53999996185303</v>
       </c>
       <c r="F77" t="n">
-        <v>5.006045341491699</v>
+        <v>5.006044864654541</v>
       </c>
       <c r="G77" t="n">
         <v>14100</v>
@@ -3114,7 +3114,7 @@
         <v>9.819999694824219</v>
       </c>
       <c r="F78" t="n">
-        <v>4.664077281951904</v>
+        <v>4.664076328277588</v>
       </c>
       <c r="G78" t="n">
         <v>22950</v>
@@ -3149,7 +3149,7 @@
         <v>9.979999542236328</v>
       </c>
       <c r="F79" t="n">
-        <v>4.740070343017578</v>
+        <v>4.740069389343262</v>
       </c>
       <c r="G79" t="n">
         <v>10500</v>
@@ -3184,7 +3184,7 @@
         <v>8.880000114440918</v>
       </c>
       <c r="F80" t="n">
-        <v>4.217617988586426</v>
+        <v>4.217617511749268</v>
       </c>
       <c r="G80" t="n">
         <v>26250</v>
@@ -3219,7 +3219,7 @@
         <v>9.420000076293945</v>
       </c>
       <c r="F81" t="n">
-        <v>4.474093437194824</v>
+        <v>4.474094390869141</v>
       </c>
       <c r="G81" t="n">
         <v>15700</v>
@@ -3254,7 +3254,7 @@
         <v>9.119999885559082</v>
       </c>
       <c r="F82" t="n">
-        <v>4.331606864929199</v>
+        <v>4.331607818603516</v>
       </c>
       <c r="G82" t="n">
         <v>12450</v>
@@ -3289,7 +3289,7 @@
         <v>8.539999961853027</v>
       </c>
       <c r="F83" t="n">
-        <v>4.131245613098145</v>
+        <v>4.131246089935303</v>
       </c>
       <c r="G83" t="n">
         <v>11100</v>
@@ -3324,7 +3324,7 @@
         <v>8.279999732971191</v>
       </c>
       <c r="F84" t="n">
-        <v>4.005469799041748</v>
+        <v>4.00546932220459</v>
       </c>
       <c r="G84" t="n">
         <v>5400</v>
@@ -3359,7 +3359,7 @@
         <v>8.199999809265137</v>
       </c>
       <c r="F85" t="n">
-        <v>3.966769695281982</v>
+        <v>3.966770887374878</v>
       </c>
       <c r="G85" t="n">
         <v>6250</v>
@@ -3394,7 +3394,7 @@
         <v>8.020000457763672</v>
       </c>
       <c r="F86" t="n">
-        <v>3.879693984985352</v>
+        <v>3.879695177078247</v>
       </c>
       <c r="G86" t="n">
         <v>36250</v>
@@ -3464,7 +3464,7 @@
         <v>9.359999656677246</v>
       </c>
       <c r="F88" t="n">
-        <v>4.5279221534729</v>
+        <v>4.527922630310059</v>
       </c>
       <c r="G88" t="n">
         <v>112300</v>
@@ -3499,7 +3499,7 @@
         <v>9.659999847412109</v>
       </c>
       <c r="F89" t="n">
-        <v>4.67304801940918</v>
+        <v>4.673048496246338</v>
       </c>
       <c r="G89" t="n">
         <v>26750</v>
@@ -3534,7 +3534,7 @@
         <v>10.53999996185303</v>
       </c>
       <c r="F90" t="n">
-        <v>5.098750591278076</v>
+        <v>5.09874963760376</v>
       </c>
       <c r="G90" t="n">
         <v>13300</v>
@@ -3569,7 +3569,7 @@
         <v>10.84000015258789</v>
       </c>
       <c r="F91" t="n">
-        <v>5.243875980377197</v>
+        <v>5.243875503540039</v>
       </c>
       <c r="G91" t="n">
         <v>885550</v>
@@ -3604,7 +3604,7 @@
         <v>11.18000030517578</v>
       </c>
       <c r="F92" t="n">
-        <v>5.408351898193359</v>
+        <v>5.408353805541992</v>
       </c>
       <c r="G92" t="n">
         <v>137150</v>
@@ -3639,7 +3639,7 @@
         <v>11.9399995803833</v>
       </c>
       <c r="F93" t="n">
-        <v>5.776005268096924</v>
+        <v>5.776003360748291</v>
       </c>
       <c r="G93" t="n">
         <v>53150</v>
@@ -3674,7 +3674,7 @@
         <v>11.9399995803833</v>
       </c>
       <c r="F94" t="n">
-        <v>5.776005268096924</v>
+        <v>5.776003360748291</v>
       </c>
       <c r="G94" t="n">
         <v>54200</v>
@@ -3709,7 +3709,7 @@
         <v>12</v>
       </c>
       <c r="F95" t="n">
-        <v>5.994367599487305</v>
+        <v>5.994367122650146</v>
       </c>
       <c r="G95" t="n">
         <v>147150</v>
@@ -3744,7 +3744,7 @@
         <v>12.65999984741211</v>
       </c>
       <c r="F96" t="n">
-        <v>6.324057102203369</v>
+        <v>6.324058532714844</v>
       </c>
       <c r="G96" t="n">
         <v>137300</v>
@@ -3814,7 +3814,7 @@
         <v>12.76000022888184</v>
       </c>
       <c r="F98" t="n">
-        <v>6.374011039733887</v>
+        <v>6.374011993408203</v>
       </c>
       <c r="G98" t="n">
         <v>33750</v>
@@ -3849,7 +3849,7 @@
         <v>12.19999980926514</v>
       </c>
       <c r="F99" t="n">
-        <v>6.094274044036865</v>
+        <v>6.094274520874023</v>
       </c>
       <c r="G99" t="n">
         <v>139400</v>
@@ -3919,7 +3919,7 @@
         <v>12.52000045776367</v>
       </c>
       <c r="F101" t="n">
-        <v>6.254123210906982</v>
+        <v>6.254123687744141</v>
       </c>
       <c r="G101" t="n">
         <v>111450</v>
@@ -3954,7 +3954,7 @@
         <v>12.60000038146973</v>
       </c>
       <c r="F102" t="n">
-        <v>6.294088363647461</v>
+        <v>6.294086456298828</v>
       </c>
       <c r="G102" t="n">
         <v>109300</v>
@@ -4094,7 +4094,7 @@
         <v>14.26000022888184</v>
       </c>
       <c r="F106" t="n">
-        <v>7.123307228088379</v>
+        <v>7.123308658599854</v>
       </c>
       <c r="G106" t="n">
         <v>230050</v>
@@ -4199,7 +4199,7 @@
         <v>14.65999984741211</v>
       </c>
       <c r="F109" t="n">
-        <v>7.609242916107178</v>
+        <v>7.609245300292969</v>
       </c>
       <c r="G109" t="n">
         <v>209700</v>
@@ -4234,7 +4234,7 @@
         <v>14.47999954223633</v>
       </c>
       <c r="F110" t="n">
-        <v>7.51581335067749</v>
+        <v>7.515814781188965</v>
       </c>
       <c r="G110" t="n">
         <v>139600</v>
@@ -4269,7 +4269,7 @@
         <v>14.5600004196167</v>
       </c>
       <c r="F111" t="n">
-        <v>7.5573410987854</v>
+        <v>7.557338237762451</v>
       </c>
       <c r="G111" t="n">
         <v>59200</v>
@@ -4304,7 +4304,7 @@
         <v>14.72000026702881</v>
       </c>
       <c r="F112" t="n">
-        <v>7.640387535095215</v>
+        <v>7.640388011932373</v>
       </c>
       <c r="G112" t="n">
         <v>78950</v>
@@ -4339,7 +4339,7 @@
         <v>15.14000034332275</v>
       </c>
       <c r="F113" t="n">
-        <v>7.858386039733887</v>
+        <v>7.858387470245361</v>
       </c>
       <c r="G113" t="n">
         <v>84600</v>
@@ -4374,7 +4374,7 @@
         <v>16.21999931335449</v>
       </c>
       <c r="F114" t="n">
-        <v>8.418956756591797</v>
+        <v>8.418957710266113</v>
       </c>
       <c r="G114" t="n">
         <v>83600</v>
@@ -4409,7 +4409,7 @@
         <v>15.65999984741211</v>
       </c>
       <c r="F115" t="n">
-        <v>8.128292083740234</v>
+        <v>8.128291130065918</v>
       </c>
       <c r="G115" t="n">
         <v>140450</v>
@@ -4444,7 +4444,7 @@
         <v>15.96000003814697</v>
       </c>
       <c r="F116" t="n">
-        <v>8.284005165100098</v>
+        <v>8.28400707244873</v>
       </c>
       <c r="G116" t="n">
         <v>524450</v>
@@ -4479,7 +4479,7 @@
         <v>15.31999969482422</v>
       </c>
       <c r="F117" t="n">
-        <v>7.951816082000732</v>
+        <v>7.951817035675049</v>
       </c>
       <c r="G117" t="n">
         <v>171550</v>
@@ -4514,7 +4514,7 @@
         <v>15.69999980926514</v>
       </c>
       <c r="F118" t="n">
-        <v>8.149052619934082</v>
+        <v>8.149053573608398</v>
       </c>
       <c r="G118" t="n">
         <v>669150</v>
@@ -4549,7 +4549,7 @@
         <v>15.80000019073486</v>
       </c>
       <c r="F119" t="n">
-        <v>8.505475044250488</v>
+        <v>8.505475997924805</v>
       </c>
       <c r="G119" t="n">
         <v>50550</v>
@@ -4584,7 +4584,7 @@
         <v>16.84000015258789</v>
       </c>
       <c r="F120" t="n">
-        <v>9.06533145904541</v>
+        <v>9.065328598022461</v>
       </c>
       <c r="G120" t="n">
         <v>368600</v>
@@ -4619,7 +4619,7 @@
         <v>17.10000038146973</v>
       </c>
       <c r="F121" t="n">
-        <v>9.205293655395508</v>
+        <v>9.205296516418457</v>
       </c>
       <c r="G121" t="n">
         <v>487600</v>
@@ -4654,7 +4654,7 @@
         <v>17.55999946594238</v>
       </c>
       <c r="F122" t="n">
-        <v>9.452923774719238</v>
+        <v>9.452921867370605</v>
       </c>
       <c r="G122" t="n">
         <v>175350</v>
@@ -4689,7 +4689,7 @@
         <v>18.68000030517578</v>
       </c>
       <c r="F123" t="n">
-        <v>10.05584144592285</v>
+        <v>10.05583953857422</v>
       </c>
       <c r="G123" t="n">
         <v>515000</v>
@@ -4759,7 +4759,7 @@
         <v>17.60000038146973</v>
       </c>
       <c r="F125" t="n">
-        <v>9.474454879760742</v>
+        <v>9.474456787109375</v>
       </c>
       <c r="G125" t="n">
         <v>276450</v>
@@ -4829,7 +4829,7 @@
         <v>18.13999938964844</v>
       </c>
       <c r="F127" t="n">
-        <v>9.76514720916748</v>
+        <v>9.765146255493164</v>
       </c>
       <c r="G127" t="n">
         <v>247600</v>
@@ -4864,7 +4864,7 @@
         <v>18.65999984741211</v>
       </c>
       <c r="F128" t="n">
-        <v>10.04507446289062</v>
+        <v>10.04507350921631</v>
       </c>
       <c r="G128" t="n">
         <v>162800</v>
@@ -4899,7 +4899,7 @@
         <v>20.26000022888184</v>
       </c>
       <c r="F129" t="n">
-        <v>10.9063892364502</v>
+        <v>10.90639019012451</v>
       </c>
       <c r="G129" t="n">
         <v>552550</v>
@@ -4934,7 +4934,7 @@
         <v>21.94000053405762</v>
       </c>
       <c r="F130" t="n">
-        <v>11.81076908111572</v>
+        <v>11.81076431274414</v>
       </c>
       <c r="G130" t="n">
         <v>3375050</v>
@@ -4969,7 +4969,7 @@
         <v>22.39999961853027</v>
       </c>
       <c r="F131" t="n">
-        <v>12.40082836151123</v>
+        <v>12.40083122253418</v>
       </c>
       <c r="G131" t="n">
         <v>561300</v>
@@ -5004,7 +5004,7 @@
         <v>23.44000053405762</v>
       </c>
       <c r="F132" t="n">
-        <v>12.97658157348633</v>
+        <v>12.97658538818359</v>
       </c>
       <c r="G132" t="n">
         <v>1744000</v>
@@ -5039,7 +5039,7 @@
         <v>23.3799991607666</v>
       </c>
       <c r="F133" t="n">
-        <v>12.94336891174316</v>
+        <v>12.94336795806885</v>
       </c>
       <c r="G133" t="n">
         <v>5500900</v>
@@ -5074,7 +5074,7 @@
         <v>24.73999977111816</v>
       </c>
       <c r="F134" t="n">
-        <v>13.6962776184082</v>
+        <v>13.69627571105957</v>
       </c>
       <c r="G134" t="n">
         <v>1445750</v>
@@ -5109,7 +5109,7 @@
         <v>25.45999908447266</v>
       </c>
       <c r="F135" t="n">
-        <v>14.09487438201904</v>
+        <v>14.09487628936768</v>
       </c>
       <c r="G135" t="n">
         <v>1315350</v>
@@ -5144,7 +5144,7 @@
         <v>27.3799991607666</v>
       </c>
       <c r="F136" t="n">
-        <v>15.15780353546143</v>
+        <v>15.15780258178711</v>
       </c>
       <c r="G136" t="n">
         <v>1223800</v>
@@ -5214,7 +5214,7 @@
         <v>27.05999946594238</v>
       </c>
       <c r="F138" t="n">
-        <v>14.98064708709717</v>
+        <v>14.9806489944458</v>
       </c>
       <c r="G138" t="n">
         <v>1800350</v>
@@ -5249,7 +5249,7 @@
         <v>26.60000038146973</v>
       </c>
       <c r="F139" t="n">
-        <v>14.72598552703857</v>
+        <v>14.72598457336426</v>
       </c>
       <c r="G139" t="n">
         <v>1598950</v>
@@ -5284,7 +5284,7 @@
         <v>29.63999938964844</v>
       </c>
       <c r="F140" t="n">
-        <v>16.40896034240723</v>
+        <v>16.40895652770996</v>
       </c>
       <c r="G140" t="n">
         <v>1501750</v>
@@ -5319,7 +5319,7 @@
         <v>31.47999954223633</v>
       </c>
       <c r="F141" t="n">
-        <v>17.4276008605957</v>
+        <v>17.4275951385498</v>
       </c>
       <c r="G141" t="n">
         <v>1584100</v>
@@ -5354,7 +5354,7 @@
         <v>28.76000022888184</v>
       </c>
       <c r="F142" t="n">
-        <v>15.92178440093994</v>
+        <v>15.92178058624268</v>
       </c>
       <c r="G142" t="n">
         <v>1793300</v>
@@ -5389,7 +5389,7 @@
         <v>27.57999992370605</v>
       </c>
       <c r="F143" t="n">
-        <v>15.86128616333008</v>
+        <v>15.86128234863281</v>
       </c>
       <c r="G143" t="n">
         <v>916200</v>
@@ -5424,7 +5424,7 @@
         <v>24.36000061035156</v>
       </c>
       <c r="F144" t="n">
-        <v>14.00945949554443</v>
+        <v>14.00945854187012</v>
       </c>
       <c r="G144" t="n">
         <v>3025250</v>
@@ -5459,7 +5459,7 @@
         <v>24.29999923706055</v>
       </c>
       <c r="F145" t="n">
-        <v>13.97495174407959</v>
+        <v>13.97495269775391</v>
       </c>
       <c r="G145" t="n">
         <v>2957700</v>
@@ -5494,7 +5494,7 @@
         <v>25.54000091552734</v>
       </c>
       <c r="F146" t="n">
-        <v>14.68807983398438</v>
+        <v>14.68808078765869</v>
       </c>
       <c r="G146" t="n">
         <v>4311600</v>
@@ -5529,7 +5529,7 @@
         <v>27.13999938964844</v>
       </c>
       <c r="F147" t="n">
-        <v>15.60823822021484</v>
+        <v>15.60824203491211</v>
       </c>
       <c r="G147" t="n">
         <v>1236500</v>
@@ -5564,7 +5564,7 @@
         <v>27.47999954223633</v>
       </c>
       <c r="F148" t="n">
-        <v>15.80377388000488</v>
+        <v>15.8037748336792</v>
       </c>
       <c r="G148" t="n">
         <v>1605700</v>
@@ -5634,7 +5634,7 @@
         <v>24.65999984741211</v>
       </c>
       <c r="F150" t="n">
-        <v>14.33401584625244</v>
+        <v>14.33401489257812</v>
       </c>
       <c r="G150" t="n">
         <v>802000</v>
@@ -5669,7 +5669,7 @@
         <v>22.5</v>
       </c>
       <c r="F151" t="n">
-        <v>13.07848358154297</v>
+        <v>13.07848072052002</v>
       </c>
       <c r="G151" t="n">
         <v>444800</v>
@@ -5809,7 +5809,7 @@
         <v>14.10000038146973</v>
       </c>
       <c r="F155" t="n">
-        <v>8.541342735290527</v>
+        <v>8.541339874267578</v>
       </c>
       <c r="G155" t="n">
         <v>832300</v>
@@ -5844,7 +5844,7 @@
         <v>12.89999961853027</v>
       </c>
       <c r="F156" t="n">
-        <v>7.814419746398926</v>
+        <v>7.814417839050293</v>
       </c>
       <c r="G156" t="n">
         <v>1617800</v>
@@ -5879,7 +5879,7 @@
         <v>11.47999954223633</v>
       </c>
       <c r="F157" t="n">
-        <v>6.954226970672607</v>
+        <v>6.954227447509766</v>
       </c>
       <c r="G157" t="n">
         <v>1993900</v>
@@ -5949,7 +5949,7 @@
         <v>14.64000034332275</v>
       </c>
       <c r="F159" t="n">
-        <v>8.86845588684082</v>
+        <v>8.868453979492188</v>
       </c>
       <c r="G159" t="n">
         <v>1330950</v>
@@ -6089,7 +6089,7 @@
         <v>20.45999908447266</v>
       </c>
       <c r="F163" t="n">
-        <v>12.48743629455566</v>
+        <v>12.4874324798584</v>
       </c>
       <c r="G163" t="n">
         <v>2112900</v>
@@ -6124,7 +6124,7 @@
         <v>21.5</v>
       </c>
       <c r="F164" t="n">
-        <v>13.12218570709229</v>
+        <v>13.12218189239502</v>
       </c>
       <c r="G164" t="n">
         <v>2025850</v>
@@ -6159,7 +6159,7 @@
         <v>20.95999908447266</v>
       </c>
       <c r="F165" t="n">
-        <v>12.79259967803955</v>
+        <v>12.79260158538818</v>
       </c>
       <c r="G165" t="n">
         <v>2678500</v>
@@ -6194,7 +6194,7 @@
         <v>22.71999931335449</v>
       </c>
       <c r="F166" t="n">
-        <v>13.86679172515869</v>
+        <v>13.86678791046143</v>
       </c>
       <c r="G166" t="n">
         <v>3165250</v>
@@ -6229,7 +6229,7 @@
         <v>22.97999954223633</v>
       </c>
       <c r="F167" t="n">
-        <v>14.34722518920898</v>
+        <v>14.34722709655762</v>
       </c>
       <c r="G167" t="n">
         <v>738400</v>
@@ -6264,7 +6264,7 @@
         <v>21.55999946594238</v>
       </c>
       <c r="F168" t="n">
-        <v>13.46066951751709</v>
+        <v>13.46067237854004</v>
       </c>
       <c r="G168" t="n">
         <v>2383500</v>
@@ -6299,7 +6299,7 @@
         <v>22.02000045776367</v>
       </c>
       <c r="F169" t="n">
-        <v>13.74786567687988</v>
+        <v>13.74786472320557</v>
       </c>
       <c r="G169" t="n">
         <v>1279350</v>
@@ -6334,7 +6334,7 @@
         <v>23</v>
       </c>
       <c r="F170" t="n">
-        <v>14.35971641540527</v>
+        <v>14.35970783233643</v>
       </c>
       <c r="G170" t="n">
         <v>2253450</v>
@@ -6369,7 +6369,7 @@
         <v>24.02000045776367</v>
       </c>
       <c r="F171" t="n">
-        <v>14.9965353012085</v>
+        <v>14.99653625488281</v>
       </c>
       <c r="G171" t="n">
         <v>1699250</v>
@@ -6404,7 +6404,7 @@
         <v>22.02000045776367</v>
       </c>
       <c r="F172" t="n">
-        <v>13.74786567687988</v>
+        <v>13.74786472320557</v>
       </c>
       <c r="G172" t="n">
         <v>2229550</v>
@@ -6439,7 +6439,7 @@
         <v>22.47999954223633</v>
       </c>
       <c r="F173" t="n">
-        <v>14.17881488800049</v>
+        <v>14.17881202697754</v>
       </c>
       <c r="G173" t="n">
         <v>1072450</v>
@@ -6474,7 +6474,7 @@
         <v>24.6200008392334</v>
       </c>
       <c r="F174" t="n">
-        <v>15.52857112884521</v>
+        <v>15.52857971191406</v>
       </c>
       <c r="G174" t="n">
         <v>1498700</v>
@@ -6509,7 +6509,7 @@
         <v>24.31999969482422</v>
       </c>
       <c r="F175" t="n">
-        <v>15.33935546875</v>
+        <v>15.33935356140137</v>
       </c>
       <c r="G175" t="n">
         <v>2763800</v>
@@ -6544,7 +6544,7 @@
         <v>26.44000053405762</v>
       </c>
       <c r="F176" t="n">
-        <v>16.6765022277832</v>
+        <v>16.67650413513184</v>
       </c>
       <c r="G176" t="n">
         <v>2461500</v>
@@ -6579,7 +6579,7 @@
         <v>27.28000068664551</v>
       </c>
       <c r="F177" t="n">
-        <v>17.20631790161133</v>
+        <v>17.20632171630859</v>
       </c>
       <c r="G177" t="n">
         <v>730850</v>
@@ -6614,7 +6614,7 @@
         <v>26.71999931335449</v>
       </c>
       <c r="F178" t="n">
-        <v>16.85311126708984</v>
+        <v>16.85310935974121</v>
       </c>
       <c r="G178" t="n">
         <v>2071100</v>
@@ -6649,7 +6649,7 @@
         <v>27.70000076293945</v>
       </c>
       <c r="F179" t="n">
-        <v>17.87796401977539</v>
+        <v>17.87796592712402</v>
       </c>
       <c r="G179" t="n">
         <v>1246800</v>
@@ -6684,7 +6684,7 @@
         <v>27.47999954223633</v>
       </c>
       <c r="F180" t="n">
-        <v>17.73597145080566</v>
+        <v>17.7359676361084</v>
       </c>
       <c r="G180" t="n">
         <v>2311950</v>
@@ -6719,7 +6719,7 @@
         <v>26.10000038146973</v>
       </c>
       <c r="F181" t="n">
-        <v>16.84530258178711</v>
+        <v>16.84529876708984</v>
       </c>
       <c r="G181" t="n">
         <v>1221650</v>
@@ -6894,7 +6894,7 @@
         <v>28.76000022888184</v>
       </c>
       <c r="F186" t="n">
-        <v>18.82330513000488</v>
+        <v>18.82330703735352</v>
       </c>
       <c r="G186" t="n">
         <v>2304400</v>
@@ -6929,7 +6929,7 @@
         <v>26.04000091552734</v>
       </c>
       <c r="F187" t="n">
-        <v>17.04308319091797</v>
+        <v>17.0430793762207</v>
       </c>
       <c r="G187" t="n">
         <v>2048200</v>
@@ -6964,7 +6964,7 @@
         <v>22</v>
       </c>
       <c r="F188" t="n">
-        <v>14.3989143371582</v>
+        <v>14.39891719818115</v>
       </c>
       <c r="G188" t="n">
         <v>1127950</v>
@@ -6999,7 +6999,7 @@
         <v>24.5</v>
       </c>
       <c r="F189" t="n">
-        <v>16.03515434265137</v>
+        <v>16.03515625</v>
       </c>
       <c r="G189" t="n">
         <v>727600</v>
@@ -7034,7 +7034,7 @@
         <v>23.54000091552734</v>
       </c>
       <c r="F190" t="n">
-        <v>15.40683746337891</v>
+        <v>15.40683555603027</v>
       </c>
       <c r="G190" t="n">
         <v>1432050</v>
@@ -7069,7 +7069,7 @@
         <v>21.65999984741211</v>
       </c>
       <c r="F191" t="n">
-        <v>14.54884719848633</v>
+        <v>14.5488452911377</v>
       </c>
       <c r="G191" t="n">
         <v>813900</v>
@@ -7104,7 +7104,7 @@
         <v>24.76000022888184</v>
       </c>
       <c r="F192" t="n">
-        <v>16.63108825683594</v>
+        <v>16.63109016418457</v>
       </c>
       <c r="G192" t="n">
         <v>875500</v>
@@ -7139,7 +7139,7 @@
         <v>25.78000068664551</v>
       </c>
       <c r="F193" t="n">
-        <v>17.31621551513672</v>
+        <v>17.31621170043945</v>
       </c>
       <c r="G193" t="n">
         <v>902500</v>
@@ -7174,7 +7174,7 @@
         <v>25.78000068664551</v>
       </c>
       <c r="F194" t="n">
-        <v>17.31621551513672</v>
+        <v>17.31621170043945</v>
       </c>
       <c r="G194" t="n">
         <v>693750</v>
@@ -7244,7 +7244,7 @@
         <v>23.29999923706055</v>
       </c>
       <c r="F196" t="n">
-        <v>15.65042114257812</v>
+        <v>15.65042018890381</v>
       </c>
       <c r="G196" t="n">
         <v>1432050</v>
@@ -7279,7 +7279,7 @@
         <v>24.63999938964844</v>
       </c>
       <c r="F197" t="n">
-        <v>16.81892967224121</v>
+        <v>16.81892776489258</v>
       </c>
       <c r="G197" t="n">
         <v>871800</v>
@@ -7314,7 +7314,7 @@
         <v>26.28000068664551</v>
       </c>
       <c r="F198" t="n">
-        <v>17.93837356567383</v>
+        <v>17.93837738037109</v>
       </c>
       <c r="G198" t="n">
         <v>1788250</v>
@@ -7349,7 +7349,7 @@
         <v>26.26000022888184</v>
       </c>
       <c r="F199" t="n">
-        <v>17.92472267150879</v>
+        <v>17.92472076416016</v>
       </c>
       <c r="G199" t="n">
         <v>1217150</v>
@@ -7384,7 +7384,7 @@
         <v>26.81999969482422</v>
       </c>
       <c r="F200" t="n">
-        <v>18.30697250366211</v>
+        <v>18.30696868896484</v>
       </c>
       <c r="G200" t="n">
         <v>1141800</v>
@@ -7419,7 +7419,7 @@
         <v>26.68000030517578</v>
       </c>
       <c r="F201" t="n">
-        <v>18.21141052246094</v>
+        <v>18.21141242980957</v>
       </c>
       <c r="G201" t="n">
         <v>1270650</v>
@@ -7559,7 +7559,7 @@
         <v>27.31999969482422</v>
       </c>
       <c r="F205" t="n">
-        <v>19.12430572509766</v>
+        <v>19.12430763244629</v>
       </c>
       <c r="G205" t="n">
         <v>814500</v>
@@ -7594,7 +7594,7 @@
         <v>27.92000007629395</v>
       </c>
       <c r="F206" t="n">
-        <v>19.54431915283203</v>
+        <v>19.54431533813477</v>
       </c>
       <c r="G206" t="n">
         <v>409650</v>
@@ -7629,7 +7629,7 @@
         <v>28.8799991607666</v>
       </c>
       <c r="F207" t="n">
-        <v>20.21632766723633</v>
+        <v>20.21632957458496</v>
       </c>
       <c r="G207" t="n">
         <v>618950</v>
@@ -7664,7 +7664,7 @@
         <v>27.05999946594238</v>
       </c>
       <c r="F208" t="n">
-        <v>18.94230461120605</v>
+        <v>18.94230651855469</v>
       </c>
       <c r="G208" t="n">
         <v>1111700</v>
@@ -7699,7 +7699,7 @@
         <v>25.57999992370605</v>
       </c>
       <c r="F209" t="n">
-        <v>18.24275207519531</v>
+        <v>18.24275398254395</v>
       </c>
       <c r="G209" t="n">
         <v>1407200</v>
@@ -7769,7 +7769,7 @@
         <v>24.79999923706055</v>
       </c>
       <c r="F211" t="n">
-        <v>17.68647956848145</v>
+        <v>17.68648147583008</v>
       </c>
       <c r="G211" t="n">
         <v>698400</v>
@@ -7804,7 +7804,7 @@
         <v>26.70000076293945</v>
       </c>
       <c r="F212" t="n">
-        <v>19.04149436950684</v>
+        <v>19.04149627685547</v>
       </c>
       <c r="G212" t="n">
         <v>671200</v>
@@ -7839,7 +7839,7 @@
         <v>27.6200008392334</v>
       </c>
       <c r="F213" t="n">
-        <v>19.69760894775391</v>
+        <v>19.69761085510254</v>
       </c>
       <c r="G213" t="n">
         <v>542150</v>
@@ -7979,7 +7979,7 @@
         <v>25.34000015258789</v>
       </c>
       <c r="F217" t="n">
-        <v>18.44040107727051</v>
+        <v>18.44039916992188</v>
       </c>
       <c r="G217" t="n">
         <v>630400</v>
@@ -8014,7 +8014,7 @@
         <v>26.1200008392334</v>
       </c>
       <c r="F218" t="n">
-        <v>19.00801658630371</v>
+        <v>19.00802040100098</v>
       </c>
       <c r="G218" t="n">
         <v>502050</v>
@@ -8049,7 +8049,7 @@
         <v>27.21999931335449</v>
       </c>
       <c r="F219" t="n">
-        <v>19.80851173400879</v>
+        <v>19.80850791931152</v>
       </c>
       <c r="G219" t="n">
         <v>717750</v>
@@ -8119,7 +8119,7 @@
         <v>27.04000091552734</v>
       </c>
       <c r="F221" t="n">
-        <v>19.95594215393066</v>
+        <v>19.95594596862793</v>
       </c>
       <c r="G221" t="n">
         <v>245400</v>
@@ -8154,7 +8154,7 @@
         <v>28.1200008392334</v>
       </c>
       <c r="F222" t="n">
-        <v>20.75300407409668</v>
+        <v>20.75300025939941</v>
       </c>
       <c r="G222" t="n">
         <v>671050</v>
@@ -8224,7 +8224,7 @@
         <v>26.68000030517578</v>
       </c>
       <c r="F224" t="n">
-        <v>19.69025993347168</v>
+        <v>19.69025802612305</v>
       </c>
       <c r="G224" t="n">
         <v>507100</v>
@@ -8259,7 +8259,7 @@
         <v>26.54000091552734</v>
       </c>
       <c r="F225" t="n">
-        <v>19.58693504333496</v>
+        <v>19.58693313598633</v>
       </c>
       <c r="G225" t="n">
         <v>435450</v>
@@ -8364,7 +8364,7 @@
         <v>25.54000091552734</v>
       </c>
       <c r="F228" t="n">
-        <v>19.21745681762695</v>
+        <v>19.21745300292969</v>
       </c>
       <c r="G228" t="n">
         <v>558900</v>
@@ -8469,7 +8469,7 @@
         <v>27.36000061035156</v>
       </c>
       <c r="F231" t="n">
-        <v>20.58690643310547</v>
+        <v>20.5869026184082</v>
       </c>
       <c r="G231" t="n">
         <v>450600</v>
@@ -8504,7 +8504,7 @@
         <v>25.76000022888184</v>
       </c>
       <c r="F232" t="n">
-        <v>19.38298988342285</v>
+        <v>19.38298797607422</v>
       </c>
       <c r="G232" t="n">
         <v>365600</v>
@@ -8539,7 +8539,7 @@
         <v>25.13999938964844</v>
       </c>
       <c r="F233" t="n">
-        <v>19.18353271484375</v>
+        <v>19.18353462219238</v>
       </c>
       <c r="G233" t="n">
         <v>449400</v>
@@ -8574,7 +8574,7 @@
         <v>24.07999992370605</v>
       </c>
       <c r="F234" t="n">
-        <v>18.37467765808105</v>
+        <v>18.37467956542969</v>
       </c>
       <c r="G234" t="n">
         <v>1736950</v>
@@ -8609,7 +8609,7 @@
         <v>21.15999984741211</v>
       </c>
       <c r="F235" t="n">
-        <v>16.14651870727539</v>
+        <v>16.14652252197266</v>
       </c>
       <c r="G235" t="n">
         <v>714450</v>
@@ -8644,7 +8644,7 @@
         <v>20.34000015258789</v>
       </c>
       <c r="F236" t="n">
-        <v>15.52080345153809</v>
+        <v>15.52080917358398</v>
       </c>
       <c r="G236" t="n">
         <v>640750</v>
@@ -8679,7 +8679,7 @@
         <v>22.23999977111816</v>
       </c>
       <c r="F237" t="n">
-        <v>16.97063446044922</v>
+        <v>16.97063636779785</v>
       </c>
       <c r="G237" t="n">
         <v>706250</v>
@@ -8714,7 +8714,7 @@
         <v>21.02000045776367</v>
       </c>
       <c r="F238" t="n">
-        <v>16.03969192504883</v>
+        <v>16.0396900177002</v>
       </c>
       <c r="G238" t="n">
         <v>651200</v>
@@ -8749,7 +8749,7 @@
         <v>20.55999946594238</v>
       </c>
       <c r="F239" t="n">
-        <v>16.07865524291992</v>
+        <v>16.07865333557129</v>
       </c>
       <c r="G239" t="n">
         <v>553850</v>
@@ -8819,7 +8819,7 @@
         <v>19.39999961853027</v>
       </c>
       <c r="F241" t="n">
-        <v>15.17148971557617</v>
+        <v>15.17149257659912</v>
       </c>
       <c r="G241" t="n">
         <v>845200</v>
@@ -8889,7 +8889,7 @@
         <v>21.73999977111816</v>
       </c>
       <c r="F243" t="n">
-        <v>17.00145149230957</v>
+        <v>17.0014533996582</v>
       </c>
       <c r="G243" t="n">
         <v>1072800</v>
@@ -8994,7 +8994,7 @@
         <v>21.84000015258789</v>
       </c>
       <c r="F246" t="n">
-        <v>17.1827220916748</v>
+        <v>17.18272399902344</v>
       </c>
       <c r="G246" t="n">
         <v>1371000</v>
@@ -9029,7 +9029,7 @@
         <v>21.18000030517578</v>
       </c>
       <c r="F247" t="n">
-        <v>16.66346168518066</v>
+        <v>16.6634635925293</v>
       </c>
       <c r="G247" t="n">
         <v>692150</v>
@@ -9064,7 +9064,7 @@
         <v>21.71999931335449</v>
       </c>
       <c r="F248" t="n">
-        <v>17.08830833435059</v>
+        <v>17.08831024169922</v>
       </c>
       <c r="G248" t="n">
         <v>616050</v>
@@ -9099,7 +9099,7 @@
         <v>20.70000076293945</v>
       </c>
       <c r="F249" t="n">
-        <v>16.28582191467285</v>
+        <v>16.28582000732422</v>
       </c>
       <c r="G249" t="n">
         <v>520850</v>
@@ -9309,7 +9309,7 @@
         <v>22.97999954223633</v>
       </c>
       <c r="F255" t="n">
-        <v>18.66753578186035</v>
+        <v>18.66753196716309</v>
       </c>
       <c r="G255" t="n">
         <v>267100</v>
@@ -9414,7 +9414,7 @@
         <v>24.85000038146973</v>
       </c>
       <c r="F258" t="n">
-        <v>20.40640830993652</v>
+        <v>20.40641021728516</v>
       </c>
       <c r="G258" t="n">
         <v>586000</v>
@@ -9484,7 +9484,7 @@
         <v>24.43000030517578</v>
       </c>
       <c r="F260" t="n">
-        <v>20.06151390075684</v>
+        <v>20.0615119934082</v>
       </c>
       <c r="G260" t="n">
         <v>418000</v>
@@ -9519,7 +9519,7 @@
         <v>25.53000068664551</v>
       </c>
       <c r="F261" t="n">
-        <v>20.96481323242188</v>
+        <v>20.96481132507324</v>
       </c>
       <c r="G261" t="n">
         <v>374600</v>
@@ -9554,7 +9554,7 @@
         <v>26.44000053405762</v>
       </c>
       <c r="F262" t="n">
-        <v>21.71209335327148</v>
+        <v>21.71208953857422</v>
       </c>
       <c r="G262" t="n">
         <v>765700</v>
@@ -9589,7 +9589,7 @@
         <v>25.93000030517578</v>
       </c>
       <c r="F263" t="n">
-        <v>21.82131576538086</v>
+        <v>21.82131385803223</v>
       </c>
       <c r="G263" t="n">
         <v>534800</v>
@@ -9659,7 +9659,7 @@
         <v>26.69000053405762</v>
       </c>
       <c r="F265" t="n">
-        <v>22.46089363098145</v>
+        <v>22.46088981628418</v>
       </c>
       <c r="G265" t="n">
         <v>1075300</v>
@@ -9729,7 +9729,7 @@
         <v>27.86000061035156</v>
       </c>
       <c r="F267" t="n">
-        <v>23.44550514221191</v>
+        <v>23.44549942016602</v>
       </c>
       <c r="G267" t="n">
         <v>772300</v>
@@ -9834,7 +9834,7 @@
         <v>24.42000007629395</v>
       </c>
       <c r="F270" t="n">
-        <v>20.95817184448242</v>
+        <v>20.95816993713379</v>
       </c>
       <c r="G270" t="n">
         <v>567900</v>
@@ -9869,7 +9869,7 @@
         <v>23.79999923706055</v>
       </c>
       <c r="F271" t="n">
-        <v>20.42606163024902</v>
+        <v>20.42606353759766</v>
       </c>
       <c r="G271" t="n">
         <v>445300</v>
@@ -9939,7 +9939,7 @@
         <v>22.23999977111816</v>
       </c>
       <c r="F273" t="n">
-        <v>19.08720970153809</v>
+        <v>19.08721160888672</v>
       </c>
       <c r="G273" t="n">
         <v>461700</v>
@@ -9974,7 +9974,7 @@
         <v>22.93000030517578</v>
       </c>
       <c r="F274" t="n">
-        <v>19.67939567565918</v>
+        <v>19.67939758300781</v>
       </c>
       <c r="G274" t="n">
         <v>481100</v>
@@ -10079,7 +10079,7 @@
         <v>23.46999931335449</v>
       </c>
       <c r="F277" t="n">
-        <v>20.54613494873047</v>
+        <v>20.54613304138184</v>
       </c>
       <c r="G277" t="n">
         <v>560000</v>
@@ -10114,7 +10114,7 @@
         <v>23.72999954223633</v>
       </c>
       <c r="F278" t="n">
-        <v>20.77374458312988</v>
+        <v>20.77374649047852</v>
       </c>
       <c r="G278" t="n">
         <v>692300</v>
@@ -10184,7 +10184,7 @@
         <v>22.84000015258789</v>
       </c>
       <c r="F280" t="n">
-        <v>19.99462127685547</v>
+        <v>19.99461936950684</v>
       </c>
       <c r="G280" t="n">
         <v>650200</v>
@@ -10254,7 +10254,7 @@
         <v>24.17000007629395</v>
       </c>
       <c r="F282" t="n">
-        <v>21.56978416442871</v>
+        <v>21.56978225708008</v>
       </c>
       <c r="G282" t="n">
         <v>1200800</v>
@@ -10289,7 +10289,7 @@
         <v>22.84000015258789</v>
       </c>
       <c r="F283" t="n">
-        <v>20.38286590576172</v>
+        <v>20.38286399841309</v>
       </c>
       <c r="G283" t="n">
         <v>1611900</v>
@@ -10324,7 +10324,7 @@
         <v>23.20000076293945</v>
       </c>
       <c r="F284" t="n">
-        <v>20.70413589477539</v>
+        <v>20.70413780212402</v>
       </c>
       <c r="G284" t="n">
         <v>554900</v>
@@ -10359,7 +10359,7 @@
         <v>24.30999946594238</v>
       </c>
       <c r="F285" t="n">
-        <v>21.69472312927246</v>
+        <v>21.69472122192383</v>
       </c>
       <c r="G285" t="n">
         <v>476500</v>
@@ -10499,7 +10499,7 @@
         <v>21.82999992370605</v>
       </c>
       <c r="F289" t="n">
-        <v>20.03841781616211</v>
+        <v>20.03841590881348</v>
       </c>
       <c r="G289" t="n">
         <v>3594200</v>
@@ -11298,28 +11298,28 @@
         <v>21.44000053405762</v>
       </c>
       <c r="D312" t="n">
-        <v>21.375</v>
+        <v>21.32500076293945</v>
       </c>
       <c r="E312" t="n">
-        <v>21.38500022888184</v>
+        <v>21.32999992370605</v>
       </c>
       <c r="F312" t="n">
-        <v>21.38500022888184</v>
+        <v>21.32999992370605</v>
       </c>
       <c r="G312" t="n">
-        <v>175223</v>
+        <v>274490</v>
       </c>
       <c r="H312" t="n">
-        <v>-0.0002337148625175534</v>
+        <v>-0.002805024200768336</v>
       </c>
       <c r="I312" t="n">
-        <v>0.05090242839621806</v>
+        <v>0.05090310509188743</v>
       </c>
       <c r="J312" t="n">
-        <v>-0.007195946149369692</v>
+        <v>-0.009749349252344164</v>
       </c>
       <c r="K312" t="n">
-        <v>-0.007195946149369692</v>
+        <v>-0.009749349252344164</v>
       </c>
     </row>
   </sheetData>
